--- a/IFTC.PPQA.RE01_Herramienta de Gestión QA_(v1.2).xlsx
+++ b/IFTC.PPQA.RE01_Herramienta de Gestión QA_(v1.2).xlsx
@@ -18,7 +18,7 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planificación!$A$12:$Y$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planificación!$A$12:$Y$57</definedName>
     <definedName name="Analista" localSheetId="0">#REF!</definedName>
     <definedName name="AreaProceso" localSheetId="0">#REF!</definedName>
     <definedName name="Artefacto" localSheetId="0">#REF!</definedName>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="246">
   <si>
     <t>Analista Responsable</t>
   </si>
@@ -641,54 +641,6 @@
     <t>Proceso</t>
   </si>
   <si>
-    <t>Desarrollo Iteración 1 - Planificacion</t>
-  </si>
-  <si>
-    <t>Desarrollo Iteración 4 - Planificacion</t>
-  </si>
-  <si>
-    <t>Desarrollo Iteración 2 - Planificacion</t>
-  </si>
-  <si>
-    <t>Desarrollo Iteración 3 - Planificacion</t>
-  </si>
-  <si>
-    <t>Desarrollo Iteración 1 - Analisis de Riesgo</t>
-  </si>
-  <si>
-    <t>Desarrollo Iteración 2 - Analisis de Riesgo</t>
-  </si>
-  <si>
-    <t>Desarrollo Iteración 3 - Analisis de Riesgo</t>
-  </si>
-  <si>
-    <t>Desarrollo Iteración 4 - Anallisis de Riesgo</t>
-  </si>
-  <si>
-    <t>Desarrollo Iteración 1 - Ingenieria</t>
-  </si>
-  <si>
-    <t>Desarrollo Iteración 2 - Ingenieria</t>
-  </si>
-  <si>
-    <t>Desarrollo Iteración 3 - Ingenieria</t>
-  </si>
-  <si>
-    <t>Desarrollo Iteración 4 - Ingenieria</t>
-  </si>
-  <si>
-    <t>Desarrollo Iteración 4 - Evaluacion</t>
-  </si>
-  <si>
-    <t>Desarrollo Iteración 3 - Evaluacion</t>
-  </si>
-  <si>
-    <t>Desarrollo Iteración 2 - Evaluacion</t>
-  </si>
-  <si>
-    <t>Desarrollo Iteración 1 - Evaluacion</t>
-  </si>
-  <si>
     <t>Plan de Proyecto</t>
   </si>
   <si>
@@ -741,9 +693,6 @@
   </si>
   <si>
     <t>Gino Guzman</t>
-  </si>
-  <si>
-    <t>Adecuación de Software Factory A.S.I</t>
   </si>
   <si>
     <t>Michel Aguilar</t>
@@ -785,20 +734,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Ingenieria</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Desarrollo Iteración 1 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>Evaluacion</t>
     </r>
   </si>
@@ -930,9 +865,6 @@
     <t>El Plan de Proyecto demoro mas de lo previsto</t>
   </si>
   <si>
-    <t>Modelo de la BD requirió mas tiempo del planteado</t>
-  </si>
-  <si>
     <t>El cronograma toma mas tiempo de lo esperado</t>
   </si>
   <si>
@@ -945,10 +877,406 @@
     <t>El Cronograma falta actualizar a la fecha</t>
   </si>
   <si>
-    <t>Versión: 0.2</t>
-  </si>
-  <si>
     <t>Fecha Efectiva: 19/04/2013</t>
+  </si>
+  <si>
+    <t>Adecuación de Software A.S.I</t>
+  </si>
+  <si>
+    <t>Revision Final</t>
+  </si>
+  <si>
+    <r>
+      <t>Desarrollo Iteración 1 -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Analisis de Riesgo</t>
+    </r>
+  </si>
+  <si>
+    <t>Informe Quincenal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metrica de Procentaje de Cumplimiento de Entregables </t>
+  </si>
+  <si>
+    <t>Desarrollo de Prototipos de Interfaces</t>
+  </si>
+  <si>
+    <t>Casos de Uso</t>
+  </si>
+  <si>
+    <t>Diagrama de Casos de Uso</t>
+  </si>
+  <si>
+    <t>Metrica de Volatibilidad de Requerimientos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Desarrollo Iteración 1 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Planificacion</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Desarrollo Iteración 1 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Analisis de Riesgo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Desarrollo Iteración 1 -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ingenieria</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Desarrollo Iteración 1 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Evaluacion</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Desarrollo Iteración 2 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Planificacion</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Desarrollo Iteración 2 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Analisis de Riesgo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Desarrollo Iteración 2 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ingenieria</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Desarrollo Iteración 2 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Evaluacion</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Desarrollo Iteración 3 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Planificacion</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Desarrollo Iteración 3 -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Analisis de Riesgo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Desarrollo Iteración 3 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ingenieria</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Desarrollo Iteración 3 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Evaluacion</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Desarrollo Iteración 4 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Planificacion</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Desarrollo Iteración 4 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Anallisis de Riesgo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Desarrollo Iteración 4 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ingenieria</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Desarrollo Iteración 4 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Evaluacion</t>
+    </r>
+  </si>
+  <si>
+    <t>Herramienta de Gestión</t>
+  </si>
+  <si>
+    <t>Numero de no Conformidades (Metrica)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist de Aseguramiento de Calidad </t>
+  </si>
+  <si>
+    <t>Lista Maestra de Requerimientos Actualizada</t>
+  </si>
+  <si>
+    <t>Desarrollo de logica de negocio Ajustado</t>
+  </si>
+  <si>
+    <t>Pruebas Funcionales</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>Versión: 2.0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Desarrollo Iteración 4 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Planificacion</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Desarrollo Iteración 4 -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Anallisis de Riesgo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Desarrollo Iteración 4 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Anallisis de Riesgo</t>
+    </r>
+  </si>
+  <si>
+    <t>Métricas de Calidad</t>
+  </si>
+  <si>
+    <t>Manual de Usuario</t>
+  </si>
+  <si>
+    <t>Plan de Capacitación</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Desarrollo Iteración 4 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ingenieria</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Desarrollo Iteración 4 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Evaluacion</t>
+    </r>
+  </si>
+  <si>
+    <t>Acta de Conformidad de Capacitacion</t>
+  </si>
+  <si>
+    <t>Acta de Finalización del Proyecto</t>
+  </si>
+  <si>
+    <t>Implementación</t>
+  </si>
+  <si>
+    <t>Pruebas en Producción</t>
+  </si>
+  <si>
+    <t>Pruebas Integrales</t>
+  </si>
+  <si>
+    <t>Pruebas Unitarias</t>
   </si>
 </sst>
 </file>
@@ -960,7 +1288,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_)"/>
   </numFmts>
-  <fonts count="63">
+  <fonts count="64">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1333,8 +1661,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="29">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1481,8 +1816,38 @@
         <bgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1896,6 +2261,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1952,7 +2347,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2309,14 +2704,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="24" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2333,41 +2720,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="24" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="24" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="24" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="46" fillId="24" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="61" fillId="28" borderId="28" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2401,8 +2757,152 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="50" fillId="24" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="29" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="29" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="46" fillId="29" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="29" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="29" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="30" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="30" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="30" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="31" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="31" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="31" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="32" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="32" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="50" fillId="32" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="10" xfId="40" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="32" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="32" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2612,13 +3112,40 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="25" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="26" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="27" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="26" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="27" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="33" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="33" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="33" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -2852,10 +3379,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3209,12 +3736,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="87515136"/>
-        <c:axId val="66944320"/>
+        <c:axId val="41165824"/>
+        <c:axId val="64060736"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="87515136"/>
+        <c:axId val="41165824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3223,7 +3750,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66944320"/>
+        <c:crossAx val="64060736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3231,7 +3758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66944320"/>
+        <c:axId val="64060736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3241,7 +3768,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87515136"/>
+        <c:crossAx val="41165824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3523,10 +4050,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3541,11 +4068,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="87515648"/>
-        <c:axId val="85492864"/>
+        <c:axId val="41166336"/>
+        <c:axId val="64119936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87515648"/>
+        <c:axId val="41166336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3580,7 +4107,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85492864"/>
+        <c:crossAx val="64119936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3590,7 +4117,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85492864"/>
+        <c:axId val="64119936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3635,7 +4162,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87515648"/>
+        <c:crossAx val="41166336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4075,12 +4602,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="87516672"/>
-        <c:axId val="85494592"/>
+        <c:axId val="41166848"/>
+        <c:axId val="64121664"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="87516672"/>
+        <c:axId val="41166848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4154,7 +4681,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85494592"/>
+        <c:crossAx val="64121664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4164,7 +4691,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85494592"/>
+        <c:axId val="64121664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4248,7 +4775,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87516672"/>
+        <c:crossAx val="41166848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5027,7 +5554,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5056,15 +5583,15 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="64"/>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="174" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
       <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" thickBot="1">
@@ -5080,30 +5607,30 @@
     </row>
     <row r="4" spans="1:9" ht="36.75" customHeight="1">
       <c r="A4" s="64"/>
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="136" t="s">
+      <c r="D4" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="136" t="s">
+      <c r="E4" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="136" t="s">
+      <c r="F4" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="136" t="s">
+      <c r="G4" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="137" t="s">
+      <c r="H4" s="127" t="s">
         <v>69</v>
       </c>
       <c r="I4" s="64"/>
     </row>
-    <row r="5" spans="1:9" ht="24">
+    <row r="5" spans="1:9">
       <c r="A5" s="64"/>
       <c r="B5" s="66">
         <v>1</v>
@@ -5115,52 +5642,66 @@
         <v>41360</v>
       </c>
       <c r="E5" s="68" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="G5" s="68" t="s">
         <v>70</v>
       </c>
       <c r="H5" s="69" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="I5" s="64"/>
     </row>
-    <row r="6" spans="1:9" ht="24">
+    <row r="6" spans="1:9">
       <c r="A6" s="64"/>
       <c r="B6" s="66">
         <v>2</v>
       </c>
-      <c r="C6" s="143">
+      <c r="C6" s="133">
         <v>0.2</v>
       </c>
       <c r="D6" s="67">
         <v>41383</v>
       </c>
       <c r="E6" s="68" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="G6" s="68" t="s">
         <v>70</v>
       </c>
       <c r="H6" s="69" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="I6" s="64"/>
     </row>
     <row r="7" spans="1:9" ht="13.5" thickBot="1">
-      <c r="B7" s="138"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="142"/>
+      <c r="B7" s="128">
+        <v>3</v>
+      </c>
+      <c r="C7" s="129" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="130">
+        <v>41400</v>
+      </c>
+      <c r="E7" s="131" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="131" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" s="131" t="s">
+        <v>200</v>
+      </c>
+      <c r="H7" s="132" t="s">
+        <v>176</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5179,7 +5720,7 @@
   <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5196,22 +5737,22 @@
     <row r="2" spans="1:8" s="59" customFormat="1" ht="48.75" customHeight="1">
       <c r="A2" s="36"/>
       <c r="B2" s="60"/>
-      <c r="C2" s="158" t="s">
-        <v>192</v>
-      </c>
-      <c r="D2" s="159"/>
-      <c r="E2" s="160"/>
+      <c r="C2" s="187" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="188"/>
+      <c r="E2" s="189"/>
     </row>
     <row r="3" spans="1:8" s="59" customFormat="1">
       <c r="A3" s="36"/>
       <c r="B3" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="166" t="s">
-        <v>218</v>
-      </c>
-      <c r="D3" s="167"/>
-      <c r="E3" s="168"/>
+        <v>231</v>
+      </c>
+      <c r="C3" s="195" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="196"/>
+      <c r="E3" s="197"/>
     </row>
     <row r="4" spans="1:8" s="59" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="36"/>
@@ -5223,12 +5764,12 @@
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="36"/>
-      <c r="B5" s="161" t="s">
+      <c r="B5" s="190" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="163"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="191"/>
+      <c r="E5" s="192"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="36"/>
@@ -5251,10 +5792,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="72"/>
-      <c r="D8" s="164" t="s">
+      <c r="D8" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="165"/>
+      <c r="E8" s="194"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="36"/>
@@ -5340,62 +5881,62 @@
       <c r="A18" s="34"/>
     </row>
     <row r="19" spans="1:8" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="152" t="s">
+      <c r="B19" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="153"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="154"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="183"/>
     </row>
     <row r="20" spans="1:8" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="B20" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="155" t="s">
+      <c r="C20" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="156"/>
-      <c r="E20" s="157"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="186"/>
     </row>
     <row r="21" spans="1:8" s="55" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="169" t="s">
+      <c r="C21" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="170"/>
-      <c r="E21" s="171"/>
+      <c r="D21" s="199"/>
+      <c r="E21" s="200"/>
     </row>
     <row r="22" spans="1:8" s="55" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="169" t="s">
+      <c r="C22" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="170"/>
-      <c r="E22" s="171"/>
+      <c r="D22" s="199"/>
+      <c r="E22" s="200"/>
     </row>
     <row r="23" spans="1:8" s="55" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="169" t="s">
+      <c r="C23" s="198" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="170"/>
-      <c r="E23" s="171"/>
+      <c r="D23" s="199"/>
+      <c r="E23" s="200"/>
     </row>
     <row r="24" spans="1:8" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="169" t="s">
+      <c r="C24" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="170"/>
-      <c r="E24" s="171"/>
+      <c r="D24" s="199"/>
+      <c r="E24" s="200"/>
     </row>
     <row r="25" spans="1:8" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="57"/>
@@ -5408,31 +5949,31 @@
       <c r="B26" s="48"/>
     </row>
     <row r="27" spans="1:8" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="152" t="s">
+      <c r="B27" s="181" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="153"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="154"/>
+      <c r="C27" s="182"/>
+      <c r="D27" s="182"/>
+      <c r="E27" s="183"/>
     </row>
     <row r="28" spans="1:8" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="B28" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="155" t="s">
+      <c r="C28" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="156"/>
-      <c r="E28" s="157"/>
+      <c r="D28" s="185"/>
+      <c r="E28" s="186"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="34"/>
-      <c r="B29" s="172" t="s">
+      <c r="B29" s="201" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="173"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="174"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="202"/>
+      <c r="E29" s="203"/>
       <c r="F29" s="55"/>
       <c r="G29" s="55"/>
     </row>
@@ -5441,11 +5982,11 @@
       <c r="B30" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="146" t="s">
+      <c r="C30" s="175" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="147"/>
-      <c r="E30" s="148"/>
+      <c r="D30" s="176"/>
+      <c r="E30" s="177"/>
       <c r="F30" s="55"/>
       <c r="G30" s="55"/>
     </row>
@@ -5454,11 +5995,11 @@
       <c r="B31" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="146" t="s">
+      <c r="C31" s="175" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="147"/>
-      <c r="E31" s="148"/>
+      <c r="D31" s="176"/>
+      <c r="E31" s="177"/>
       <c r="F31" s="55"/>
       <c r="G31" s="55"/>
     </row>
@@ -5467,11 +6008,11 @@
       <c r="B32" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="146" t="s">
+      <c r="C32" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="147"/>
-      <c r="E32" s="148"/>
+      <c r="D32" s="176"/>
+      <c r="E32" s="177"/>
       <c r="F32" s="55"/>
       <c r="G32" s="55"/>
     </row>
@@ -5480,11 +6021,11 @@
       <c r="B33" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="146" t="s">
+      <c r="C33" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="147"/>
-      <c r="E33" s="148"/>
+      <c r="D33" s="176"/>
+      <c r="E33" s="177"/>
       <c r="F33" s="55"/>
       <c r="G33" s="55"/>
     </row>
@@ -5493,174 +6034,174 @@
       <c r="B34" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="146" t="s">
+      <c r="C34" s="175" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="147"/>
-      <c r="E34" s="148"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="177"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="34"/>
       <c r="B35" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="146" t="s">
+      <c r="C35" s="175" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="147"/>
-      <c r="E35" s="148"/>
+      <c r="D35" s="176"/>
+      <c r="E35" s="177"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="34"/>
-      <c r="B36" s="172" t="s">
+      <c r="B36" s="201" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="173"/>
-      <c r="D36" s="173"/>
-      <c r="E36" s="174"/>
+      <c r="C36" s="202"/>
+      <c r="D36" s="202"/>
+      <c r="E36" s="203"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="34"/>
       <c r="B37" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="146" t="s">
+      <c r="C37" s="175" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="147"/>
-      <c r="E37" s="148"/>
+      <c r="D37" s="176"/>
+      <c r="E37" s="177"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="34"/>
       <c r="B38" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="146" t="s">
+      <c r="C38" s="175" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="147"/>
-      <c r="E38" s="148"/>
+      <c r="D38" s="176"/>
+      <c r="E38" s="177"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="34"/>
       <c r="B39" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="146" t="s">
+      <c r="C39" s="175" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="147"/>
-      <c r="E39" s="148"/>
+      <c r="D39" s="176"/>
+      <c r="E39" s="177"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="34"/>
       <c r="B40" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="146" t="s">
+      <c r="C40" s="175" t="s">
         <v>143</v>
       </c>
-      <c r="D40" s="147"/>
-      <c r="E40" s="148"/>
+      <c r="D40" s="176"/>
+      <c r="E40" s="177"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="34"/>
       <c r="B41" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="146" t="s">
+      <c r="C41" s="175" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="147"/>
-      <c r="E41" s="148"/>
+      <c r="D41" s="176"/>
+      <c r="E41" s="177"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="34"/>
       <c r="B42" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="146" t="s">
+      <c r="C42" s="175" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="147"/>
-      <c r="E42" s="148"/>
+      <c r="D42" s="176"/>
+      <c r="E42" s="177"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="34"/>
       <c r="B43" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="146" t="s">
+      <c r="C43" s="175" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="147"/>
-      <c r="E43" s="148"/>
+      <c r="D43" s="176"/>
+      <c r="E43" s="177"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="34"/>
       <c r="B44" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="146" t="s">
+      <c r="C44" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="147"/>
-      <c r="E44" s="148"/>
+      <c r="D44" s="176"/>
+      <c r="E44" s="177"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="34"/>
       <c r="B45" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="146" t="s">
+      <c r="C45" s="175" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="147"/>
-      <c r="E45" s="148"/>
+      <c r="D45" s="176"/>
+      <c r="E45" s="177"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="34"/>
       <c r="B46" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="146" t="s">
+      <c r="C46" s="175" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="147"/>
-      <c r="E46" s="148"/>
+      <c r="D46" s="176"/>
+      <c r="E46" s="177"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="34"/>
       <c r="B47" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="146" t="s">
+      <c r="C47" s="175" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="147"/>
-      <c r="E47" s="148"/>
+      <c r="D47" s="176"/>
+      <c r="E47" s="177"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="34"/>
       <c r="B48" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="146" t="s">
+      <c r="C48" s="175" t="s">
         <v>81</v>
       </c>
-      <c r="D48" s="147"/>
-      <c r="E48" s="148"/>
+      <c r="D48" s="176"/>
+      <c r="E48" s="177"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="34"/>
       <c r="B49" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="146" t="s">
+      <c r="C49" s="175" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="147"/>
-      <c r="E49" s="148"/>
+      <c r="D49" s="176"/>
+      <c r="E49" s="177"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="55"/>
@@ -5693,23 +6234,23 @@
       <c r="M51" s="35"/>
     </row>
     <row r="52" spans="1:13" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="152" t="s">
+      <c r="B52" s="181" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="153"/>
-      <c r="D52" s="153"/>
-      <c r="E52" s="154"/>
+      <c r="C52" s="182"/>
+      <c r="D52" s="182"/>
+      <c r="E52" s="183"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="55"/>
       <c r="B53" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="155" t="s">
+      <c r="C53" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="156"/>
-      <c r="E53" s="157"/>
+      <c r="D53" s="185"/>
+      <c r="E53" s="186"/>
       <c r="F53" s="55"/>
       <c r="G53" s="55"/>
       <c r="H53" s="55"/>
@@ -5724,132 +6265,132 @@
       <c r="B54" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="C54" s="146" t="s">
+      <c r="C54" s="175" t="s">
         <v>76</v>
       </c>
-      <c r="D54" s="147"/>
-      <c r="E54" s="148"/>
+      <c r="D54" s="176"/>
+      <c r="E54" s="177"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="34"/>
       <c r="B55" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="146" t="s">
+      <c r="C55" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="D55" s="147"/>
-      <c r="E55" s="148"/>
+      <c r="D55" s="176"/>
+      <c r="E55" s="177"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="34"/>
       <c r="B56" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="146" t="s">
+      <c r="C56" s="175" t="s">
         <v>89</v>
       </c>
-      <c r="D56" s="147"/>
-      <c r="E56" s="148"/>
+      <c r="D56" s="176"/>
+      <c r="E56" s="177"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="34"/>
       <c r="B57" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="146" t="s">
+      <c r="C57" s="175" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="150"/>
-      <c r="E57" s="151"/>
+      <c r="D57" s="179"/>
+      <c r="E57" s="180"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="34"/>
       <c r="B58" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="146" t="s">
+      <c r="C58" s="175" t="s">
         <v>93</v>
       </c>
-      <c r="D58" s="150"/>
-      <c r="E58" s="151"/>
+      <c r="D58" s="179"/>
+      <c r="E58" s="180"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="34"/>
       <c r="B59" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="C59" s="146" t="s">
+      <c r="C59" s="175" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="150"/>
-      <c r="E59" s="151"/>
+      <c r="D59" s="179"/>
+      <c r="E59" s="180"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="34"/>
       <c r="B60" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="146" t="s">
+      <c r="C60" s="175" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="150"/>
-      <c r="E60" s="151"/>
+      <c r="D60" s="179"/>
+      <c r="E60" s="180"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="34"/>
       <c r="B61" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="149" t="s">
+      <c r="C61" s="178" t="s">
         <v>92</v>
       </c>
-      <c r="D61" s="150"/>
-      <c r="E61" s="151"/>
+      <c r="D61" s="179"/>
+      <c r="E61" s="180"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="34"/>
       <c r="B62" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="146" t="s">
+      <c r="C62" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="150"/>
-      <c r="E62" s="151"/>
+      <c r="D62" s="179"/>
+      <c r="E62" s="180"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="34"/>
       <c r="B63" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="149" t="s">
+      <c r="C63" s="178" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="150"/>
-      <c r="E63" s="151"/>
+      <c r="D63" s="179"/>
+      <c r="E63" s="180"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="34"/>
       <c r="B64" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="149" t="s">
+      <c r="C64" s="178" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="150"/>
-      <c r="E64" s="151"/>
+      <c r="D64" s="179"/>
+      <c r="E64" s="180"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="34"/>
       <c r="B65" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="146" t="s">
+      <c r="C65" s="175" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="147"/>
-      <c r="E65" s="148"/>
+      <c r="D65" s="176"/>
+      <c r="E65" s="177"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="34"/>
@@ -5860,200 +6401,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="34"/>
-      <c r="B67" s="176"/>
-      <c r="C67" s="176"/>
-      <c r="D67" s="176"/>
-      <c r="E67" s="176"/>
+      <c r="B67" s="205"/>
+      <c r="C67" s="205"/>
+      <c r="D67" s="205"/>
+      <c r="E67" s="205"/>
       <c r="F67" s="54"/>
       <c r="G67" s="54"/>
       <c r="H67" s="54"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="34"/>
-      <c r="B68" s="175"/>
-      <c r="C68" s="175"/>
-      <c r="D68" s="175"/>
-      <c r="E68" s="175"/>
+      <c r="B68" s="204"/>
+      <c r="C68" s="204"/>
+      <c r="D68" s="204"/>
+      <c r="E68" s="204"/>
       <c r="F68" s="54"/>
       <c r="G68" s="54"/>
       <c r="H68" s="54"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="34"/>
-      <c r="B69" s="175"/>
-      <c r="C69" s="175"/>
-      <c r="D69" s="175"/>
-      <c r="E69" s="175"/>
+      <c r="B69" s="204"/>
+      <c r="C69" s="204"/>
+      <c r="D69" s="204"/>
+      <c r="E69" s="204"/>
       <c r="F69" s="54"/>
       <c r="G69" s="54"/>
       <c r="H69" s="54"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="34"/>
-      <c r="B70" s="175"/>
-      <c r="C70" s="175"/>
-      <c r="D70" s="175"/>
-      <c r="E70" s="175"/>
+      <c r="B70" s="204"/>
+      <c r="C70" s="204"/>
+      <c r="D70" s="204"/>
+      <c r="E70" s="204"/>
       <c r="F70" s="54"/>
       <c r="G70" s="54"/>
       <c r="H70" s="54"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="34"/>
-      <c r="B71" s="175"/>
-      <c r="C71" s="175"/>
-      <c r="D71" s="175"/>
-      <c r="E71" s="175"/>
+      <c r="B71" s="204"/>
+      <c r="C71" s="204"/>
+      <c r="D71" s="204"/>
+      <c r="E71" s="204"/>
       <c r="F71" s="54"/>
       <c r="G71" s="54"/>
       <c r="H71" s="54"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="34"/>
-      <c r="B72" s="175"/>
-      <c r="C72" s="175"/>
-      <c r="D72" s="175"/>
-      <c r="E72" s="175"/>
+      <c r="B72" s="204"/>
+      <c r="C72" s="204"/>
+      <c r="D72" s="204"/>
+      <c r="E72" s="204"/>
       <c r="F72" s="54"/>
       <c r="G72" s="54"/>
       <c r="H72" s="54"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="39"/>
-      <c r="B73" s="175"/>
-      <c r="C73" s="175"/>
-      <c r="D73" s="175"/>
-      <c r="E73" s="175"/>
+      <c r="B73" s="204"/>
+      <c r="C73" s="204"/>
+      <c r="D73" s="204"/>
+      <c r="E73" s="204"/>
       <c r="F73" s="54"/>
       <c r="G73" s="54"/>
       <c r="H73" s="54"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="34"/>
-      <c r="B74" s="175"/>
-      <c r="C74" s="175"/>
-      <c r="D74" s="175"/>
-      <c r="E74" s="175"/>
+      <c r="B74" s="204"/>
+      <c r="C74" s="204"/>
+      <c r="D74" s="204"/>
+      <c r="E74" s="204"/>
       <c r="F74" s="54"/>
       <c r="G74" s="54"/>
       <c r="H74" s="54"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="34"/>
-      <c r="B75" s="175"/>
-      <c r="C75" s="175"/>
-      <c r="D75" s="175"/>
-      <c r="E75" s="175"/>
+      <c r="B75" s="204"/>
+      <c r="C75" s="204"/>
+      <c r="D75" s="204"/>
+      <c r="E75" s="204"/>
       <c r="F75" s="54"/>
       <c r="G75" s="54"/>
       <c r="H75" s="54"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="34"/>
-      <c r="B76" s="175"/>
-      <c r="C76" s="175"/>
-      <c r="D76" s="175"/>
-      <c r="E76" s="175"/>
+      <c r="B76" s="204"/>
+      <c r="C76" s="204"/>
+      <c r="D76" s="204"/>
+      <c r="E76" s="204"/>
       <c r="F76" s="54"/>
       <c r="G76" s="54"/>
       <c r="H76" s="54"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="34"/>
-      <c r="B77" s="175"/>
-      <c r="C77" s="175"/>
-      <c r="D77" s="175"/>
-      <c r="E77" s="175"/>
+      <c r="B77" s="204"/>
+      <c r="C77" s="204"/>
+      <c r="D77" s="204"/>
+      <c r="E77" s="204"/>
       <c r="F77" s="54"/>
       <c r="G77" s="54"/>
       <c r="H77" s="54"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="34"/>
-      <c r="B78" s="175"/>
-      <c r="C78" s="175"/>
-      <c r="D78" s="175"/>
-      <c r="E78" s="175"/>
+      <c r="B78" s="204"/>
+      <c r="C78" s="204"/>
+      <c r="D78" s="204"/>
+      <c r="E78" s="204"/>
       <c r="F78" s="54"/>
       <c r="G78" s="54"/>
       <c r="H78" s="54"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="39"/>
-      <c r="B79" s="175"/>
-      <c r="C79" s="175"/>
-      <c r="D79" s="175"/>
-      <c r="E79" s="175"/>
+      <c r="B79" s="204"/>
+      <c r="C79" s="204"/>
+      <c r="D79" s="204"/>
+      <c r="E79" s="204"/>
       <c r="F79" s="54"/>
       <c r="G79" s="54"/>
       <c r="H79" s="54"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="39"/>
-      <c r="B80" s="175"/>
-      <c r="C80" s="175"/>
-      <c r="D80" s="175"/>
-      <c r="E80" s="175"/>
+      <c r="B80" s="204"/>
+      <c r="C80" s="204"/>
+      <c r="D80" s="204"/>
+      <c r="E80" s="204"/>
       <c r="F80" s="54"/>
       <c r="G80" s="54"/>
       <c r="H80" s="54"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="39"/>
-      <c r="B81" s="175"/>
-      <c r="C81" s="175"/>
-      <c r="D81" s="175"/>
-      <c r="E81" s="175"/>
+      <c r="B81" s="204"/>
+      <c r="C81" s="204"/>
+      <c r="D81" s="204"/>
+      <c r="E81" s="204"/>
       <c r="F81" s="54"/>
       <c r="G81" s="54"/>
       <c r="H81" s="54"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="39"/>
-      <c r="B82" s="175"/>
-      <c r="C82" s="175"/>
-      <c r="D82" s="175"/>
-      <c r="E82" s="175"/>
+      <c r="B82" s="204"/>
+      <c r="C82" s="204"/>
+      <c r="D82" s="204"/>
+      <c r="E82" s="204"/>
       <c r="F82" s="54"/>
       <c r="G82" s="54"/>
       <c r="H82" s="54"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="39"/>
-      <c r="B83" s="175"/>
-      <c r="C83" s="175"/>
-      <c r="D83" s="175"/>
-      <c r="E83" s="175"/>
+      <c r="B83" s="204"/>
+      <c r="C83" s="204"/>
+      <c r="D83" s="204"/>
+      <c r="E83" s="204"/>
       <c r="F83" s="54"/>
       <c r="G83" s="54"/>
       <c r="H83" s="54"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="39"/>
-      <c r="B84" s="175"/>
-      <c r="C84" s="175"/>
-      <c r="D84" s="175"/>
-      <c r="E84" s="175"/>
+      <c r="B84" s="204"/>
+      <c r="C84" s="204"/>
+      <c r="D84" s="204"/>
+      <c r="E84" s="204"/>
       <c r="F84" s="54"/>
       <c r="G84" s="54"/>
       <c r="H84" s="54"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="39"/>
-      <c r="B85" s="175"/>
-      <c r="C85" s="175"/>
-      <c r="D85" s="175"/>
-      <c r="E85" s="175"/>
+      <c r="B85" s="204"/>
+      <c r="C85" s="204"/>
+      <c r="D85" s="204"/>
+      <c r="E85" s="204"/>
       <c r="F85" s="54"/>
       <c r="G85" s="54"/>
       <c r="H85" s="54"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="39"/>
-      <c r="B86" s="175"/>
-      <c r="C86" s="175"/>
-      <c r="D86" s="175"/>
-      <c r="E86" s="175"/>
+      <c r="B86" s="204"/>
+      <c r="C86" s="204"/>
+      <c r="D86" s="204"/>
+      <c r="E86" s="204"/>
       <c r="F86" s="54"/>
       <c r="G86" s="54"/>
       <c r="H86" s="54"/>
@@ -6147,10 +6688,10 @@
   <sheetPr codeName="Hoja2">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A3:Y44"/>
+  <dimension ref="A3:Y59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6159,7 +6700,7 @@
     <col min="2" max="2" width="11.42578125" style="3"/>
     <col min="3" max="3" width="16.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="37.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" style="3" customWidth="1"/>
     <col min="6" max="7" width="16.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="11.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -6171,69 +6712,69 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:25" ht="18" customHeight="1">
-      <c r="B3" s="182" t="s">
+      <c r="B3" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="182"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="211"/>
     </row>
     <row r="4" spans="2:25" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="2:25" ht="15" customHeight="1"/>
     <row r="6" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="177" t="s">
+      <c r="B6" s="206" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="178"/>
-      <c r="D6" s="179" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6" s="180"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="183"/>
-      <c r="H6" s="183"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="208" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="209"/>
+      <c r="F6" s="210"/>
+      <c r="G6" s="212"/>
+      <c r="H6" s="212"/>
       <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="177" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="178"/>
-      <c r="D7" s="179" t="s">
-        <v>191</v>
-      </c>
-      <c r="E7" s="180"/>
-      <c r="F7" s="181"/>
+      <c r="B7" s="206" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="207"/>
+      <c r="D7" s="208" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="209"/>
+      <c r="F7" s="210"/>
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="177" t="s">
+      <c r="B8" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="178"/>
-      <c r="D8" s="179" t="s">
-        <v>195</v>
-      </c>
-      <c r="E8" s="180"/>
-      <c r="F8" s="181"/>
+      <c r="C8" s="207"/>
+      <c r="D8" s="208" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="209"/>
+      <c r="F8" s="210"/>
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="2:25" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B9" s="177" t="s">
+      <c r="B9" s="206" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="178"/>
+      <c r="C9" s="207"/>
       <c r="D9" s="88">
         <v>41360</v>
       </c>
@@ -6246,13 +6787,13 @@
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="177" t="s">
+      <c r="B10" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="178"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="181"/>
+      <c r="C10" s="207"/>
+      <c r="D10" s="208"/>
+      <c r="E10" s="209"/>
+      <c r="F10" s="210"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:25" s="17" customFormat="1" ht="15" customHeight="1">
@@ -6263,43 +6804,43 @@
       <c r="Y11" s="20"/>
     </row>
     <row r="12" spans="2:25" ht="38.25">
-      <c r="B12" s="122" t="s">
+      <c r="B12" s="120" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="123" t="s">
+      <c r="D12" s="121" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="124" t="s">
+      <c r="E12" s="122" t="s">
         <v>154</v>
       </c>
-      <c r="F12" s="123" t="s">
+      <c r="F12" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="G12" s="123" t="s">
+      <c r="G12" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="125" t="s">
+      <c r="H12" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="125" t="s">
+      <c r="I12" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="125" t="s">
+      <c r="J12" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="125" t="s">
+      <c r="K12" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="125" t="s">
+      <c r="L12" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="125" t="s">
+      <c r="M12" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="125" t="s">
+      <c r="N12" s="123" t="s">
         <v>144</v>
       </c>
     </row>
@@ -6307,847 +6848,1569 @@
       <c r="B13" s="71">
         <v>1</v>
       </c>
-      <c r="C13" s="121" t="s">
+      <c r="C13" s="136" t="s">
         <v>150</v>
       </c>
-      <c r="D13" s="126" t="s">
-        <v>196</v>
-      </c>
-      <c r="E13" s="131" t="s">
-        <v>172</v>
-      </c>
-      <c r="F13" s="128" t="s">
-        <v>191</v>
-      </c>
-      <c r="G13" s="128" t="s">
+      <c r="D13" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="138" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="139" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="139" t="s">
+        <v>176</v>
+      </c>
+      <c r="H13" s="140">
+        <v>41310</v>
+      </c>
+      <c r="I13" s="140">
+        <v>41313</v>
+      </c>
+      <c r="J13" s="141">
+        <v>5</v>
+      </c>
+      <c r="K13" s="140">
+        <v>41310</v>
+      </c>
+      <c r="L13" s="142">
+        <v>41383</v>
+      </c>
+      <c r="M13" s="141">
+        <v>5</v>
+      </c>
+      <c r="N13" s="143" t="s">
         <v>193</v>
-      </c>
-      <c r="H13" s="129">
-        <v>41310</v>
-      </c>
-      <c r="I13" s="129">
-        <v>41313</v>
-      </c>
-      <c r="J13" s="130">
-        <v>5</v>
-      </c>
-      <c r="K13" s="129">
-        <v>41310</v>
-      </c>
-      <c r="L13" s="134">
-        <v>41383</v>
-      </c>
-      <c r="M13" s="130">
-        <v>5</v>
-      </c>
-      <c r="N13" s="127" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="24">
       <c r="B14" s="71">
         <v>2</v>
       </c>
-      <c r="C14" s="121" t="s">
+      <c r="C14" s="136" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="126" t="s">
-        <v>196</v>
-      </c>
-      <c r="E14" s="132" t="s">
-        <v>207</v>
-      </c>
-      <c r="F14" s="128" t="s">
-        <v>191</v>
-      </c>
-      <c r="G14" s="128" t="s">
-        <v>193</v>
-      </c>
-      <c r="H14" s="129">
+      <c r="D14" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="144" t="s">
+        <v>189</v>
+      </c>
+      <c r="F14" s="139" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="139" t="s">
+        <v>176</v>
+      </c>
+      <c r="H14" s="140">
         <v>41313</v>
       </c>
-      <c r="I14" s="129">
+      <c r="I14" s="140">
         <v>41314</v>
       </c>
-      <c r="J14" s="130">
+      <c r="J14" s="141">
         <v>6</v>
       </c>
-      <c r="K14" s="129">
+      <c r="K14" s="140">
         <v>41313</v>
       </c>
-      <c r="L14" s="134">
+      <c r="L14" s="142">
         <v>41383</v>
       </c>
-      <c r="M14" s="130">
+      <c r="M14" s="141">
         <v>6</v>
       </c>
-      <c r="N14" s="127" t="s">
-        <v>213</v>
+      <c r="N14" s="143" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="24">
       <c r="B15" s="71">
         <v>3</v>
       </c>
-      <c r="C15" s="121" t="s">
+      <c r="C15" s="136" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="126" t="s">
-        <v>197</v>
-      </c>
-      <c r="E15" s="131" t="s">
-        <v>173</v>
-      </c>
-      <c r="F15" s="128" t="s">
-        <v>191</v>
-      </c>
-      <c r="G15" s="128" t="s">
-        <v>193</v>
-      </c>
-      <c r="H15" s="129">
-        <v>41314</v>
-      </c>
-      <c r="I15" s="129">
-        <v>41314</v>
-      </c>
-      <c r="J15" s="130">
+      <c r="D15" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="138" t="s">
+        <v>202</v>
+      </c>
+      <c r="F15" s="139" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="139" t="s">
+        <v>176</v>
+      </c>
+      <c r="H15" s="140">
+        <v>41310</v>
+      </c>
+      <c r="I15" s="140">
+        <v>41310</v>
+      </c>
+      <c r="J15" s="141">
         <v>2</v>
       </c>
-      <c r="K15" s="129">
-        <v>41314</v>
-      </c>
-      <c r="L15" s="129">
-        <v>41314</v>
-      </c>
-      <c r="M15" s="130">
+      <c r="K15" s="140">
+        <v>41310</v>
+      </c>
+      <c r="L15" s="140">
+        <v>41310</v>
+      </c>
+      <c r="M15" s="141">
         <v>2</v>
       </c>
-      <c r="N15" s="127"/>
+      <c r="N15" s="143"/>
     </row>
     <row r="16" spans="2:25" ht="24">
       <c r="B16" s="71">
         <v>4</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="136" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="126" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" s="131" t="s">
+      <c r="D16" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="138" t="s">
+        <v>202</v>
+      </c>
+      <c r="F16" s="139" t="s">
         <v>174</v>
       </c>
-      <c r="F16" s="128" t="s">
-        <v>191</v>
-      </c>
-      <c r="G16" s="128" t="s">
-        <v>193</v>
-      </c>
-      <c r="H16" s="129">
-        <v>41316</v>
-      </c>
-      <c r="I16" s="129">
-        <v>41319</v>
-      </c>
-      <c r="J16" s="130">
-        <v>3</v>
-      </c>
-      <c r="K16" s="129">
-        <v>41316</v>
-      </c>
-      <c r="L16" s="129">
-        <v>41321</v>
-      </c>
-      <c r="M16" s="130">
-        <v>3</v>
-      </c>
-      <c r="N16" s="127" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="24">
+      <c r="G16" s="139" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="140">
+        <v>41331</v>
+      </c>
+      <c r="I16" s="140">
+        <v>41331</v>
+      </c>
+      <c r="J16" s="141">
+        <v>2</v>
+      </c>
+      <c r="K16" s="140">
+        <v>41310</v>
+      </c>
+      <c r="L16" s="140">
+        <v>41310</v>
+      </c>
+      <c r="M16" s="141">
+        <v>2</v>
+      </c>
+      <c r="N16" s="143"/>
+    </row>
+    <row r="17" spans="2:14" ht="30.75" customHeight="1">
       <c r="B17" s="71">
         <v>5</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="136" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="126" t="s">
-        <v>198</v>
-      </c>
-      <c r="E17" s="132" t="s">
-        <v>177</v>
-      </c>
-      <c r="F17" s="128" t="s">
-        <v>191</v>
-      </c>
-      <c r="G17" s="128" t="s">
-        <v>193</v>
-      </c>
-      <c r="H17" s="129">
-        <v>41338</v>
-      </c>
-      <c r="I17" s="129">
-        <v>41338</v>
-      </c>
-      <c r="J17" s="130">
+      <c r="D17" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="152" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" s="139" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="139" t="s">
+        <v>176</v>
+      </c>
+      <c r="H17" s="140">
+        <v>41310</v>
+      </c>
+      <c r="I17" s="140">
+        <v>41310</v>
+      </c>
+      <c r="J17" s="141">
         <v>2</v>
       </c>
-      <c r="K17" s="129">
-        <v>41338</v>
-      </c>
-      <c r="L17" s="129">
-        <v>41338</v>
-      </c>
-      <c r="M17" s="130">
+      <c r="K17" s="140">
+        <v>41310</v>
+      </c>
+      <c r="L17" s="140">
+        <v>41310</v>
+      </c>
+      <c r="M17" s="141">
         <v>2</v>
       </c>
-      <c r="N17" s="127"/>
-    </row>
-    <row r="18" spans="1:14" ht="24">
+      <c r="N17" s="143"/>
+    </row>
+    <row r="18" spans="2:14" ht="24">
       <c r="B18" s="71">
         <v>6</v>
       </c>
-      <c r="C18" s="121" t="s">
+      <c r="C18" s="136" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="126" t="s">
-        <v>199</v>
-      </c>
-      <c r="E18" s="131" t="s">
-        <v>208</v>
-      </c>
-      <c r="F18" s="128" t="s">
-        <v>191</v>
-      </c>
-      <c r="G18" s="128" t="s">
-        <v>193</v>
-      </c>
-      <c r="H18" s="129">
-        <v>41339</v>
-      </c>
-      <c r="I18" s="129">
-        <v>41342</v>
-      </c>
-      <c r="J18" s="130">
+      <c r="D18" s="137" t="s">
+        <v>201</v>
+      </c>
+      <c r="E18" s="138" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" s="139" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" s="139" t="s">
+        <v>176</v>
+      </c>
+      <c r="H18" s="140">
+        <v>41314</v>
+      </c>
+      <c r="I18" s="140">
+        <v>41314</v>
+      </c>
+      <c r="J18" s="141">
         <v>3</v>
       </c>
-      <c r="K18" s="129">
-        <v>41339</v>
-      </c>
-      <c r="L18" s="129">
-        <v>41342</v>
-      </c>
-      <c r="M18" s="130">
+      <c r="K18" s="140">
+        <v>41314</v>
+      </c>
+      <c r="L18" s="140">
+        <v>41314</v>
+      </c>
+      <c r="M18" s="141">
         <v>3</v>
       </c>
-      <c r="N18" s="127"/>
-    </row>
-    <row r="19" spans="1:14" ht="24">
+      <c r="N18" s="143"/>
+    </row>
+    <row r="19" spans="2:14" ht="24">
       <c r="B19" s="71">
         <v>7</v>
       </c>
-      <c r="C19" s="121" t="s">
+      <c r="C19" s="136" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="126" t="s">
-        <v>199</v>
-      </c>
-      <c r="E19" s="133" t="s">
-        <v>209</v>
-      </c>
-      <c r="F19" s="128" t="s">
-        <v>191</v>
-      </c>
-      <c r="G19" s="128" t="s">
-        <v>193</v>
-      </c>
-      <c r="H19" s="129">
-        <v>41344</v>
-      </c>
-      <c r="I19" s="129">
-        <v>41344</v>
-      </c>
-      <c r="J19" s="130">
-        <v>3</v>
-      </c>
-      <c r="K19" s="129">
-        <v>41344</v>
-      </c>
-      <c r="L19" s="129">
-        <v>41344</v>
-      </c>
-      <c r="M19" s="130">
-        <v>3</v>
-      </c>
-      <c r="N19" s="127"/>
-    </row>
-    <row r="20" spans="1:14" ht="24">
+      <c r="D19" s="137" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="144" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="139" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" s="139" t="s">
+        <v>176</v>
+      </c>
+      <c r="H19" s="140">
+        <v>41338</v>
+      </c>
+      <c r="I19" s="140">
+        <v>41338</v>
+      </c>
+      <c r="J19" s="141">
+        <v>2</v>
+      </c>
+      <c r="K19" s="140">
+        <v>41338</v>
+      </c>
+      <c r="L19" s="140">
+        <v>41338</v>
+      </c>
+      <c r="M19" s="141">
+        <v>2</v>
+      </c>
+      <c r="N19" s="143"/>
+    </row>
+    <row r="20" spans="2:14" ht="24">
       <c r="B20" s="71">
         <v>8</v>
       </c>
-      <c r="C20" s="121" t="s">
+      <c r="C20" s="136" t="s">
         <v>150</v>
       </c>
-      <c r="D20" s="126" t="s">
-        <v>200</v>
-      </c>
-      <c r="E20" s="131" t="s">
-        <v>175</v>
-      </c>
-      <c r="F20" s="128" t="s">
-        <v>191</v>
-      </c>
-      <c r="G20" s="128" t="s">
-        <v>193</v>
-      </c>
-      <c r="H20" s="129">
-        <v>41347</v>
-      </c>
-      <c r="I20" s="129">
-        <v>41347</v>
-      </c>
-      <c r="J20" s="130">
+      <c r="D20" s="137" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" s="144" t="s">
+        <v>204</v>
+      </c>
+      <c r="F20" s="139" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" s="139" t="s">
+        <v>176</v>
+      </c>
+      <c r="H20" s="140">
+        <v>41338</v>
+      </c>
+      <c r="I20" s="140">
+        <v>41338</v>
+      </c>
+      <c r="J20" s="141">
         <v>2</v>
       </c>
-      <c r="K20" s="129">
-        <v>41347</v>
-      </c>
-      <c r="L20" s="129">
-        <v>41347</v>
-      </c>
-      <c r="M20" s="130">
+      <c r="K20" s="140">
+        <v>41338</v>
+      </c>
+      <c r="L20" s="140">
+        <v>41338</v>
+      </c>
+      <c r="M20" s="141">
         <v>2</v>
       </c>
-      <c r="N20" s="127"/>
-    </row>
-    <row r="21" spans="1:14" ht="36">
+      <c r="N20" s="143"/>
+    </row>
+    <row r="21" spans="2:14" ht="24">
       <c r="B21" s="71">
         <v>9</v>
       </c>
-      <c r="C21" s="121" t="s">
+      <c r="C21" s="136" t="s">
         <v>150</v>
       </c>
-      <c r="D21" s="126" t="s">
-        <v>201</v>
-      </c>
-      <c r="E21" s="131" t="s">
+      <c r="D21" s="137" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="144" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="139" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" s="139" t="s">
         <v>176</v>
       </c>
-      <c r="F21" s="128" t="s">
-        <v>191</v>
-      </c>
-      <c r="G21" s="128" t="s">
-        <v>193</v>
-      </c>
-      <c r="H21" s="129">
-        <v>41351</v>
-      </c>
-      <c r="I21" s="129">
-        <v>41356</v>
-      </c>
-      <c r="J21" s="130">
-        <v>6</v>
-      </c>
-      <c r="K21" s="129">
-        <v>41351</v>
-      </c>
-      <c r="L21" s="129">
-        <v>41356</v>
-      </c>
-      <c r="M21" s="130">
-        <v>5</v>
-      </c>
-      <c r="N21" s="127" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="24">
+      <c r="H21" s="140">
+        <v>41338</v>
+      </c>
+      <c r="I21" s="140">
+        <v>41338</v>
+      </c>
+      <c r="J21" s="141">
+        <v>2</v>
+      </c>
+      <c r="K21" s="140">
+        <v>41338</v>
+      </c>
+      <c r="L21" s="140">
+        <v>41338</v>
+      </c>
+      <c r="M21" s="141">
+        <v>2</v>
+      </c>
+      <c r="N21" s="143"/>
+    </row>
+    <row r="22" spans="2:14" ht="24">
       <c r="B22" s="71">
         <v>10</v>
       </c>
-      <c r="C22" s="121" t="s">
+      <c r="C22" s="145" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="126" t="s">
-        <v>202</v>
-      </c>
-      <c r="E22" s="131" t="s">
-        <v>177</v>
-      </c>
-      <c r="F22" s="128" t="s">
-        <v>191</v>
-      </c>
-      <c r="G22" s="128" t="s">
-        <v>193</v>
-      </c>
-      <c r="H22" s="129">
-        <v>41359</v>
-      </c>
-      <c r="I22" s="129">
-        <v>41359</v>
-      </c>
-      <c r="J22" s="130">
-        <v>2</v>
-      </c>
-      <c r="K22" s="129">
-        <v>41359</v>
-      </c>
-      <c r="L22" s="129">
-        <v>41359</v>
-      </c>
-      <c r="M22" s="130">
-        <v>2</v>
-      </c>
-      <c r="N22" s="127"/>
-    </row>
-    <row r="23" spans="1:14" ht="24">
+      <c r="D22" s="146" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="147" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" s="148" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" s="148" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22" s="149">
+        <v>41339</v>
+      </c>
+      <c r="I22" s="149">
+        <v>41342</v>
+      </c>
+      <c r="J22" s="150">
+        <v>3</v>
+      </c>
+      <c r="K22" s="149">
+        <v>41339</v>
+      </c>
+      <c r="L22" s="149">
+        <v>41342</v>
+      </c>
+      <c r="M22" s="150">
+        <v>3</v>
+      </c>
+      <c r="N22" s="151"/>
+    </row>
+    <row r="23" spans="2:14" ht="24">
       <c r="B23" s="71">
         <v>11</v>
       </c>
-      <c r="C23" s="121" t="s">
+      <c r="C23" s="145" t="s">
         <v>150</v>
       </c>
-      <c r="D23" s="126" t="s">
-        <v>203</v>
-      </c>
-      <c r="E23" s="131" t="s">
-        <v>210</v>
-      </c>
-      <c r="F23" s="128" t="s">
+      <c r="D23" s="146" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="153" t="s">
         <v>191</v>
       </c>
-      <c r="G23" s="128" t="s">
-        <v>193</v>
-      </c>
-      <c r="H23" s="129">
-        <v>41366</v>
-      </c>
-      <c r="I23" s="129">
-        <v>41366</v>
-      </c>
-      <c r="J23" s="130">
-        <v>5</v>
-      </c>
-      <c r="K23" s="129">
-        <v>41366</v>
-      </c>
-      <c r="L23" s="129">
-        <v>41366</v>
-      </c>
-      <c r="M23" s="130">
-        <v>5</v>
-      </c>
-      <c r="N23" s="127"/>
-    </row>
-    <row r="24" spans="1:14" ht="24">
+      <c r="F23" s="148" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="148" t="s">
+        <v>176</v>
+      </c>
+      <c r="H23" s="149">
+        <v>41344</v>
+      </c>
+      <c r="I23" s="149">
+        <v>41344</v>
+      </c>
+      <c r="J23" s="150">
+        <v>3</v>
+      </c>
+      <c r="K23" s="149">
+        <v>41344</v>
+      </c>
+      <c r="L23" s="149">
+        <v>41344</v>
+      </c>
+      <c r="M23" s="150">
+        <v>3</v>
+      </c>
+      <c r="N23" s="151"/>
+    </row>
+    <row r="24" spans="2:14" ht="24">
       <c r="B24" s="71">
         <v>12</v>
       </c>
-      <c r="C24" s="121" t="s">
+      <c r="C24" s="145" t="s">
         <v>150</v>
       </c>
-      <c r="D24" s="126" t="s">
-        <v>204</v>
-      </c>
-      <c r="E24" s="131" t="s">
-        <v>178</v>
-      </c>
-      <c r="F24" s="128" t="s">
-        <v>191</v>
-      </c>
-      <c r="G24" s="128" t="s">
-        <v>193</v>
-      </c>
-      <c r="H24" s="129">
-        <v>41368</v>
-      </c>
-      <c r="I24" s="129">
-        <v>41369</v>
-      </c>
-      <c r="J24" s="130">
+      <c r="D24" s="146" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="153" t="s">
+        <v>205</v>
+      </c>
+      <c r="F24" s="148" t="s">
+        <v>174</v>
+      </c>
+      <c r="G24" s="148" t="s">
+        <v>176</v>
+      </c>
+      <c r="H24" s="149">
+        <v>41344</v>
+      </c>
+      <c r="I24" s="149">
+        <v>41344</v>
+      </c>
+      <c r="J24" s="150">
+        <v>3</v>
+      </c>
+      <c r="K24" s="149">
+        <v>41344</v>
+      </c>
+      <c r="L24" s="149">
+        <v>41344</v>
+      </c>
+      <c r="M24" s="150">
+        <v>3</v>
+      </c>
+      <c r="N24" s="151"/>
+    </row>
+    <row r="25" spans="2:14" ht="24">
+      <c r="B25" s="71">
+        <v>13</v>
+      </c>
+      <c r="C25" s="145" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="146" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="153" t="s">
+        <v>206</v>
+      </c>
+      <c r="F25" s="148" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" s="148" t="s">
+        <v>176</v>
+      </c>
+      <c r="H25" s="149">
+        <v>41344</v>
+      </c>
+      <c r="I25" s="149">
+        <v>41344</v>
+      </c>
+      <c r="J25" s="150">
+        <v>3</v>
+      </c>
+      <c r="K25" s="149">
+        <v>41344</v>
+      </c>
+      <c r="L25" s="149">
+        <v>41344</v>
+      </c>
+      <c r="M25" s="150">
+        <v>3</v>
+      </c>
+      <c r="N25" s="151"/>
+    </row>
+    <row r="26" spans="2:14" ht="24">
+      <c r="B26" s="71">
+        <v>14</v>
+      </c>
+      <c r="C26" s="145" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="146" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="153" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" s="148" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" s="148" t="s">
+        <v>176</v>
+      </c>
+      <c r="H26" s="149">
+        <v>41344</v>
+      </c>
+      <c r="I26" s="149">
+        <v>41344</v>
+      </c>
+      <c r="J26" s="150">
+        <v>3</v>
+      </c>
+      <c r="K26" s="149">
+        <v>41344</v>
+      </c>
+      <c r="L26" s="149">
+        <v>41344</v>
+      </c>
+      <c r="M26" s="150">
+        <v>3</v>
+      </c>
+      <c r="N26" s="151"/>
+    </row>
+    <row r="27" spans="2:14" ht="24">
+      <c r="B27" s="71">
+        <v>15</v>
+      </c>
+      <c r="C27" s="145" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="146" t="s">
+        <v>181</v>
+      </c>
+      <c r="E27" s="153" t="s">
+        <v>202</v>
+      </c>
+      <c r="F27" s="148" t="s">
+        <v>174</v>
+      </c>
+      <c r="G27" s="148" t="s">
+        <v>176</v>
+      </c>
+      <c r="H27" s="149">
+        <v>41344</v>
+      </c>
+      <c r="I27" s="149">
+        <v>41344</v>
+      </c>
+      <c r="J27" s="150">
+        <v>3</v>
+      </c>
+      <c r="K27" s="149">
+        <v>41344</v>
+      </c>
+      <c r="L27" s="149">
+        <v>41344</v>
+      </c>
+      <c r="M27" s="150">
+        <v>3</v>
+      </c>
+      <c r="N27" s="151"/>
+    </row>
+    <row r="28" spans="2:14" ht="24">
+      <c r="B28" s="71">
+        <v>16</v>
+      </c>
+      <c r="C28" s="145" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="146" t="s">
+        <v>181</v>
+      </c>
+      <c r="E28" s="153" t="s">
+        <v>202</v>
+      </c>
+      <c r="F28" s="148" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="148" t="s">
+        <v>176</v>
+      </c>
+      <c r="H28" s="149">
+        <v>41344</v>
+      </c>
+      <c r="I28" s="149">
+        <v>41344</v>
+      </c>
+      <c r="J28" s="150">
+        <v>3</v>
+      </c>
+      <c r="K28" s="149">
+        <v>41344</v>
+      </c>
+      <c r="L28" s="149">
+        <v>41344</v>
+      </c>
+      <c r="M28" s="150">
+        <v>3</v>
+      </c>
+      <c r="N28" s="151"/>
+    </row>
+    <row r="29" spans="2:14" ht="24">
+      <c r="B29" s="71">
+        <v>17</v>
+      </c>
+      <c r="C29" s="145" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="146" t="s">
+        <v>182</v>
+      </c>
+      <c r="E29" s="147" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="148" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="148" t="s">
+        <v>176</v>
+      </c>
+      <c r="H29" s="149">
+        <v>41347</v>
+      </c>
+      <c r="I29" s="149">
+        <v>41347</v>
+      </c>
+      <c r="J29" s="150">
+        <v>2</v>
+      </c>
+      <c r="K29" s="149">
+        <v>41347</v>
+      </c>
+      <c r="L29" s="149">
+        <v>41347</v>
+      </c>
+      <c r="M29" s="150">
+        <v>2</v>
+      </c>
+      <c r="N29" s="151"/>
+    </row>
+    <row r="30" spans="2:14" ht="27" customHeight="1">
+      <c r="B30" s="71">
+        <v>18</v>
+      </c>
+      <c r="C30" s="145" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="146" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" s="147" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="148" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="148" t="s">
+        <v>176</v>
+      </c>
+      <c r="H30" s="149">
+        <v>41351</v>
+      </c>
+      <c r="I30" s="149">
+        <v>41356</v>
+      </c>
+      <c r="J30" s="150">
+        <v>6</v>
+      </c>
+      <c r="K30" s="149">
+        <v>41351</v>
+      </c>
+      <c r="L30" s="149">
+        <v>41356</v>
+      </c>
+      <c r="M30" s="150">
         <v>5</v>
       </c>
-      <c r="K24" s="129">
-        <v>41368</v>
-      </c>
-      <c r="L24" s="129">
-        <v>41369</v>
-      </c>
-      <c r="M24" s="130">
+      <c r="N30" s="151" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="24">
+      <c r="B31" s="71">
+        <v>19</v>
+      </c>
+      <c r="C31" s="145" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="147" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" s="148" t="s">
+        <v>174</v>
+      </c>
+      <c r="G31" s="148" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31" s="149">
+        <v>41359</v>
+      </c>
+      <c r="I31" s="149">
+        <v>41359</v>
+      </c>
+      <c r="J31" s="150">
+        <v>2</v>
+      </c>
+      <c r="K31" s="149">
+        <v>41359</v>
+      </c>
+      <c r="L31" s="149">
+        <v>41359</v>
+      </c>
+      <c r="M31" s="150">
+        <v>2</v>
+      </c>
+      <c r="N31" s="151"/>
+    </row>
+    <row r="32" spans="2:14" ht="24">
+      <c r="B32" s="71">
+        <v>20</v>
+      </c>
+      <c r="C32" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" s="155" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="156" t="s">
+        <v>224</v>
+      </c>
+      <c r="F32" s="157" t="s">
+        <v>174</v>
+      </c>
+      <c r="G32" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="H32" s="158"/>
+      <c r="I32" s="158"/>
+      <c r="J32" s="159">
         <v>5</v>
       </c>
-      <c r="N24" s="127"/>
-    </row>
-    <row r="25" spans="1:14" ht="24">
-      <c r="B25" s="71">
-        <v>17</v>
-      </c>
-      <c r="C25" s="121" t="s">
+      <c r="K32" s="158"/>
+      <c r="L32" s="158"/>
+      <c r="M32" s="159">
+        <v>5</v>
+      </c>
+      <c r="N32" s="160"/>
+    </row>
+    <row r="33" spans="1:14" ht="24">
+      <c r="B33" s="71">
+        <v>21</v>
+      </c>
+      <c r="C33" s="154" t="s">
         <v>150</v>
       </c>
-      <c r="D25" s="126" t="s">
-        <v>205</v>
-      </c>
-      <c r="E25" s="131" t="s">
-        <v>214</v>
-      </c>
-      <c r="F25" s="128" t="s">
-        <v>191</v>
-      </c>
-      <c r="G25" s="128" t="s">
-        <v>193</v>
-      </c>
-      <c r="H25" s="129">
-        <v>41369</v>
-      </c>
-      <c r="I25" s="129">
-        <v>41373</v>
-      </c>
-      <c r="J25" s="130">
+      <c r="D33" s="155" t="s">
+        <v>185</v>
+      </c>
+      <c r="E33" s="156" t="s">
+        <v>225</v>
+      </c>
+      <c r="F33" s="157" t="s">
+        <v>174</v>
+      </c>
+      <c r="G33" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="H33" s="158"/>
+      <c r="I33" s="158"/>
+      <c r="J33" s="159">
+        <v>5</v>
+      </c>
+      <c r="K33" s="158"/>
+      <c r="L33" s="158"/>
+      <c r="M33" s="159">
+        <v>5</v>
+      </c>
+      <c r="N33" s="160"/>
+    </row>
+    <row r="34" spans="1:14" ht="24">
+      <c r="B34" s="71">
+        <v>22</v>
+      </c>
+      <c r="C34" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="155" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" s="156" t="s">
+        <v>226</v>
+      </c>
+      <c r="F34" s="157" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="H34" s="158"/>
+      <c r="I34" s="158"/>
+      <c r="J34" s="159">
+        <v>5</v>
+      </c>
+      <c r="K34" s="158"/>
+      <c r="L34" s="158"/>
+      <c r="M34" s="159">
+        <v>5</v>
+      </c>
+      <c r="N34" s="160"/>
+    </row>
+    <row r="35" spans="1:14" ht="24">
+      <c r="B35" s="71">
+        <v>23</v>
+      </c>
+      <c r="C35" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="155" t="s">
+        <v>185</v>
+      </c>
+      <c r="E35" s="156" t="s">
+        <v>192</v>
+      </c>
+      <c r="F35" s="157" t="s">
+        <v>174</v>
+      </c>
+      <c r="G35" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="H35" s="158">
+        <v>41366</v>
+      </c>
+      <c r="I35" s="158">
+        <v>41366</v>
+      </c>
+      <c r="J35" s="159">
+        <v>5</v>
+      </c>
+      <c r="K35" s="158">
+        <v>41366</v>
+      </c>
+      <c r="L35" s="158">
+        <v>41366</v>
+      </c>
+      <c r="M35" s="159">
+        <v>5</v>
+      </c>
+      <c r="N35" s="160"/>
+    </row>
+    <row r="36" spans="1:14" ht="24">
+      <c r="B36" s="71">
+        <v>24</v>
+      </c>
+      <c r="C36" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="155" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" s="161" t="s">
+        <v>227</v>
+      </c>
+      <c r="F36" s="157" t="s">
+        <v>174</v>
+      </c>
+      <c r="G36" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="H36" s="158"/>
+      <c r="I36" s="158"/>
+      <c r="J36" s="159">
+        <v>5</v>
+      </c>
+      <c r="K36" s="158"/>
+      <c r="L36" s="158"/>
+      <c r="M36" s="159">
+        <v>5</v>
+      </c>
+      <c r="N36" s="160"/>
+    </row>
+    <row r="37" spans="1:14" ht="24">
+      <c r="B37" s="71">
+        <v>25</v>
+      </c>
+      <c r="C37" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="155" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" s="156" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" s="157" t="s">
+        <v>174</v>
+      </c>
+      <c r="G37" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="H37" s="158"/>
+      <c r="I37" s="158"/>
+      <c r="J37" s="159">
+        <v>5</v>
+      </c>
+      <c r="K37" s="158"/>
+      <c r="L37" s="158"/>
+      <c r="M37" s="159">
+        <v>5</v>
+      </c>
+      <c r="N37" s="160"/>
+    </row>
+    <row r="38" spans="1:14" ht="24">
+      <c r="B38" s="71">
+        <v>26</v>
+      </c>
+      <c r="C38" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="155" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" s="156" t="s">
+        <v>202</v>
+      </c>
+      <c r="F38" s="157" t="s">
+        <v>174</v>
+      </c>
+      <c r="G38" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="H38" s="158"/>
+      <c r="I38" s="158"/>
+      <c r="J38" s="159">
+        <v>5</v>
+      </c>
+      <c r="K38" s="158"/>
+      <c r="L38" s="158"/>
+      <c r="M38" s="159">
+        <v>5</v>
+      </c>
+      <c r="N38" s="160"/>
+    </row>
+    <row r="39" spans="1:14" ht="24">
+      <c r="B39" s="71">
+        <v>27</v>
+      </c>
+      <c r="C39" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" s="155" t="s">
+        <v>186</v>
+      </c>
+      <c r="E39" s="156" t="s">
+        <v>159</v>
+      </c>
+      <c r="F39" s="157" t="s">
+        <v>174</v>
+      </c>
+      <c r="G39" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="H39" s="158"/>
+      <c r="I39" s="158"/>
+      <c r="J39" s="159">
+        <v>5</v>
+      </c>
+      <c r="K39" s="158"/>
+      <c r="L39" s="158"/>
+      <c r="M39" s="159">
+        <v>5</v>
+      </c>
+      <c r="N39" s="160"/>
+    </row>
+    <row r="40" spans="1:14" ht="24">
+      <c r="B40" s="71">
+        <v>28</v>
+      </c>
+      <c r="C40" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="155" t="s">
+        <v>186</v>
+      </c>
+      <c r="E40" s="156" t="s">
+        <v>162</v>
+      </c>
+      <c r="F40" s="157" t="s">
+        <v>174</v>
+      </c>
+      <c r="G40" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="H40" s="158"/>
+      <c r="I40" s="158"/>
+      <c r="J40" s="159">
+        <v>5</v>
+      </c>
+      <c r="K40" s="158"/>
+      <c r="L40" s="158"/>
+      <c r="M40" s="159">
+        <v>5</v>
+      </c>
+      <c r="N40" s="160"/>
+    </row>
+    <row r="41" spans="1:14" ht="24">
+      <c r="B41" s="71">
+        <v>29</v>
+      </c>
+      <c r="C41" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="155" t="s">
+        <v>187</v>
+      </c>
+      <c r="E41" s="156" t="s">
+        <v>228</v>
+      </c>
+      <c r="F41" s="157" t="s">
+        <v>174</v>
+      </c>
+      <c r="G41" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="H41" s="158"/>
+      <c r="I41" s="158"/>
+      <c r="J41" s="159">
         <v>4</v>
       </c>
-      <c r="K25" s="129">
-        <v>41369</v>
-      </c>
-      <c r="L25" s="129">
-        <v>41373</v>
-      </c>
-      <c r="M25" s="130">
+      <c r="K41" s="158"/>
+      <c r="L41" s="158"/>
+      <c r="M41" s="159">
         <v>4</v>
       </c>
-      <c r="N25" s="127"/>
-    </row>
-    <row r="26" spans="1:14" ht="24">
-      <c r="B26" s="71">
-        <v>18</v>
-      </c>
-      <c r="C26" s="121" t="s">
+      <c r="N41" s="160"/>
+    </row>
+    <row r="42" spans="1:14" ht="24">
+      <c r="B42" s="71">
+        <v>30</v>
+      </c>
+      <c r="C42" s="154" t="s">
         <v>150</v>
       </c>
-      <c r="D26" s="126" t="s">
-        <v>206</v>
-      </c>
-      <c r="E26" s="131" t="s">
-        <v>177</v>
-      </c>
-      <c r="F26" s="128" t="s">
-        <v>191</v>
-      </c>
-      <c r="G26" s="128" t="s">
-        <v>193</v>
-      </c>
-      <c r="H26" s="129">
-        <v>41375</v>
-      </c>
-      <c r="I26" s="129">
-        <v>41375</v>
-      </c>
-      <c r="J26" s="130">
+      <c r="D42" s="155" t="s">
+        <v>187</v>
+      </c>
+      <c r="E42" s="156" t="s">
+        <v>195</v>
+      </c>
+      <c r="F42" s="157" t="s">
+        <v>174</v>
+      </c>
+      <c r="G42" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="H42" s="158"/>
+      <c r="I42" s="158"/>
+      <c r="J42" s="159">
+        <v>4</v>
+      </c>
+      <c r="K42" s="158"/>
+      <c r="L42" s="158"/>
+      <c r="M42" s="159">
+        <v>4</v>
+      </c>
+      <c r="N42" s="160"/>
+    </row>
+    <row r="43" spans="1:14" ht="24">
+      <c r="B43" s="71">
+        <v>31</v>
+      </c>
+      <c r="C43" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="155" t="s">
+        <v>188</v>
+      </c>
+      <c r="E43" s="156" t="s">
+        <v>161</v>
+      </c>
+      <c r="F43" s="157" t="s">
+        <v>174</v>
+      </c>
+      <c r="G43" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="H43" s="158"/>
+      <c r="I43" s="158"/>
+      <c r="J43" s="159">
         <v>2</v>
       </c>
-      <c r="K26" s="129">
-        <v>41375</v>
-      </c>
-      <c r="L26" s="129">
-        <v>41375</v>
-      </c>
-      <c r="M26" s="130">
+      <c r="K43" s="158"/>
+      <c r="L43" s="158"/>
+      <c r="M43" s="159">
         <v>2</v>
       </c>
-      <c r="N26" s="127"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="B27" s="33">
-        <v>19</v>
-      </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="85"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="B28" s="33">
-        <v>20</v>
-      </c>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="B29" s="33">
+      <c r="N43" s="160"/>
+    </row>
+    <row r="44" spans="1:14" ht="24">
+      <c r="B44" s="71">
+        <v>32</v>
+      </c>
+      <c r="C44" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="155" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" s="156" t="s">
+        <v>229</v>
+      </c>
+      <c r="F44" s="157" t="s">
+        <v>174</v>
+      </c>
+      <c r="G44" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="H44" s="158"/>
+      <c r="I44" s="158"/>
+      <c r="J44" s="159">
+        <v>2</v>
+      </c>
+      <c r="K44" s="158"/>
+      <c r="L44" s="158"/>
+      <c r="M44" s="159">
+        <v>2</v>
+      </c>
+      <c r="N44" s="160"/>
+    </row>
+    <row r="45" spans="1:14" ht="24">
+      <c r="B45" s="71">
+        <v>32</v>
+      </c>
+      <c r="C45" s="237" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="238" t="s">
+        <v>232</v>
+      </c>
+      <c r="E45" s="239" t="s">
+        <v>235</v>
+      </c>
+      <c r="F45" s="240" t="s">
+        <v>174</v>
+      </c>
+      <c r="G45" s="240" t="s">
+        <v>176</v>
+      </c>
+      <c r="H45" s="241"/>
+      <c r="I45" s="241"/>
+      <c r="J45" s="242">
+        <v>2</v>
+      </c>
+      <c r="K45" s="241"/>
+      <c r="L45" s="241"/>
+      <c r="M45" s="242">
+        <v>2</v>
+      </c>
+      <c r="N45" s="243"/>
+    </row>
+    <row r="46" spans="1:14" ht="24">
+      <c r="B46" s="33">
         <v>21</v>
       </c>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="8"/>
-      <c r="B30" s="33">
+      <c r="C46" s="237" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="238" t="s">
+        <v>232</v>
+      </c>
+      <c r="E46" s="239" t="s">
+        <v>236</v>
+      </c>
+      <c r="F46" s="240" t="s">
+        <v>174</v>
+      </c>
+      <c r="G46" s="240" t="s">
+        <v>176</v>
+      </c>
+      <c r="H46" s="241"/>
+      <c r="I46" s="241"/>
+      <c r="J46" s="242">
+        <v>2</v>
+      </c>
+      <c r="K46" s="241"/>
+      <c r="L46" s="241"/>
+      <c r="M46" s="242">
+        <v>2</v>
+      </c>
+      <c r="N46" s="243"/>
+    </row>
+    <row r="47" spans="1:14" ht="24">
+      <c r="A47" s="8"/>
+      <c r="B47" s="33">
         <v>33</v>
       </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="8"/>
-      <c r="B31" s="33">
+      <c r="C47" s="237" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="238" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47" s="239" t="s">
+        <v>202</v>
+      </c>
+      <c r="F47" s="240" t="s">
+        <v>174</v>
+      </c>
+      <c r="G47" s="240" t="s">
+        <v>176</v>
+      </c>
+      <c r="H47" s="241"/>
+      <c r="I47" s="241"/>
+      <c r="J47" s="242">
+        <v>2</v>
+      </c>
+      <c r="K47" s="241"/>
+      <c r="L47" s="241"/>
+      <c r="M47" s="242">
+        <v>2</v>
+      </c>
+      <c r="N47" s="243"/>
+    </row>
+    <row r="48" spans="1:14" ht="24">
+      <c r="A48" s="8"/>
+      <c r="B48" s="33">
         <v>34</v>
       </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="85"/>
-      <c r="N31" s="85"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="B32" s="33">
+      <c r="C48" s="237" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" s="238" t="s">
+        <v>232</v>
+      </c>
+      <c r="E48" s="239" t="s">
+        <v>229</v>
+      </c>
+      <c r="F48" s="240" t="s">
+        <v>174</v>
+      </c>
+      <c r="G48" s="240" t="s">
+        <v>176</v>
+      </c>
+      <c r="H48" s="241"/>
+      <c r="I48" s="241"/>
+      <c r="J48" s="242">
+        <v>2</v>
+      </c>
+      <c r="K48" s="241"/>
+      <c r="L48" s="241"/>
+      <c r="M48" s="242">
+        <v>2</v>
+      </c>
+      <c r="N48" s="243"/>
+    </row>
+    <row r="49" spans="1:14" ht="24">
+      <c r="B49" s="33">
         <v>22</v>
       </c>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="85"/>
-      <c r="N32" s="85"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="B33" s="33">
+      <c r="C49" s="237" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" s="238" t="s">
+        <v>233</v>
+      </c>
+      <c r="E49" s="239" t="s">
+        <v>157</v>
+      </c>
+      <c r="F49" s="240" t="s">
+        <v>174</v>
+      </c>
+      <c r="G49" s="240" t="s">
+        <v>176</v>
+      </c>
+      <c r="H49" s="241"/>
+      <c r="I49" s="241"/>
+      <c r="J49" s="242">
+        <v>2</v>
+      </c>
+      <c r="K49" s="241"/>
+      <c r="L49" s="241"/>
+      <c r="M49" s="242">
+        <v>2</v>
+      </c>
+      <c r="N49" s="243"/>
+    </row>
+    <row r="50" spans="1:14" ht="24">
+      <c r="B50" s="33">
         <v>23</v>
       </c>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="B34" s="33">
+      <c r="C50" s="237" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="238" t="s">
+        <v>234</v>
+      </c>
+      <c r="E50" s="239" t="s">
+        <v>237</v>
+      </c>
+      <c r="F50" s="240" t="s">
+        <v>174</v>
+      </c>
+      <c r="G50" s="240" t="s">
+        <v>176</v>
+      </c>
+      <c r="H50" s="241"/>
+      <c r="I50" s="241"/>
+      <c r="J50" s="242">
+        <v>2</v>
+      </c>
+      <c r="K50" s="241"/>
+      <c r="L50" s="241"/>
+      <c r="M50" s="242">
+        <v>2</v>
+      </c>
+      <c r="N50" s="243"/>
+    </row>
+    <row r="51" spans="1:14" ht="24">
+      <c r="B51" s="33">
         <v>24</v>
       </c>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="110"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="85"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="B35" s="33">
+      <c r="C51" s="237" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="238" t="s">
+        <v>238</v>
+      </c>
+      <c r="E51" s="239" t="s">
+        <v>245</v>
+      </c>
+      <c r="F51" s="240" t="s">
+        <v>174</v>
+      </c>
+      <c r="G51" s="240" t="s">
+        <v>176</v>
+      </c>
+      <c r="H51" s="241"/>
+      <c r="I51" s="241"/>
+      <c r="J51" s="242">
+        <v>2</v>
+      </c>
+      <c r="K51" s="241"/>
+      <c r="L51" s="241"/>
+      <c r="M51" s="242">
+        <v>2</v>
+      </c>
+      <c r="N51" s="243"/>
+    </row>
+    <row r="52" spans="1:14" ht="24">
+      <c r="B52" s="33">
         <v>25</v>
       </c>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="B36" s="33">
+      <c r="C52" s="237" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="238" t="s">
+        <v>238</v>
+      </c>
+      <c r="E52" s="239" t="s">
+        <v>244</v>
+      </c>
+      <c r="F52" s="240" t="s">
+        <v>174</v>
+      </c>
+      <c r="G52" s="240" t="s">
+        <v>176</v>
+      </c>
+      <c r="H52" s="241"/>
+      <c r="I52" s="241"/>
+      <c r="J52" s="242">
+        <v>2</v>
+      </c>
+      <c r="K52" s="241"/>
+      <c r="L52" s="241"/>
+      <c r="M52" s="242">
+        <v>2</v>
+      </c>
+      <c r="N52" s="243"/>
+    </row>
+    <row r="53" spans="1:14" ht="24">
+      <c r="B53" s="33">
         <v>26</v>
       </c>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="110"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="85"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="B37" s="33">
+      <c r="C53" s="237" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="238" t="s">
+        <v>238</v>
+      </c>
+      <c r="E53" s="239" t="s">
+        <v>243</v>
+      </c>
+      <c r="F53" s="240" t="s">
+        <v>174</v>
+      </c>
+      <c r="G53" s="240" t="s">
+        <v>176</v>
+      </c>
+      <c r="H53" s="241"/>
+      <c r="I53" s="241"/>
+      <c r="J53" s="242">
+        <v>2</v>
+      </c>
+      <c r="K53" s="241"/>
+      <c r="L53" s="241"/>
+      <c r="M53" s="242">
+        <v>2</v>
+      </c>
+      <c r="N53" s="243"/>
+    </row>
+    <row r="54" spans="1:14" ht="24">
+      <c r="B54" s="33">
         <v>27</v>
       </c>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="110"/>
-      <c r="K37" s="84"/>
-      <c r="L37" s="84"/>
-      <c r="M37" s="85"/>
-      <c r="N37" s="85"/>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="B38" s="33">
+      <c r="C54" s="237" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" s="238" t="s">
+        <v>238</v>
+      </c>
+      <c r="E54" s="239" t="s">
+        <v>242</v>
+      </c>
+      <c r="F54" s="240" t="s">
+        <v>174</v>
+      </c>
+      <c r="G54" s="240" t="s">
+        <v>176</v>
+      </c>
+      <c r="H54" s="241"/>
+      <c r="I54" s="241"/>
+      <c r="J54" s="242">
+        <v>2</v>
+      </c>
+      <c r="K54" s="241"/>
+      <c r="L54" s="241"/>
+      <c r="M54" s="242">
+        <v>2</v>
+      </c>
+      <c r="N54" s="243"/>
+    </row>
+    <row r="55" spans="1:14" ht="24">
+      <c r="B55" s="33">
         <v>28</v>
       </c>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="110"/>
-      <c r="K38" s="84"/>
-      <c r="L38" s="84"/>
-      <c r="M38" s="85"/>
-      <c r="N38" s="85"/>
-    </row>
-    <row r="39" spans="1:14" ht="12.75" customHeight="1">
-      <c r="B39" s="33">
+      <c r="C55" s="237" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" s="238" t="s">
+        <v>239</v>
+      </c>
+      <c r="E55" s="239" t="s">
+        <v>240</v>
+      </c>
+      <c r="F55" s="240" t="s">
+        <v>174</v>
+      </c>
+      <c r="G55" s="240" t="s">
+        <v>176</v>
+      </c>
+      <c r="H55" s="241"/>
+      <c r="I55" s="241"/>
+      <c r="J55" s="242">
+        <v>2</v>
+      </c>
+      <c r="K55" s="241"/>
+      <c r="L55" s="241"/>
+      <c r="M55" s="242">
+        <v>2</v>
+      </c>
+      <c r="N55" s="243"/>
+    </row>
+    <row r="56" spans="1:14" ht="12.75" customHeight="1">
+      <c r="B56" s="33">
         <v>29</v>
       </c>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="110"/>
-      <c r="K39" s="84"/>
-      <c r="L39" s="84"/>
-      <c r="M39" s="85"/>
-      <c r="N39" s="85"/>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="8"/>
-      <c r="B40" s="33">
+      <c r="C56" s="237" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" s="238" t="s">
+        <v>239</v>
+      </c>
+      <c r="E56" s="239" t="s">
+        <v>241</v>
+      </c>
+      <c r="F56" s="240" t="s">
+        <v>174</v>
+      </c>
+      <c r="G56" s="240" t="s">
+        <v>176</v>
+      </c>
+      <c r="H56" s="241"/>
+      <c r="I56" s="241"/>
+      <c r="J56" s="242">
+        <v>2</v>
+      </c>
+      <c r="K56" s="241"/>
+      <c r="L56" s="241"/>
+      <c r="M56" s="242">
+        <v>2</v>
+      </c>
+      <c r="N56" s="243"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="8"/>
+      <c r="B57" s="33">
         <v>30</v>
       </c>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="110"/>
-      <c r="K40" s="84"/>
-      <c r="L40" s="84"/>
-      <c r="M40" s="85"/>
-      <c r="N40" s="85"/>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="8"/>
-      <c r="B41" s="33">
-        <v>31</v>
-      </c>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="110"/>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="85"/>
-      <c r="N41" s="85"/>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="8"/>
-      <c r="B42" s="33">
-        <v>32</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="110"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="84"/>
-      <c r="M42" s="85"/>
-      <c r="N42" s="85"/>
-    </row>
-    <row r="43" spans="1:14" ht="12.75" customHeight="1">
-      <c r="B43" s="6"/>
-      <c r="J43" s="86">
-        <f>SUM(J13:J42)</f>
-        <v>50</v>
-      </c>
-      <c r="L43" s="87" t="s">
+      <c r="C57" s="82"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="84"/>
+      <c r="I57" s="84"/>
+      <c r="J57" s="110"/>
+      <c r="K57" s="84"/>
+      <c r="L57" s="84"/>
+      <c r="M57" s="85"/>
+      <c r="N57" s="85"/>
+    </row>
+    <row r="58" spans="1:14" ht="12.75" customHeight="1">
+      <c r="B58" s="6"/>
+      <c r="J58" s="86">
+        <f>SUM(J13:J57)</f>
+        <v>138</v>
+      </c>
+      <c r="L58" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="M43" s="86">
-        <f>SUM(M13:M42)</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="B44" s="6"/>
-      <c r="E44" s="7"/>
+      <c r="M58" s="86">
+        <f>SUM(M13:M57)</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="B59" s="6"/>
+      <c r="E59" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7165,16 +8428,16 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29:D40">
-      <formula1>IF(C29="Fast Track",f_fast,IF(C29="Configuraciones Tipo o Nuevas",f_tipo,IF(C29="Desarrollos Departamentales",f_depar,IF(C29="Desarrollos Adicionales ATIS",f_atis,IF(C29="Definición de Requerimientos",f_req,f_inci)))))</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D57">
+      <formula1>IF(C57="Fast Track",f_fast,IF(C57="Configuraciones Tipo o Nuevas",f_tipo,IF(C57="Desarrollos Departamentales",f_depar,IF(C57="Desarrollos Adicionales ATIS",f_atis,IF(C57="Definición de Requerimientos",f_req,f_inci)))))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E27:E42">
-      <formula1>IF(C27="Fast Track",e_fast,IF(C27="Configuraciones Tipo o Nuevas",e_tipo,IF(C27="Desarrollos Departamentales",e_depar,IF(C27="Desarrollos Adicionales ATIS",e_atis,IF(C27="Definición de Requerimientos",e_req,e_inci)))))</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E57">
+      <formula1>IF(C57="Fast Track",e_fast,IF(C57="Configuraciones Tipo o Nuevas",e_tipo,IF(C57="Desarrollos Departamentales",e_depar,IF(C57="Desarrollos Adicionales ATIS",e_atis,IF(C57="Definición de Requerimientos",e_req,e_inci)))))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C57">
       <formula1>TipoProy</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D56">
       <formula1>f_depar</formula1>
     </dataValidation>
   </dataValidations>
@@ -7191,21 +8454,21 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="13" customWidth="1"/>
     <col min="2" max="2" width="8.140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="16" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="15" customWidth="1"/>
     <col min="7" max="7" width="52.7109375" style="15" customWidth="1"/>
@@ -7218,22 +8481,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="213" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="186"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="214"/>
+      <c r="K1" s="214"/>
+      <c r="L1" s="214"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="215"/>
     </row>
     <row r="2" spans="1:15" s="26" customFormat="1" ht="11.45" customHeight="1">
       <c r="A2" s="27"/>
@@ -7303,7 +8566,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="24">
+    <row r="5" spans="1:15" ht="21.75" customHeight="1">
       <c r="A5" s="90">
         <v>1</v>
       </c>
@@ -7311,23 +8574,23 @@
         <v>1</v>
       </c>
       <c r="C5" s="92" t="str">
-        <f>VLOOKUP(B5,Planificación!$B$13:$E$89,2,FALSE)</f>
+        <f>VLOOKUP(B5,Planificación!$B$13:$E$104,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D5" s="144" t="str">
-        <f>VLOOKUP(B5,Planificación!$B$13:$E$89,4,FALSE)</f>
+      <c r="D5" s="93" t="str">
+        <f>VLOOKUP(B5,Planificación!$B$13:$E$104,4,FALSE)</f>
         <v>Plan de Proyecto</v>
       </c>
       <c r="E5" s="92" t="str">
-        <f>VLOOKUP(B5,Planificación!$B$13:$G$89,5,FALSE)</f>
+        <f>VLOOKUP(B5,Planificación!$B$13:$G$104,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
       <c r="F5" s="92" t="str">
-        <f>VLOOKUP(B5,Planificación!$B$13:$G$89,6,FALSE)</f>
+        <f>VLOOKUP(B5,Planificación!$B$13:$G$104,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
       <c r="G5" s="119" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="H5" s="94" t="s">
         <v>147</v>
@@ -7336,13 +8599,13 @@
         <v>97</v>
       </c>
       <c r="J5" s="94" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="K5" s="96"/>
-      <c r="L5" s="129">
+      <c r="L5" s="124">
         <v>41313</v>
       </c>
-      <c r="M5" s="129">
+      <c r="M5" s="124">
         <v>41383</v>
       </c>
       <c r="N5" s="98">
@@ -7359,23 +8622,23 @@
         <v>2</v>
       </c>
       <c r="C6" s="92" t="str">
-        <f>VLOOKUP(B6,Planificación!$B$13:$E$89,2,FALSE)</f>
+        <f>VLOOKUP(B6,Planificación!$B$13:$E$104,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D6" s="144" t="str">
-        <f>VLOOKUP(B6,Planificación!$B$13:$E$89,4,FALSE)</f>
+      <c r="D6" s="93" t="str">
+        <f>VLOOKUP(B6,Planificación!$B$13:$E$104,4,FALSE)</f>
         <v xml:space="preserve">Cronograma </v>
       </c>
       <c r="E6" s="92" t="str">
-        <f>VLOOKUP(B6,Planificación!$B$13:$G$89,5,FALSE)</f>
+        <f>VLOOKUP(B6,Planificación!$B$13:$G$104,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
       <c r="F6" s="92" t="str">
-        <f>VLOOKUP(B6,Planificación!$B$13:$G$89,6,FALSE)</f>
+        <f>VLOOKUP(B6,Planificación!$B$13:$G$104,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
       <c r="G6" s="119" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="H6" s="94" t="s">
         <v>147</v>
@@ -7384,13 +8647,13 @@
         <v>97</v>
       </c>
       <c r="J6" s="94" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="K6" s="96"/>
-      <c r="L6" s="129">
+      <c r="L6" s="124">
         <v>41314</v>
       </c>
-      <c r="M6" s="129">
+      <c r="M6" s="124">
         <v>41383</v>
       </c>
       <c r="N6" s="98">
@@ -7407,23 +8670,23 @@
         <v>3</v>
       </c>
       <c r="C7" s="92" t="str">
-        <f>VLOOKUP(B7,Planificación!$B$13:$E$89,2,FALSE)</f>
+        <f>VLOOKUP(B7,Planificación!$B$13:$E$104,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D7" s="144" t="str">
-        <f>VLOOKUP(B7,Planificación!$B$13:$E$89,4,FALSE)</f>
-        <v>Registro de Riesgos</v>
+      <c r="D7" s="93" t="str">
+        <f>VLOOKUP(B7,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>Informe Quincenal</v>
       </c>
       <c r="E7" s="92" t="str">
-        <f>VLOOKUP(B7,Planificación!$B$13:$G$89,5,FALSE)</f>
+        <f>VLOOKUP(B7,Planificación!$B$13:$G$104,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
       <c r="F7" s="92" t="str">
-        <f>VLOOKUP(B7,Planificación!$B$13:$G$89,6,FALSE)</f>
+        <f>VLOOKUP(B7,Planificación!$B$13:$G$104,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
       <c r="G7" s="119" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="H7" s="94"/>
       <c r="I7" s="94"/>
@@ -7445,23 +8708,23 @@
         <v>4</v>
       </c>
       <c r="C8" s="92" t="str">
-        <f>VLOOKUP(B8,Planificación!$B$13:$E$89,2,FALSE)</f>
+        <f>VLOOKUP(B8,Planificación!$B$13:$E$104,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D8" s="144" t="str">
-        <f>VLOOKUP(B8,Planificación!$B$13:$E$89,4,FALSE)</f>
-        <v>Modelaje Base de Datos</v>
+      <c r="D8" s="93" t="str">
+        <f>VLOOKUP(B8,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>Informe Quincenal</v>
       </c>
       <c r="E8" s="92" t="str">
-        <f>VLOOKUP(B8,Planificación!$B$13:$G$89,5,FALSE)</f>
+        <f>VLOOKUP(B8,Planificación!$B$13:$G$104,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
       <c r="F8" s="92" t="str">
-        <f>VLOOKUP(B8,Planificación!$B$13:$G$89,6,FALSE)</f>
+        <f>VLOOKUP(B8,Planificación!$B$13:$G$104,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
       <c r="G8" s="119" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="H8" s="94" t="s">
         <v>149</v>
@@ -7470,13 +8733,13 @@
         <v>97</v>
       </c>
       <c r="J8" s="94" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="K8" s="96"/>
-      <c r="L8" s="129">
+      <c r="L8" s="124">
         <v>41319</v>
       </c>
-      <c r="M8" s="129">
+      <c r="M8" s="124">
         <v>41321</v>
       </c>
       <c r="N8" s="98">
@@ -7493,23 +8756,23 @@
         <v>5</v>
       </c>
       <c r="C9" s="92" t="str">
-        <f>VLOOKUP(B9,Planificación!$B$13:$E$89,2,FALSE)</f>
+        <f>VLOOKUP(B9,Planificación!$B$13:$E$104,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D9" s="144" t="str">
-        <f>VLOOKUP(B9,Planificación!$B$13:$E$89,4,FALSE)</f>
-        <v>Acta de Aceptacion de Entregables</v>
+      <c r="D9" s="93" t="str">
+        <f>VLOOKUP(B9,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v xml:space="preserve">Metrica de Procentaje de Cumplimiento de Entregables </v>
       </c>
       <c r="E9" s="92" t="str">
-        <f>VLOOKUP(B9,Planificación!$B$13:$G$89,5,FALSE)</f>
+        <f>VLOOKUP(B9,Planificación!$B$13:$G$104,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
       <c r="F9" s="92" t="str">
-        <f>VLOOKUP(B9,Planificación!$B$13:$G$89,6,FALSE)</f>
+        <f>VLOOKUP(B9,Planificación!$B$13:$G$104,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
       <c r="G9" s="119" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="H9" s="94"/>
       <c r="I9" s="94"/>
@@ -7523,7 +8786,7 @@
       </c>
       <c r="O9" s="111"/>
     </row>
-    <row r="10" spans="1:15" ht="24">
+    <row r="10" spans="1:15" ht="12">
       <c r="A10" s="90">
         <v>6</v>
       </c>
@@ -7531,23 +8794,23 @@
         <v>6</v>
       </c>
       <c r="C10" s="92" t="str">
-        <f>VLOOKUP(B10,Planificación!$B$13:$E$89,2,FALSE)</f>
+        <f>VLOOKUP(B10,Planificación!$B$13:$E$104,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D10" s="144" t="str">
-        <f>VLOOKUP(B10,Planificación!$B$13:$E$89,4,FALSE)</f>
-        <v>Lista Maestra de Requerimientos</v>
+      <c r="D10" s="93" t="str">
+        <f>VLOOKUP(B10,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>Registro de Riesgos</v>
       </c>
       <c r="E10" s="92" t="str">
-        <f>VLOOKUP(B10,Planificación!$B$13:$G$89,5,FALSE)</f>
+        <f>VLOOKUP(B10,Planificación!$B$13:$G$104,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
       <c r="F10" s="92" t="str">
-        <f>VLOOKUP(B10,Planificación!$B$13:$G$89,6,FALSE)</f>
+        <f>VLOOKUP(B10,Planificación!$B$13:$G$104,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
       <c r="G10" s="119" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="H10" s="94"/>
       <c r="I10" s="94"/>
@@ -7569,23 +8832,23 @@
         <v>7</v>
       </c>
       <c r="C11" s="92" t="str">
-        <f>VLOOKUP(B11,Planificación!$B$13:$E$89,2,FALSE)</f>
+        <f>VLOOKUP(B11,Planificación!$B$13:$E$104,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D11" s="144" t="str">
-        <f>VLOOKUP(B11,Planificación!$B$13:$E$89,4,FALSE)</f>
-        <v>Matriz de Trazabilidad</v>
+      <c r="D11" s="93" t="str">
+        <f>VLOOKUP(B11,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>Modelaje Base de Datos</v>
       </c>
       <c r="E11" s="92" t="str">
-        <f>VLOOKUP(B11,Planificación!$B$13:$G$89,5,FALSE)</f>
+        <f>VLOOKUP(B11,Planificación!$B$13:$G$104,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
       <c r="F11" s="92" t="str">
-        <f>VLOOKUP(B11,Planificación!$B$13:$G$89,6,FALSE)</f>
+        <f>VLOOKUP(B11,Planificación!$B$13:$G$104,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
       <c r="G11" s="119" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="H11" s="94"/>
       <c r="I11" s="94"/>
@@ -7599,7 +8862,7 @@
       </c>
       <c r="O11" s="111"/>
     </row>
-    <row r="12" spans="1:15" ht="12">
+    <row r="12" spans="1:15" ht="24">
       <c r="A12" s="90">
         <v>8</v>
       </c>
@@ -7607,23 +8870,23 @@
         <v>8</v>
       </c>
       <c r="C12" s="92" t="str">
-        <f>VLOOKUP(B12,Planificación!$B$13:$E$89,2,FALSE)</f>
+        <f>VLOOKUP(B12,Planificación!$B$13:$E$104,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D12" s="144" t="str">
-        <f>VLOOKUP(B12,Planificación!$B$13:$E$89,4,FALSE)</f>
-        <v>Registros de Riesgos</v>
+      <c r="D12" s="93" t="str">
+        <f>VLOOKUP(B12,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>Desarrollo de Prototipos de Interfaces</v>
       </c>
       <c r="E12" s="92" t="str">
-        <f>VLOOKUP(B12,Planificación!$B$13:$G$89,5,FALSE)</f>
+        <f>VLOOKUP(B12,Planificación!$B$13:$G$104,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
       <c r="F12" s="92" t="str">
-        <f>VLOOKUP(B12,Planificación!$B$13:$G$89,6,FALSE)</f>
+        <f>VLOOKUP(B12,Planificación!$B$13:$G$104,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
       <c r="G12" s="119" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="H12" s="94"/>
       <c r="I12" s="94"/>
@@ -7644,23 +8907,23 @@
         <v>9</v>
       </c>
       <c r="C13" s="92" t="str">
-        <f>VLOOKUP(B13,Planificación!$B$13:$E$89,2,FALSE)</f>
+        <f>VLOOKUP(B13,Planificación!$B$13:$E$104,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D13" s="144" t="str">
-        <f>VLOOKUP(B13,Planificación!$B$13:$E$89,4,FALSE)</f>
-        <v>Desarrollo de Logica de Negocio</v>
+      <c r="D13" s="93" t="str">
+        <f>VLOOKUP(B13,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>Acta de Aceptacion de Entregables</v>
       </c>
       <c r="E13" s="92" t="str">
-        <f>VLOOKUP(B13,Planificación!$B$13:$G$89,5,FALSE)</f>
+        <f>VLOOKUP(B13,Planificación!$B$13:$G$104,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
       <c r="F13" s="92" t="str">
-        <f>VLOOKUP(B13,Planificación!$B$13:$G$89,6,FALSE)</f>
+        <f>VLOOKUP(B13,Planificación!$B$13:$G$104,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
       <c r="G13" s="95" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="H13" s="94" t="s">
         <v>36</v>
@@ -7669,13 +8932,13 @@
         <v>95</v>
       </c>
       <c r="J13" s="94" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="K13" s="96"/>
-      <c r="L13" s="129">
+      <c r="L13" s="124">
         <v>41356</v>
       </c>
-      <c r="M13" s="129">
+      <c r="M13" s="124">
         <v>41356</v>
       </c>
       <c r="N13" s="98">
@@ -7692,23 +8955,23 @@
         <v>10</v>
       </c>
       <c r="C14" s="92" t="str">
-        <f>VLOOKUP(B14,Planificación!$B$13:$E$89,2,FALSE)</f>
+        <f>VLOOKUP(B14,Planificación!$B$13:$E$104,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D14" s="144" t="str">
-        <f>VLOOKUP(B14,Planificación!$B$13:$E$89,4,FALSE)</f>
-        <v>Acta de Aceptacion de Entregables</v>
+      <c r="D14" s="93" t="str">
+        <f>VLOOKUP(B14,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>Lista Maestra de Requerimientos</v>
       </c>
       <c r="E14" s="92" t="str">
-        <f>VLOOKUP(B14,Planificación!$B$13:$G$89,5,FALSE)</f>
+        <f>VLOOKUP(B14,Planificación!$B$13:$G$104,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
       <c r="F14" s="92" t="str">
-        <f>VLOOKUP(B14,Planificación!$B$13:$G$89,6,FALSE)</f>
+        <f>VLOOKUP(B14,Planificación!$B$13:$G$104,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
       <c r="G14" s="119" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="H14" s="94"/>
       <c r="I14" s="94"/>
@@ -7730,23 +8993,23 @@
         <v>11</v>
       </c>
       <c r="C15" s="92" t="str">
-        <f>VLOOKUP(B15,Planificación!$B$13:$E$89,2,FALSE)</f>
+        <f>VLOOKUP(B15,Planificación!$B$13:$E$104,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D15" s="144" t="str">
-        <f>VLOOKUP(B15,Planificación!$B$13:$E$89,4,FALSE)</f>
-        <v>Matriz de Seguimiento</v>
+      <c r="D15" s="93" t="str">
+        <f>VLOOKUP(B15,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>Matriz de Trazabilidad</v>
       </c>
       <c r="E15" s="92" t="str">
-        <f>VLOOKUP(B15,Planificación!$B$13:$G$89,5,FALSE)</f>
+        <f>VLOOKUP(B15,Planificación!$B$13:$G$104,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
       <c r="F15" s="92" t="str">
-        <f>VLOOKUP(B15,Planificación!$B$13:$G$89,6,FALSE)</f>
+        <f>VLOOKUP(B15,Planificación!$B$13:$G$104,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
       <c r="G15" s="119" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="H15" s="94"/>
       <c r="I15" s="94"/>
@@ -7768,23 +9031,23 @@
         <v>12</v>
       </c>
       <c r="C16" s="92" t="str">
-        <f>VLOOKUP(B16,Planificación!$B$13:$E$89,2,FALSE)</f>
+        <f>VLOOKUP(B16,Planificación!$B$13:$E$104,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D16" s="144" t="str">
-        <f>VLOOKUP(B16,Planificación!$B$13:$E$89,4,FALSE)</f>
-        <v>Planes de Prueba</v>
+      <c r="D16" s="93" t="str">
+        <f>VLOOKUP(B16,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>Casos de Uso</v>
       </c>
       <c r="E16" s="92" t="str">
-        <f>VLOOKUP(B16,Planificación!$B$13:$G$89,5,FALSE)</f>
+        <f>VLOOKUP(B16,Planificación!$B$13:$G$104,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
       <c r="F16" s="92" t="str">
-        <f>VLOOKUP(B16,Planificación!$B$13:$G$89,6,FALSE)</f>
+        <f>VLOOKUP(B16,Planificación!$B$13:$G$104,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
       <c r="G16" s="119" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="H16" s="94"/>
       <c r="I16" s="94"/>
@@ -7798,64 +9061,128 @@
       </c>
       <c r="O16" s="111"/>
     </row>
-    <row r="17" spans="1:15" ht="18" customHeight="1">
-      <c r="A17" s="90"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
+    <row r="17" spans="1:15" ht="12">
+      <c r="A17" s="90">
+        <v>13</v>
+      </c>
+      <c r="B17" s="91">
+        <v>13</v>
+      </c>
+      <c r="C17" s="92" t="str">
+        <f>VLOOKUP(B17,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D17" s="93" t="str">
+        <f>VLOOKUP(B17,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>Diagrama de Casos de Uso</v>
+      </c>
+      <c r="E17" s="92" t="str">
+        <f>VLOOKUP(B17,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F17" s="92" t="str">
+        <f>VLOOKUP(B17,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
       <c r="G17" s="119"/>
       <c r="H17" s="94"/>
       <c r="I17" s="94"/>
       <c r="J17" s="94"/>
       <c r="K17" s="96"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="120"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
       <c r="N17" s="98"/>
       <c r="O17" s="111"/>
     </row>
-    <row r="18" spans="1:15" ht="29.25" customHeight="1">
-      <c r="A18" s="90"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
+    <row r="18" spans="1:15" ht="24">
+      <c r="A18" s="90">
+        <v>14</v>
+      </c>
+      <c r="B18" s="91">
+        <v>14</v>
+      </c>
+      <c r="C18" s="92" t="str">
+        <f>VLOOKUP(B18,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D18" s="93" t="str">
+        <f>VLOOKUP(B18,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>Metrica de Volatibilidad de Requerimientos</v>
+      </c>
+      <c r="E18" s="92" t="str">
+        <f>VLOOKUP(B18,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F18" s="92" t="str">
+        <f>VLOOKUP(B18,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
       <c r="G18" s="119"/>
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
       <c r="J18" s="94"/>
       <c r="K18" s="96"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="120"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="97"/>
       <c r="N18" s="98"/>
       <c r="O18" s="111"/>
     </row>
-    <row r="19" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A19" s="90"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
+    <row r="19" spans="1:15" ht="12">
+      <c r="A19" s="90">
+        <v>15</v>
+      </c>
+      <c r="B19" s="91">
+        <v>15</v>
+      </c>
+      <c r="C19" s="92" t="str">
+        <f>VLOOKUP(B19,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D19" s="93" t="str">
+        <f>VLOOKUP(B19,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>Informe Quincenal</v>
+      </c>
+      <c r="E19" s="92" t="str">
+        <f>VLOOKUP(B19,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F19" s="92" t="str">
+        <f>VLOOKUP(B19,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
       <c r="G19" s="119"/>
       <c r="H19" s="94"/>
       <c r="I19" s="94"/>
       <c r="J19" s="94"/>
       <c r="K19" s="96"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="120"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="97"/>
       <c r="N19" s="98"/>
       <c r="O19" s="111"/>
     </row>
     <row r="20" spans="1:15" ht="12">
-      <c r="A20" s="90"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
+      <c r="A20" s="90">
+        <v>16</v>
+      </c>
+      <c r="B20" s="91">
+        <v>16</v>
+      </c>
+      <c r="C20" s="92" t="str">
+        <f>VLOOKUP(B20,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D20" s="93" t="str">
+        <f>VLOOKUP(B20,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>Informe Quincenal</v>
+      </c>
+      <c r="E20" s="92" t="str">
+        <f>VLOOKUP(B20,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F20" s="92" t="str">
+        <f>VLOOKUP(B20,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
       <c r="G20" s="119"/>
       <c r="H20" s="94"/>
       <c r="I20" s="94"/>
@@ -7866,16 +9193,652 @@
       <c r="N20" s="98"/>
       <c r="O20" s="111"/>
     </row>
+    <row r="21" spans="1:15" ht="12">
+      <c r="A21" s="90">
+        <v>17</v>
+      </c>
+      <c r="B21" s="91">
+        <v>17</v>
+      </c>
+      <c r="C21" s="92" t="str">
+        <f>VLOOKUP(B21,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D21" s="93" t="str">
+        <f>VLOOKUP(B21,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>Registros de Riesgos</v>
+      </c>
+      <c r="E21" s="92" t="str">
+        <f>VLOOKUP(B21,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F21" s="92" t="str">
+        <f>VLOOKUP(B21,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
+      <c r="G21" s="119"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="111"/>
+    </row>
+    <row r="22" spans="1:15" ht="12">
+      <c r="A22" s="90">
+        <v>18</v>
+      </c>
+      <c r="B22" s="91">
+        <v>18</v>
+      </c>
+      <c r="C22" s="92" t="str">
+        <f>VLOOKUP(B22,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D22" s="93" t="str">
+        <f>VLOOKUP(B22,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>Desarrollo de Logica de Negocio</v>
+      </c>
+      <c r="E22" s="92" t="str">
+        <f>VLOOKUP(B22,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F22" s="92" t="str">
+        <f>VLOOKUP(B22,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
+      <c r="G22" s="119"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="111"/>
+    </row>
+    <row r="23" spans="1:15" ht="24">
+      <c r="A23" s="90">
+        <v>19</v>
+      </c>
+      <c r="B23" s="91">
+        <v>19</v>
+      </c>
+      <c r="C23" s="92" t="str">
+        <f>VLOOKUP(B23,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D23" s="93" t="str">
+        <f>VLOOKUP(B23,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>Acta de Aceptacion de Entregables</v>
+      </c>
+      <c r="E23" s="92" t="str">
+        <f>VLOOKUP(B23,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F23" s="92" t="str">
+        <f>VLOOKUP(B23,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
+      <c r="G23" s="119"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="111"/>
+    </row>
+    <row r="24" spans="1:15" ht="12">
+      <c r="A24" s="90">
+        <v>20</v>
+      </c>
+      <c r="B24" s="91">
+        <v>20</v>
+      </c>
+      <c r="C24" s="92" t="str">
+        <f>VLOOKUP(B24,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D24" s="93" t="str">
+        <f>VLOOKUP(B24,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>Herramienta de Gestión</v>
+      </c>
+      <c r="E24" s="92" t="str">
+        <f>VLOOKUP(B24,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F24" s="92" t="str">
+        <f>VLOOKUP(B24,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
+      <c r="G24" s="119"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="97"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="111"/>
+    </row>
+    <row r="25" spans="1:15" ht="24">
+      <c r="A25" s="90">
+        <v>21</v>
+      </c>
+      <c r="B25" s="91">
+        <v>21</v>
+      </c>
+      <c r="C25" s="92" t="str">
+        <f>VLOOKUP(B25,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D25" s="93" t="str">
+        <f>VLOOKUP(B25,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>Numero de no Conformidades (Metrica)</v>
+      </c>
+      <c r="E25" s="92" t="str">
+        <f>VLOOKUP(B25,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F25" s="92" t="str">
+        <f>VLOOKUP(B25,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
+      <c r="G25" s="119"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="111"/>
+    </row>
+    <row r="26" spans="1:15" ht="24">
+      <c r="A26" s="90">
+        <v>22</v>
+      </c>
+      <c r="B26" s="91">
+        <v>22</v>
+      </c>
+      <c r="C26" s="92" t="str">
+        <f>VLOOKUP(B26,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D26" s="93" t="str">
+        <f>VLOOKUP(B26,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v xml:space="preserve">Checklist de Aseguramiento de Calidad </v>
+      </c>
+      <c r="E26" s="92" t="str">
+        <f>VLOOKUP(B26,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F26" s="92" t="str">
+        <f>VLOOKUP(B26,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
+      <c r="G26" s="119"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="111"/>
+    </row>
+    <row r="27" spans="1:15" ht="12">
+      <c r="A27" s="90">
+        <v>23</v>
+      </c>
+      <c r="B27" s="91">
+        <v>23</v>
+      </c>
+      <c r="C27" s="92" t="str">
+        <f>VLOOKUP(B27,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D27" s="93" t="str">
+        <f>VLOOKUP(B27,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>Matriz de Seguimiento</v>
+      </c>
+      <c r="E27" s="92" t="str">
+        <f>VLOOKUP(B27,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F27" s="92" t="str">
+        <f>VLOOKUP(B27,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
+      <c r="G27" s="119"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="97"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="111"/>
+    </row>
+    <row r="28" spans="1:15" ht="24">
+      <c r="A28" s="90">
+        <v>24</v>
+      </c>
+      <c r="B28" s="91">
+        <v>24</v>
+      </c>
+      <c r="C28" s="92" t="str">
+        <f>VLOOKUP(B28,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D28" s="93" t="str">
+        <f>VLOOKUP(B28,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>Lista Maestra de Requerimientos Actualizada</v>
+      </c>
+      <c r="E28" s="92" t="str">
+        <f>VLOOKUP(B28,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F28" s="92" t="str">
+        <f>VLOOKUP(B28,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
+      <c r="G28" s="119"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="97"/>
+      <c r="M28" s="97"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="111"/>
+    </row>
+    <row r="29" spans="1:15" ht="12">
+      <c r="A29" s="90">
+        <v>25</v>
+      </c>
+      <c r="B29" s="91">
+        <v>25</v>
+      </c>
+      <c r="C29" s="92" t="str">
+        <f>VLOOKUP(B29,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D29" s="93" t="str">
+        <f>VLOOKUP(B29,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>Informe Quincenal</v>
+      </c>
+      <c r="E29" s="92" t="str">
+        <f>VLOOKUP(B29,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F29" s="92" t="str">
+        <f>VLOOKUP(B29,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
+      <c r="G29" s="119"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="97"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="111"/>
+    </row>
+    <row r="30" spans="1:15" ht="12">
+      <c r="A30" s="90">
+        <v>26</v>
+      </c>
+      <c r="B30" s="91">
+        <v>26</v>
+      </c>
+      <c r="C30" s="92" t="str">
+        <f>VLOOKUP(B30,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D30" s="93" t="str">
+        <f>VLOOKUP(B30,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>Informe Quincenal</v>
+      </c>
+      <c r="E30" s="92" t="str">
+        <f>VLOOKUP(B30,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F30" s="92" t="str">
+        <f>VLOOKUP(B30,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
+      <c r="G30" s="119"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="97"/>
+      <c r="M30" s="97"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="111"/>
+    </row>
+    <row r="31" spans="1:15" ht="12">
+      <c r="A31" s="90">
+        <v>27</v>
+      </c>
+      <c r="B31" s="91">
+        <v>27</v>
+      </c>
+      <c r="C31" s="92" t="str">
+        <f>VLOOKUP(B31,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D31" s="93" t="str">
+        <f>VLOOKUP(B31,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>Registros de Riesgos</v>
+      </c>
+      <c r="E31" s="92" t="str">
+        <f>VLOOKUP(B31,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F31" s="92" t="str">
+        <f>VLOOKUP(B31,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
+      <c r="G31" s="119"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="97"/>
+      <c r="M31" s="97"/>
+      <c r="N31" s="98"/>
+      <c r="O31" s="111"/>
+    </row>
+    <row r="32" spans="1:15" ht="12">
+      <c r="A32" s="90">
+        <v>28</v>
+      </c>
+      <c r="B32" s="91">
+        <v>28</v>
+      </c>
+      <c r="C32" s="92" t="str">
+        <f>VLOOKUP(B32,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D32" s="93" t="str">
+        <f>VLOOKUP(B32,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>Planes de Prueba</v>
+      </c>
+      <c r="E32" s="92" t="str">
+        <f>VLOOKUP(B32,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F32" s="92" t="str">
+        <f>VLOOKUP(B32,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
+      <c r="G32" s="119"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="96"/>
+      <c r="L32" s="97"/>
+      <c r="M32" s="97"/>
+      <c r="N32" s="98"/>
+      <c r="O32" s="111"/>
+    </row>
+    <row r="33" spans="1:15" ht="24">
+      <c r="A33" s="90">
+        <v>29</v>
+      </c>
+      <c r="B33" s="91">
+        <v>29</v>
+      </c>
+      <c r="C33" s="92" t="str">
+        <f>VLOOKUP(B33,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D33" s="93" t="str">
+        <f>VLOOKUP(B33,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>Desarrollo de logica de negocio Ajustado</v>
+      </c>
+      <c r="E33" s="92" t="str">
+        <f>VLOOKUP(B33,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F33" s="92" t="str">
+        <f>VLOOKUP(B33,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
+      <c r="G33" s="119"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="97"/>
+      <c r="M33" s="97"/>
+      <c r="N33" s="98"/>
+      <c r="O33" s="111"/>
+    </row>
+    <row r="34" spans="1:15" ht="24">
+      <c r="A34" s="90">
+        <v>30</v>
+      </c>
+      <c r="B34" s="91">
+        <v>30</v>
+      </c>
+      <c r="C34" s="92" t="str">
+        <f>VLOOKUP(B34,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D34" s="93" t="str">
+        <f>VLOOKUP(B34,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>Desarrollo de Persistencia de Datos</v>
+      </c>
+      <c r="E34" s="92" t="str">
+        <f>VLOOKUP(B34,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F34" s="92" t="str">
+        <f>VLOOKUP(B34,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
+      <c r="G34" s="119"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="98"/>
+      <c r="O34" s="111"/>
+    </row>
+    <row r="35" spans="1:15" ht="24">
+      <c r="A35" s="90">
+        <v>31</v>
+      </c>
+      <c r="B35" s="91">
+        <v>31</v>
+      </c>
+      <c r="C35" s="92" t="str">
+        <f>VLOOKUP(B35,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D35" s="93" t="str">
+        <f>VLOOKUP(B35,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>Acta de Aceptacion de Entregables</v>
+      </c>
+      <c r="E35" s="92" t="str">
+        <f>VLOOKUP(B35,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F35" s="92" t="str">
+        <f>VLOOKUP(B35,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
+      <c r="G35" s="119"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="97"/>
+      <c r="M35" s="97"/>
+      <c r="N35" s="98"/>
+      <c r="O35" s="111"/>
+    </row>
+    <row r="36" spans="1:15" ht="12">
+      <c r="A36" s="90">
+        <v>32</v>
+      </c>
+      <c r="B36" s="91">
+        <v>32</v>
+      </c>
+      <c r="C36" s="92" t="str">
+        <f>VLOOKUP(B36,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D36" s="93" t="str">
+        <f>VLOOKUP(B36,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>Pruebas Funcionales</v>
+      </c>
+      <c r="E36" s="92" t="str">
+        <f>VLOOKUP(B36,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <v>Michel Aguilar</v>
+      </c>
+      <c r="F36" s="92" t="str">
+        <f>VLOOKUP(B36,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <v>Amira Lanao</v>
+      </c>
+      <c r="G36" s="119"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="96"/>
+      <c r="L36" s="97"/>
+      <c r="M36" s="97"/>
+      <c r="N36" s="98"/>
+      <c r="O36" s="111"/>
+    </row>
+    <row r="37" spans="1:15" s="172" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A37" s="162">
+        <v>33</v>
+      </c>
+      <c r="B37" s="163">
+        <v>33</v>
+      </c>
+      <c r="C37" s="164" t="str">
+        <f>VLOOKUP(B37,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D37" s="165" t="str">
+        <f>VLOOKUP(B37,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>Informe Quincenal</v>
+      </c>
+      <c r="E37" s="164"/>
+      <c r="F37" s="164"/>
+      <c r="G37" s="166"/>
+      <c r="H37" s="167"/>
+      <c r="I37" s="167"/>
+      <c r="J37" s="167"/>
+      <c r="K37" s="168"/>
+      <c r="L37" s="169"/>
+      <c r="M37" s="169"/>
+      <c r="N37" s="170"/>
+      <c r="O37" s="171"/>
+    </row>
+    <row r="38" spans="1:15" s="172" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A38" s="162">
+        <v>34</v>
+      </c>
+      <c r="B38" s="163">
+        <v>34</v>
+      </c>
+      <c r="C38" s="164" t="str">
+        <f>VLOOKUP(B38,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D38" s="165" t="str">
+        <f>VLOOKUP(B38,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>Pruebas Funcionales</v>
+      </c>
+      <c r="E38" s="164"/>
+      <c r="F38" s="164"/>
+      <c r="G38" s="166"/>
+      <c r="H38" s="167"/>
+      <c r="I38" s="167"/>
+      <c r="J38" s="167"/>
+      <c r="K38" s="168"/>
+      <c r="L38" s="169"/>
+      <c r="M38" s="169"/>
+      <c r="N38" s="170"/>
+      <c r="O38" s="171"/>
+    </row>
+    <row r="39" spans="1:15" s="172" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A39" s="162">
+        <v>35</v>
+      </c>
+      <c r="B39" s="163">
+        <v>35</v>
+      </c>
+      <c r="C39" s="164" t="e">
+        <f>VLOOKUP(B39,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D39" s="165" t="e">
+        <f>VLOOKUP(B39,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E39" s="164"/>
+      <c r="F39" s="164"/>
+      <c r="G39" s="166"/>
+      <c r="H39" s="167"/>
+      <c r="I39" s="167"/>
+      <c r="J39" s="167"/>
+      <c r="K39" s="168"/>
+      <c r="L39" s="169"/>
+      <c r="M39" s="169"/>
+      <c r="N39" s="170"/>
+      <c r="O39" s="171"/>
+    </row>
+    <row r="40" spans="1:15" s="172" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A40" s="162">
+        <v>36</v>
+      </c>
+      <c r="B40" s="163">
+        <v>36</v>
+      </c>
+      <c r="C40" s="164" t="e">
+        <f>VLOOKUP(B40,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D40" s="165" t="e">
+        <f>VLOOKUP(B40,Planificación!$B$13:$E$104,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E40" s="164"/>
+      <c r="F40" s="164"/>
+      <c r="G40" s="166"/>
+      <c r="H40" s="167"/>
+      <c r="I40" s="167"/>
+      <c r="J40" s="167"/>
+      <c r="K40" s="168"/>
+      <c r="L40" s="173"/>
+      <c r="M40" s="173"/>
+      <c r="N40" s="170"/>
+      <c r="O40" s="171"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H40">
       <formula1>TiposNC</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I40">
       <formula1>Origen</formula1>
     </dataValidation>
   </dataValidations>
@@ -7895,8 +9858,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A2:K74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -7911,82 +9874,82 @@
   <sheetData>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="C2" s="200" t="s">
+      <c r="C2" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="11"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1">
       <c r="A4" s="11"/>
-      <c r="C4" s="201" t="s">
+      <c r="C4" s="230" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="201"/>
-      <c r="E4" s="190" t="str">
+      <c r="D4" s="230"/>
+      <c r="E4" s="219" t="str">
         <f>IF(Planificación!D6&lt;&gt;"",Planificación!D6,"")</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="192"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="221"/>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1">
       <c r="A5" s="11"/>
-      <c r="C5" s="202" t="str">
+      <c r="C5" s="231" t="str">
         <f>Planificación!B7</f>
         <v>Analista de Calidad</v>
       </c>
-      <c r="D5" s="203"/>
-      <c r="E5" s="190" t="str">
+      <c r="D5" s="232"/>
+      <c r="E5" s="219" t="str">
         <f>IF(Planificación!D7&lt;&gt;"",Planificación!D7,"")</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F5" s="191"/>
-      <c r="G5" s="191"/>
-      <c r="H5" s="191"/>
-      <c r="I5" s="192"/>
+      <c r="F5" s="220"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="221"/>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1">
       <c r="A6" s="11"/>
-      <c r="C6" s="188" t="s">
+      <c r="C6" s="217" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="189"/>
-      <c r="E6" s="190" t="str">
+      <c r="D6" s="218"/>
+      <c r="E6" s="219" t="str">
         <f>IF(Planificación!D8&lt;&gt;"",Planificación!D8,"")</f>
         <v>Gino Guzman, Amira Lanao</v>
       </c>
-      <c r="F6" s="191"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="191"/>
-      <c r="I6" s="192"/>
+      <c r="F6" s="220"/>
+      <c r="G6" s="220"/>
+      <c r="H6" s="220"/>
+      <c r="I6" s="221"/>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="C7" s="194" t="s">
+      <c r="C7" s="223" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="194"/>
-      <c r="E7" s="195">
+      <c r="D7" s="223"/>
+      <c r="E7" s="224">
         <f>IF(Planificación!D9&lt;&gt;"",Planificación!D9,"")</f>
         <v>41360</v>
       </c>
-      <c r="F7" s="196"/>
-      <c r="G7" s="197" t="s">
+      <c r="F7" s="225"/>
+      <c r="G7" s="226" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="198"/>
+      <c r="H7" s="227"/>
       <c r="I7" s="99">
         <f>IF(Planificación!F9&lt;&gt;"",Planificación!F9,"")</f>
         <v>41383</v>
@@ -7994,24 +9957,24 @@
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1">
       <c r="A8" s="11"/>
-      <c r="C8" s="194" t="s">
+      <c r="C8" s="223" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="199"/>
-      <c r="E8" s="190" t="str">
+      <c r="D8" s="228"/>
+      <c r="E8" s="219" t="str">
         <f>IF(Planificación!D10&lt;&gt;"",Planificación!D10,"")</f>
         <v/>
       </c>
-      <c r="F8" s="191"/>
-      <c r="G8" s="191"/>
-      <c r="H8" s="191"/>
-      <c r="I8" s="192"/>
+      <c r="F8" s="220"/>
+      <c r="G8" s="220"/>
+      <c r="H8" s="220"/>
+      <c r="I8" s="221"/>
     </row>
     <row r="13" spans="1:11" ht="15">
-      <c r="C13" s="193" t="s">
+      <c r="C13" s="222" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="193"/>
+      <c r="D13" s="222"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -8033,7 +9996,7 @@
       </c>
       <c r="D15" s="100">
         <f>D14-D16</f>
-        <v>2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8041,8 +10004,8 @@
         <v>41</v>
       </c>
       <c r="D16" s="100">
-        <f>COUNT(Planificación!L13:L42)</f>
-        <v>14</v>
+        <f>COUNT(Planificación!L13:L57)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="3:5">
@@ -8051,7 +10014,7 @@
       </c>
       <c r="D17" s="101">
         <f>(D16/(IF(D14=0,1,D14)))</f>
-        <v>0.875</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="18" spans="3:5">
@@ -8060,7 +10023,7 @@
       </c>
       <c r="D18" s="101">
         <f>1-D17</f>
-        <v>0.125</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="19" spans="3:5">
@@ -8114,10 +10077,10 @@
       <c r="E28" s="9"/>
     </row>
     <row r="30" spans="3:5" ht="15" customHeight="1">
-      <c r="C30" s="187" t="s">
+      <c r="C30" s="216" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="187"/>
+      <c r="D30" s="216"/>
     </row>
     <row r="31" spans="3:5">
       <c r="C31" s="31" t="s">
@@ -8132,7 +10095,7 @@
         <v>147</v>
       </c>
       <c r="D32" s="103">
-        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$148,C32)</f>
+        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$168,C32)</f>
         <v>2</v>
       </c>
     </row>
@@ -8141,7 +10104,7 @@
         <v>148</v>
       </c>
       <c r="D33" s="103">
-        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$148,C33)</f>
+        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$168,C33)</f>
         <v>0</v>
       </c>
     </row>
@@ -8150,7 +10113,7 @@
         <v>149</v>
       </c>
       <c r="D34" s="103">
-        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$148,C34)</f>
+        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$168,C34)</f>
         <v>1</v>
       </c>
     </row>
@@ -8159,7 +10122,7 @@
         <v>37</v>
       </c>
       <c r="D35" s="103">
-        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$148,C35)</f>
+        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$168,C35)</f>
         <v>0</v>
       </c>
     </row>
@@ -8168,7 +10131,7 @@
         <v>36</v>
       </c>
       <c r="D36" s="103">
-        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$148,C36)</f>
+        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$168,C36)</f>
         <v>1</v>
       </c>
     </row>
@@ -8182,18 +10145,18 @@
       </c>
     </row>
     <row r="52" spans="3:4" ht="15">
-      <c r="C52" s="187" t="s">
+      <c r="C52" s="216" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="187"/>
+      <c r="D52" s="216"/>
     </row>
     <row r="53" spans="3:4">
       <c r="C53" s="105" t="s">
         <v>109</v>
       </c>
       <c r="D53" s="103">
-        <f>Planificación!J43</f>
-        <v>50</v>
+        <f>Planificación!J58</f>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="3:4">
@@ -8201,8 +10164,8 @@
         <v>110</v>
       </c>
       <c r="D54" s="103">
-        <f>Planificación!M43</f>
-        <v>49</v>
+        <f>Planificación!M58</f>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="3:4">
@@ -8215,10 +10178,10 @@
       </c>
     </row>
     <row r="69" spans="3:4" ht="15">
-      <c r="C69" s="187" t="s">
+      <c r="C69" s="216" t="s">
         <v>146</v>
       </c>
-      <c r="D69" s="187"/>
+      <c r="D69" s="216"/>
     </row>
     <row r="70" spans="3:4">
       <c r="C70" s="31" t="s">
@@ -8233,7 +10196,7 @@
         <v>95</v>
       </c>
       <c r="D71" s="103">
-        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$148,C71)</f>
+        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$168,C71)</f>
         <v>1</v>
       </c>
     </row>
@@ -8242,7 +10205,7 @@
         <v>97</v>
       </c>
       <c r="D72" s="103">
-        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$148,C72)</f>
+        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$168,C72)</f>
         <v>3</v>
       </c>
     </row>
@@ -8251,7 +10214,7 @@
         <v>98</v>
       </c>
       <c r="D73" s="103">
-        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$148,C73)</f>
+        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$168,C73)</f>
         <v>0</v>
       </c>
     </row>
@@ -8302,13 +10265,13 @@
   <dimension ref="A2:K42"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
     <col min="3" max="3" width="4.5703125" customWidth="1"/>
     <col min="4" max="4" width="45.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" customWidth="1"/>
@@ -8355,7 +10318,7 @@
       <c r="H3" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="204" t="s">
+      <c r="J3" s="233" t="s">
         <v>117</v>
       </c>
       <c r="K3" s="117" t="s">
@@ -8363,11 +10326,11 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="205" t="s">
+      <c r="A4" s="234" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="116" t="s">
-        <v>156</v>
+      <c r="B4" s="134" t="s">
+        <v>208</v>
       </c>
       <c r="D4" s="109" t="s">
         <v>97</v>
@@ -8378,15 +10341,15 @@
       <c r="H4" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="204"/>
+      <c r="J4" s="233"/>
       <c r="K4" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="206"/>
+      <c r="A5" s="235"/>
       <c r="B5" s="116" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="D5" s="109" t="s">
         <v>98</v>
@@ -8397,35 +10360,35 @@
       <c r="H5" s="109" t="s">
         <v>150</v>
       </c>
-      <c r="J5" s="204"/>
+      <c r="J5" s="233"/>
       <c r="K5" s="117" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="206"/>
+      <c r="A6" s="235"/>
       <c r="B6" s="116" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="F6" s="109" t="s">
         <v>149</v>
       </c>
       <c r="H6" s="109"/>
-      <c r="J6" s="204"/>
+      <c r="J6" s="233"/>
       <c r="K6" s="117" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="206"/>
+      <c r="A7" s="235"/>
       <c r="B7" s="116" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="F7" s="109" t="s">
         <v>37</v>
       </c>
       <c r="H7" s="109"/>
-      <c r="J7" s="204" t="s">
+      <c r="J7" s="233" t="s">
         <v>124</v>
       </c>
       <c r="K7" s="117" t="s">
@@ -8433,77 +10396,79 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="206"/>
+      <c r="A8" s="235"/>
       <c r="B8" s="116" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="F8" s="109" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="109"/>
-      <c r="J8" s="204"/>
+      <c r="J8" s="233"/>
       <c r="K8" s="117" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="206"/>
+      <c r="A9" s="235"/>
       <c r="B9" s="116" t="s">
-        <v>161</v>
-      </c>
-      <c r="J9" s="204"/>
+        <v>213</v>
+      </c>
+      <c r="J9" s="233"/>
       <c r="K9" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="206"/>
+      <c r="A10" s="235"/>
       <c r="B10" s="116" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="F10" s="112"/>
-      <c r="J10" s="204"/>
+      <c r="J10" s="233"/>
       <c r="K10" s="117" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="206"/>
+      <c r="A11" s="235"/>
       <c r="B11" s="116" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="F11" s="112"/>
-      <c r="J11" s="204"/>
+      <c r="J11" s="233"/>
       <c r="K11" s="117" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A12" s="207"/>
+    <row r="12" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A12" s="235"/>
       <c r="B12" s="116" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="F12" s="112"/>
-      <c r="J12" s="204"/>
+      <c r="J12" s="233"/>
       <c r="K12" s="117" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:11">
+      <c r="A13" s="235"/>
       <c r="B13" s="116" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="D13" s="118"/>
-      <c r="J13" s="204"/>
+      <c r="J13" s="233"/>
       <c r="K13" s="117" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:11">
+      <c r="A14" s="235"/>
       <c r="B14" s="116" t="s">
-        <v>166</v>
-      </c>
-      <c r="J14" s="204" t="s">
+        <v>218</v>
+      </c>
+      <c r="J14" s="233" t="s">
         <v>119</v>
       </c>
       <c r="K14" s="117" t="s">
@@ -8511,152 +10476,157 @@
       </c>
     </row>
     <row r="15" spans="1:11">
+      <c r="A15" s="235"/>
       <c r="B15" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="J15" s="204"/>
+        <v>219</v>
+      </c>
+      <c r="J15" s="233"/>
       <c r="K15" s="117" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:11">
+      <c r="A16" s="235"/>
       <c r="B16" s="116" t="s">
-        <v>157</v>
-      </c>
-      <c r="J16" s="204"/>
+        <v>220</v>
+      </c>
+      <c r="J16" s="233"/>
       <c r="K16" s="117" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A17" s="235"/>
       <c r="B17" s="116" t="s">
-        <v>163</v>
-      </c>
-      <c r="J17" s="204"/>
+        <v>221</v>
+      </c>
+      <c r="J17" s="233"/>
       <c r="K17" s="117" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="1:11">
+      <c r="A18" s="235"/>
       <c r="B18" s="116" t="s">
-        <v>167</v>
-      </c>
-      <c r="J18" s="204"/>
+        <v>222</v>
+      </c>
+      <c r="J18" s="233"/>
       <c r="K18" s="117" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="116" t="s">
-        <v>168</v>
-      </c>
-      <c r="J19" s="204"/>
+    <row r="19" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A19" s="236"/>
+      <c r="B19" s="135" t="s">
+        <v>223</v>
+      </c>
+      <c r="J19" s="233"/>
       <c r="K19" s="117" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
-      <c r="J20" s="204"/>
+    <row r="20" spans="1:11">
+      <c r="J20" s="233"/>
       <c r="K20" s="117" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
-      <c r="J21" s="204"/>
+    <row r="21" spans="1:11">
+      <c r="J21" s="233"/>
       <c r="K21" s="117" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
-      <c r="J22" s="204"/>
+    <row r="22" spans="1:11">
+      <c r="J22" s="233"/>
       <c r="K22" s="117" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="J23" s="204"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="J23" s="233"/>
       <c r="K23" s="117" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="J24" s="204" t="s">
-        <v>185</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="J24" s="233" t="s">
+        <v>169</v>
       </c>
       <c r="K24" s="117" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
-      <c r="J25" s="204"/>
+    <row r="25" spans="1:11">
+      <c r="J25" s="233"/>
       <c r="K25" s="117" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
-      <c r="J26" s="204"/>
+    <row r="26" spans="1:11">
+      <c r="J26" s="233"/>
       <c r="K26" s="117" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
-      <c r="J27" s="204"/>
+    <row r="27" spans="1:11">
+      <c r="J27" s="233"/>
       <c r="K27" s="117" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
-      <c r="J28" s="204"/>
+    <row r="28" spans="1:11">
+      <c r="J28" s="233"/>
       <c r="K28" s="117" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
-      <c r="J29" s="204"/>
+    <row r="29" spans="1:11">
+      <c r="J29" s="233"/>
       <c r="K29" s="117" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="2:11">
-      <c r="J30" s="204"/>
+    <row r="30" spans="1:11">
+      <c r="J30" s="233"/>
       <c r="K30" s="117" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="J31" s="204" t="s">
-        <v>186</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="J31" s="233" t="s">
+        <v>170</v>
       </c>
       <c r="K31" s="117" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="J32" s="204"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="J32" s="233"/>
       <c r="K32" s="117" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="10:11">
-      <c r="J33" s="204"/>
+      <c r="J33" s="233"/>
       <c r="K33" s="117" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="34" spans="10:11">
-      <c r="J34" s="204"/>
+      <c r="J34" s="233"/>
       <c r="K34" s="117" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="35" spans="10:11">
-      <c r="J35" s="204"/>
+      <c r="J35" s="233"/>
       <c r="K35" s="117" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="36" spans="10:11">
-      <c r="J36" s="204" t="s">
+      <c r="J36" s="233" t="s">
         <v>120</v>
       </c>
       <c r="K36" s="117" t="s">
@@ -8664,46 +10634,46 @@
       </c>
     </row>
     <row r="37" spans="10:11">
-      <c r="J37" s="204"/>
+      <c r="J37" s="233"/>
       <c r="K37" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="38" spans="10:11">
-      <c r="J38" s="204"/>
+      <c r="J38" s="233"/>
       <c r="K38" s="117" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="39" spans="10:11">
-      <c r="J39" s="204"/>
+      <c r="J39" s="233"/>
       <c r="K39" s="117" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="40" spans="10:11">
-      <c r="J40" s="204"/>
+      <c r="J40" s="233"/>
       <c r="K40" s="117" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="41" spans="10:11">
-      <c r="J41" s="204"/>
+      <c r="J41" s="233"/>
       <c r="K41" s="117" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="42" spans="10:11">
-      <c r="J42" s="204"/>
+      <c r="J42" s="233"/>
       <c r="K42" s="117" t="s">
         <v>129</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A4:A19"/>
     <mergeCell ref="J31:J35"/>
     <mergeCell ref="J36:J42"/>
-    <mergeCell ref="A4:A12"/>
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="J7:J13"/>
     <mergeCell ref="J14:J23"/>

--- a/IFTC.PPQA.RE01_Herramienta de Gestión QA_(v1.2).xlsx
+++ b/IFTC.PPQA.RE01_Herramienta de Gestión QA_(v1.2).xlsx
@@ -18,7 +18,7 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planificación!$A$12:$Y$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planificación!$A$12:$Y$42</definedName>
     <definedName name="Analista" localSheetId="0">#REF!</definedName>
     <definedName name="AreaProceso" localSheetId="0">#REF!</definedName>
     <definedName name="Artefacto" localSheetId="0">#REF!</definedName>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="219">
   <si>
     <t>Analista Responsable</t>
   </si>
@@ -641,6 +641,54 @@
     <t>Proceso</t>
   </si>
   <si>
+    <t>Desarrollo Iteración 1 - Planificacion</t>
+  </si>
+  <si>
+    <t>Desarrollo Iteración 4 - Planificacion</t>
+  </si>
+  <si>
+    <t>Desarrollo Iteración 2 - Planificacion</t>
+  </si>
+  <si>
+    <t>Desarrollo Iteración 3 - Planificacion</t>
+  </si>
+  <si>
+    <t>Desarrollo Iteración 1 - Analisis de Riesgo</t>
+  </si>
+  <si>
+    <t>Desarrollo Iteración 2 - Analisis de Riesgo</t>
+  </si>
+  <si>
+    <t>Desarrollo Iteración 3 - Analisis de Riesgo</t>
+  </si>
+  <si>
+    <t>Desarrollo Iteración 4 - Anallisis de Riesgo</t>
+  </si>
+  <si>
+    <t>Desarrollo Iteración 1 - Ingenieria</t>
+  </si>
+  <si>
+    <t>Desarrollo Iteración 2 - Ingenieria</t>
+  </si>
+  <si>
+    <t>Desarrollo Iteración 3 - Ingenieria</t>
+  </si>
+  <si>
+    <t>Desarrollo Iteración 4 - Ingenieria</t>
+  </si>
+  <si>
+    <t>Desarrollo Iteración 4 - Evaluacion</t>
+  </si>
+  <si>
+    <t>Desarrollo Iteración 3 - Evaluacion</t>
+  </si>
+  <si>
+    <t>Desarrollo Iteración 2 - Evaluacion</t>
+  </si>
+  <si>
+    <t>Desarrollo Iteración 1 - Evaluacion</t>
+  </si>
+  <si>
     <t>Plan de Proyecto</t>
   </si>
   <si>
@@ -693,6 +741,9 @@
   </si>
   <si>
     <t>Gino Guzman</t>
+  </si>
+  <si>
+    <t>Adecuación de Software Factory A.S.I</t>
   </si>
   <si>
     <t>Michel Aguilar</t>
@@ -734,6 +785,20 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>Ingenieria</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Desarrollo Iteración 1 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>Evaluacion</t>
     </r>
   </si>
@@ -865,6 +930,9 @@
     <t>El Plan de Proyecto demoro mas de lo previsto</t>
   </si>
   <si>
+    <t>Modelo de la BD requirió mas tiempo del planteado</t>
+  </si>
+  <si>
     <t>El cronograma toma mas tiempo de lo esperado</t>
   </si>
   <si>
@@ -877,406 +945,10 @@
     <t>El Cronograma falta actualizar a la fecha</t>
   </si>
   <si>
+    <t>Versión: 0.2</t>
+  </si>
+  <si>
     <t>Fecha Efectiva: 19/04/2013</t>
-  </si>
-  <si>
-    <t>Adecuación de Software A.S.I</t>
-  </si>
-  <si>
-    <t>Revision Final</t>
-  </si>
-  <si>
-    <r>
-      <t>Desarrollo Iteración 1 -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Analisis de Riesgo</t>
-    </r>
-  </si>
-  <si>
-    <t>Informe Quincenal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metrica de Procentaje de Cumplimiento de Entregables </t>
-  </si>
-  <si>
-    <t>Desarrollo de Prototipos de Interfaces</t>
-  </si>
-  <si>
-    <t>Casos de Uso</t>
-  </si>
-  <si>
-    <t>Diagrama de Casos de Uso</t>
-  </si>
-  <si>
-    <t>Metrica de Volatibilidad de Requerimientos</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Desarrollo Iteración 1 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Planificacion</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Desarrollo Iteración 1 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Analisis de Riesgo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Desarrollo Iteración 1 -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Ingenieria</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Desarrollo Iteración 1 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Evaluacion</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Desarrollo Iteración 2 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Planificacion</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Desarrollo Iteración 2 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Analisis de Riesgo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Desarrollo Iteración 2 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ingenieria</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Desarrollo Iteración 2 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Evaluacion</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Desarrollo Iteración 3 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Planificacion</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Desarrollo Iteración 3 -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Analisis de Riesgo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Desarrollo Iteración 3 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ingenieria</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Desarrollo Iteración 3 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Evaluacion</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Desarrollo Iteración 4 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Planificacion</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Desarrollo Iteración 4 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Anallisis de Riesgo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Desarrollo Iteración 4 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ingenieria</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Desarrollo Iteración 4 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Evaluacion</t>
-    </r>
-  </si>
-  <si>
-    <t>Herramienta de Gestión</t>
-  </si>
-  <si>
-    <t>Numero de no Conformidades (Metrica)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist de Aseguramiento de Calidad </t>
-  </si>
-  <si>
-    <t>Lista Maestra de Requerimientos Actualizada</t>
-  </si>
-  <si>
-    <t>Desarrollo de logica de negocio Ajustado</t>
-  </si>
-  <si>
-    <t>Pruebas Funcionales</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>Versión: 2.0</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Desarrollo Iteración 4 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Planificacion</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Desarrollo Iteración 4 -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Anallisis de Riesgo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Desarrollo Iteración 4 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Anallisis de Riesgo</t>
-    </r>
-  </si>
-  <si>
-    <t>Métricas de Calidad</t>
-  </si>
-  <si>
-    <t>Manual de Usuario</t>
-  </si>
-  <si>
-    <t>Plan de Capacitación</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Desarrollo Iteración 4 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ingenieria</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Desarrollo Iteración 4 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Evaluacion</t>
-    </r>
-  </si>
-  <si>
-    <t>Acta de Conformidad de Capacitacion</t>
-  </si>
-  <si>
-    <t>Acta de Finalización del Proyecto</t>
-  </si>
-  <si>
-    <t>Implementación</t>
-  </si>
-  <si>
-    <t>Pruebas en Producción</t>
-  </si>
-  <si>
-    <t>Pruebas Integrales</t>
-  </si>
-  <si>
-    <t>Pruebas Unitarias</t>
   </si>
 </sst>
 </file>
@@ -1288,7 +960,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_)"/>
   </numFmts>
-  <fonts count="64">
+  <fonts count="63">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1661,15 +1333,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1816,38 +1481,8 @@
         <bgColor indexed="9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="35">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -2261,36 +1896,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2347,7 +1952,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2704,6 +2309,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="24" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2720,10 +2333,41 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="24" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="24" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="24" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="46" fillId="24" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="61" fillId="28" borderId="28" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2757,152 +2401,8 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="50" fillId="24" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="29" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="29" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="46" fillId="29" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="29" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="29" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="30" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="30" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="30" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="31" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="31" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="31" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="32" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="32" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="50" fillId="32" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="10" xfId="40" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="32" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="32" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3112,40 +2612,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="25" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="26" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="27" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="33" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="33" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="33" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -3379,10 +2852,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3736,12 +3209,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="41165824"/>
-        <c:axId val="64060736"/>
+        <c:axId val="87515136"/>
+        <c:axId val="66944320"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="41165824"/>
+        <c:axId val="87515136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3750,7 +3223,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64060736"/>
+        <c:crossAx val="66944320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3758,7 +3231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64060736"/>
+        <c:axId val="66944320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3768,7 +3241,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41165824"/>
+        <c:crossAx val="87515136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4050,10 +3523,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>138</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>137</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4068,11 +3541,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="41166336"/>
-        <c:axId val="64119936"/>
+        <c:axId val="87515648"/>
+        <c:axId val="85492864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41166336"/>
+        <c:axId val="87515648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4107,7 +3580,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64119936"/>
+        <c:crossAx val="85492864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4117,7 +3590,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64119936"/>
+        <c:axId val="85492864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4162,7 +3635,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41166336"/>
+        <c:crossAx val="87515648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4602,12 +4075,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="41166848"/>
-        <c:axId val="64121664"/>
+        <c:axId val="87516672"/>
+        <c:axId val="85494592"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="41166848"/>
+        <c:axId val="87516672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4681,7 +4154,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64121664"/>
+        <c:crossAx val="85494592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4691,7 +4164,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64121664"/>
+        <c:axId val="85494592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4775,7 +4248,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41166848"/>
+        <c:crossAx val="87516672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5554,7 +5027,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5583,15 +5056,15 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="64"/>
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
       <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" thickBot="1">
@@ -5607,30 +5080,30 @@
     </row>
     <row r="4" spans="1:9" ht="36.75" customHeight="1">
       <c r="A4" s="64"/>
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="126" t="s">
+      <c r="D4" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="126" t="s">
+      <c r="E4" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="126" t="s">
+      <c r="F4" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="126" t="s">
+      <c r="G4" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="127" t="s">
+      <c r="H4" s="137" t="s">
         <v>69</v>
       </c>
       <c r="I4" s="64"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="24">
       <c r="A5" s="64"/>
       <c r="B5" s="66">
         <v>1</v>
@@ -5642,66 +5115,52 @@
         <v>41360</v>
       </c>
       <c r="E5" s="68" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G5" s="68" t="s">
         <v>70</v>
       </c>
       <c r="H5" s="69" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="I5" s="64"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="24">
       <c r="A6" s="64"/>
       <c r="B6" s="66">
         <v>2</v>
       </c>
-      <c r="C6" s="133">
+      <c r="C6" s="143">
         <v>0.2</v>
       </c>
       <c r="D6" s="67">
         <v>41383</v>
       </c>
       <c r="E6" s="68" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G6" s="68" t="s">
         <v>70</v>
       </c>
       <c r="H6" s="69" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="I6" s="64"/>
     </row>
     <row r="7" spans="1:9" ht="13.5" thickBot="1">
-      <c r="B7" s="128">
-        <v>3</v>
-      </c>
-      <c r="C7" s="129" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" s="130">
-        <v>41400</v>
-      </c>
-      <c r="E7" s="131" t="s">
-        <v>174</v>
-      </c>
-      <c r="F7" s="131" t="s">
-        <v>199</v>
-      </c>
-      <c r="G7" s="131" t="s">
-        <v>200</v>
-      </c>
-      <c r="H7" s="132" t="s">
-        <v>176</v>
-      </c>
+      <c r="B7" s="138"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5720,7 +5179,7 @@
   <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5737,22 +5196,22 @@
     <row r="2" spans="1:8" s="59" customFormat="1" ht="48.75" customHeight="1">
       <c r="A2" s="36"/>
       <c r="B2" s="60"/>
-      <c r="C2" s="187" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="188"/>
-      <c r="E2" s="189"/>
+      <c r="C2" s="158" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="159"/>
+      <c r="E2" s="160"/>
     </row>
     <row r="3" spans="1:8" s="59" customFormat="1">
       <c r="A3" s="36"/>
       <c r="B3" s="61" t="s">
-        <v>231</v>
-      </c>
-      <c r="C3" s="195" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" s="196"/>
-      <c r="E3" s="197"/>
+        <v>217</v>
+      </c>
+      <c r="C3" s="166" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="167"/>
+      <c r="E3" s="168"/>
     </row>
     <row r="4" spans="1:8" s="59" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="36"/>
@@ -5764,12 +5223,12 @@
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="36"/>
-      <c r="B5" s="190" t="s">
+      <c r="B5" s="161" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="191"/>
-      <c r="D5" s="191"/>
-      <c r="E5" s="192"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="163"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="36"/>
@@ -5792,10 +5251,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="72"/>
-      <c r="D8" s="193" t="s">
+      <c r="D8" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="194"/>
+      <c r="E8" s="165"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="36"/>
@@ -5881,62 +5340,62 @@
       <c r="A18" s="34"/>
     </row>
     <row r="19" spans="1:8" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="181" t="s">
+      <c r="B19" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="182"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="183"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="154"/>
     </row>
     <row r="20" spans="1:8" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="B20" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="184" t="s">
+      <c r="C20" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="185"/>
-      <c r="E20" s="186"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="157"/>
     </row>
     <row r="21" spans="1:8" s="55" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="198" t="s">
+      <c r="C21" s="169" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="199"/>
-      <c r="E21" s="200"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="171"/>
     </row>
     <row r="22" spans="1:8" s="55" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="198" t="s">
+      <c r="C22" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="199"/>
-      <c r="E22" s="200"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="171"/>
     </row>
     <row r="23" spans="1:8" s="55" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="198" t="s">
+      <c r="C23" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="199"/>
-      <c r="E23" s="200"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="171"/>
     </row>
     <row r="24" spans="1:8" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="198" t="s">
+      <c r="C24" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="199"/>
-      <c r="E24" s="200"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="171"/>
     </row>
     <row r="25" spans="1:8" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="57"/>
@@ -5949,31 +5408,31 @@
       <c r="B26" s="48"/>
     </row>
     <row r="27" spans="1:8" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="181" t="s">
+      <c r="B27" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="182"/>
-      <c r="D27" s="182"/>
-      <c r="E27" s="183"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="154"/>
     </row>
     <row r="28" spans="1:8" s="55" customFormat="1" ht="13.5" customHeight="1">
       <c r="B28" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="184" t="s">
+      <c r="C28" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="185"/>
-      <c r="E28" s="186"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="157"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="34"/>
-      <c r="B29" s="201" t="s">
+      <c r="B29" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="202"/>
-      <c r="D29" s="202"/>
-      <c r="E29" s="203"/>
+      <c r="C29" s="173"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="174"/>
       <c r="F29" s="55"/>
       <c r="G29" s="55"/>
     </row>
@@ -5982,11 +5441,11 @@
       <c r="B30" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="175" t="s">
+      <c r="C30" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="176"/>
-      <c r="E30" s="177"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="148"/>
       <c r="F30" s="55"/>
       <c r="G30" s="55"/>
     </row>
@@ -5995,11 +5454,11 @@
       <c r="B31" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="175" t="s">
+      <c r="C31" s="146" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="176"/>
-      <c r="E31" s="177"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="148"/>
       <c r="F31" s="55"/>
       <c r="G31" s="55"/>
     </row>
@@ -6008,11 +5467,11 @@
       <c r="B32" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="175" t="s">
+      <c r="C32" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="176"/>
-      <c r="E32" s="177"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="148"/>
       <c r="F32" s="55"/>
       <c r="G32" s="55"/>
     </row>
@@ -6021,11 +5480,11 @@
       <c r="B33" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="175" t="s">
+      <c r="C33" s="146" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="176"/>
-      <c r="E33" s="177"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="148"/>
       <c r="F33" s="55"/>
       <c r="G33" s="55"/>
     </row>
@@ -6034,174 +5493,174 @@
       <c r="B34" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="175" t="s">
+      <c r="C34" s="146" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="176"/>
-      <c r="E34" s="177"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="148"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="34"/>
       <c r="B35" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="175" t="s">
+      <c r="C35" s="146" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="176"/>
-      <c r="E35" s="177"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="148"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="34"/>
-      <c r="B36" s="201" t="s">
+      <c r="B36" s="172" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="202"/>
-      <c r="D36" s="202"/>
-      <c r="E36" s="203"/>
+      <c r="C36" s="173"/>
+      <c r="D36" s="173"/>
+      <c r="E36" s="174"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="34"/>
       <c r="B37" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="175" t="s">
+      <c r="C37" s="146" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="176"/>
-      <c r="E37" s="177"/>
+      <c r="D37" s="147"/>
+      <c r="E37" s="148"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="34"/>
       <c r="B38" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="175" t="s">
+      <c r="C38" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="176"/>
-      <c r="E38" s="177"/>
+      <c r="D38" s="147"/>
+      <c r="E38" s="148"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="34"/>
       <c r="B39" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="175" t="s">
+      <c r="C39" s="146" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="176"/>
-      <c r="E39" s="177"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="148"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="34"/>
       <c r="B40" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="175" t="s">
+      <c r="C40" s="146" t="s">
         <v>143</v>
       </c>
-      <c r="D40" s="176"/>
-      <c r="E40" s="177"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="148"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="34"/>
       <c r="B41" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="175" t="s">
+      <c r="C41" s="146" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="176"/>
-      <c r="E41" s="177"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="148"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="34"/>
       <c r="B42" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="175" t="s">
+      <c r="C42" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="176"/>
-      <c r="E42" s="177"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="148"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="34"/>
       <c r="B43" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="175" t="s">
+      <c r="C43" s="146" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="176"/>
-      <c r="E43" s="177"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="148"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="34"/>
       <c r="B44" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="175" t="s">
+      <c r="C44" s="146" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="176"/>
-      <c r="E44" s="177"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="148"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="34"/>
       <c r="B45" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="175" t="s">
+      <c r="C45" s="146" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="176"/>
-      <c r="E45" s="177"/>
+      <c r="D45" s="147"/>
+      <c r="E45" s="148"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="34"/>
       <c r="B46" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="175" t="s">
+      <c r="C46" s="146" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="176"/>
-      <c r="E46" s="177"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="148"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="34"/>
       <c r="B47" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="175" t="s">
+      <c r="C47" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="176"/>
-      <c r="E47" s="177"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="148"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="34"/>
       <c r="B48" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="175" t="s">
+      <c r="C48" s="146" t="s">
         <v>81</v>
       </c>
-      <c r="D48" s="176"/>
-      <c r="E48" s="177"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="148"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="34"/>
       <c r="B49" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="175" t="s">
+      <c r="C49" s="146" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="176"/>
-      <c r="E49" s="177"/>
+      <c r="D49" s="147"/>
+      <c r="E49" s="148"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="55"/>
@@ -6234,23 +5693,23 @@
       <c r="M51" s="35"/>
     </row>
     <row r="52" spans="1:13" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="181" t="s">
+      <c r="B52" s="152" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="182"/>
-      <c r="D52" s="182"/>
-      <c r="E52" s="183"/>
+      <c r="C52" s="153"/>
+      <c r="D52" s="153"/>
+      <c r="E52" s="154"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="55"/>
       <c r="B53" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="184" t="s">
+      <c r="C53" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="185"/>
-      <c r="E53" s="186"/>
+      <c r="D53" s="156"/>
+      <c r="E53" s="157"/>
       <c r="F53" s="55"/>
       <c r="G53" s="55"/>
       <c r="H53" s="55"/>
@@ -6265,132 +5724,132 @@
       <c r="B54" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="C54" s="175" t="s">
+      <c r="C54" s="146" t="s">
         <v>76</v>
       </c>
-      <c r="D54" s="176"/>
-      <c r="E54" s="177"/>
+      <c r="D54" s="147"/>
+      <c r="E54" s="148"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="34"/>
       <c r="B55" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="175" t="s">
+      <c r="C55" s="146" t="s">
         <v>88</v>
       </c>
-      <c r="D55" s="176"/>
-      <c r="E55" s="177"/>
+      <c r="D55" s="147"/>
+      <c r="E55" s="148"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="34"/>
       <c r="B56" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="175" t="s">
+      <c r="C56" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="D56" s="176"/>
-      <c r="E56" s="177"/>
+      <c r="D56" s="147"/>
+      <c r="E56" s="148"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="34"/>
       <c r="B57" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="175" t="s">
+      <c r="C57" s="146" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="179"/>
-      <c r="E57" s="180"/>
+      <c r="D57" s="150"/>
+      <c r="E57" s="151"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="34"/>
       <c r="B58" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="175" t="s">
+      <c r="C58" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="D58" s="179"/>
-      <c r="E58" s="180"/>
+      <c r="D58" s="150"/>
+      <c r="E58" s="151"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="34"/>
       <c r="B59" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="C59" s="175" t="s">
+      <c r="C59" s="146" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="179"/>
-      <c r="E59" s="180"/>
+      <c r="D59" s="150"/>
+      <c r="E59" s="151"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="34"/>
       <c r="B60" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="175" t="s">
+      <c r="C60" s="146" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="179"/>
-      <c r="E60" s="180"/>
+      <c r="D60" s="150"/>
+      <c r="E60" s="151"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="34"/>
       <c r="B61" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="178" t="s">
+      <c r="C61" s="149" t="s">
         <v>92</v>
       </c>
-      <c r="D61" s="179"/>
-      <c r="E61" s="180"/>
+      <c r="D61" s="150"/>
+      <c r="E61" s="151"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="34"/>
       <c r="B62" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="175" t="s">
+      <c r="C62" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="179"/>
-      <c r="E62" s="180"/>
+      <c r="D62" s="150"/>
+      <c r="E62" s="151"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="34"/>
       <c r="B63" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="178" t="s">
+      <c r="C63" s="149" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="179"/>
-      <c r="E63" s="180"/>
+      <c r="D63" s="150"/>
+      <c r="E63" s="151"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="34"/>
       <c r="B64" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="178" t="s">
+      <c r="C64" s="149" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="179"/>
-      <c r="E64" s="180"/>
+      <c r="D64" s="150"/>
+      <c r="E64" s="151"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="34"/>
       <c r="B65" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="175" t="s">
+      <c r="C65" s="146" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="176"/>
-      <c r="E65" s="177"/>
+      <c r="D65" s="147"/>
+      <c r="E65" s="148"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="34"/>
@@ -6401,200 +5860,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="34"/>
-      <c r="B67" s="205"/>
-      <c r="C67" s="205"/>
-      <c r="D67" s="205"/>
-      <c r="E67" s="205"/>
+      <c r="B67" s="176"/>
+      <c r="C67" s="176"/>
+      <c r="D67" s="176"/>
+      <c r="E67" s="176"/>
       <c r="F67" s="54"/>
       <c r="G67" s="54"/>
       <c r="H67" s="54"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="34"/>
-      <c r="B68" s="204"/>
-      <c r="C68" s="204"/>
-      <c r="D68" s="204"/>
-      <c r="E68" s="204"/>
+      <c r="B68" s="175"/>
+      <c r="C68" s="175"/>
+      <c r="D68" s="175"/>
+      <c r="E68" s="175"/>
       <c r="F68" s="54"/>
       <c r="G68" s="54"/>
       <c r="H68" s="54"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="34"/>
-      <c r="B69" s="204"/>
-      <c r="C69" s="204"/>
-      <c r="D69" s="204"/>
-      <c r="E69" s="204"/>
+      <c r="B69" s="175"/>
+      <c r="C69" s="175"/>
+      <c r="D69" s="175"/>
+      <c r="E69" s="175"/>
       <c r="F69" s="54"/>
       <c r="G69" s="54"/>
       <c r="H69" s="54"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="34"/>
-      <c r="B70" s="204"/>
-      <c r="C70" s="204"/>
-      <c r="D70" s="204"/>
-      <c r="E70" s="204"/>
+      <c r="B70" s="175"/>
+      <c r="C70" s="175"/>
+      <c r="D70" s="175"/>
+      <c r="E70" s="175"/>
       <c r="F70" s="54"/>
       <c r="G70" s="54"/>
       <c r="H70" s="54"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="34"/>
-      <c r="B71" s="204"/>
-      <c r="C71" s="204"/>
-      <c r="D71" s="204"/>
-      <c r="E71" s="204"/>
+      <c r="B71" s="175"/>
+      <c r="C71" s="175"/>
+      <c r="D71" s="175"/>
+      <c r="E71" s="175"/>
       <c r="F71" s="54"/>
       <c r="G71" s="54"/>
       <c r="H71" s="54"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="34"/>
-      <c r="B72" s="204"/>
-      <c r="C72" s="204"/>
-      <c r="D72" s="204"/>
-      <c r="E72" s="204"/>
+      <c r="B72" s="175"/>
+      <c r="C72" s="175"/>
+      <c r="D72" s="175"/>
+      <c r="E72" s="175"/>
       <c r="F72" s="54"/>
       <c r="G72" s="54"/>
       <c r="H72" s="54"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="39"/>
-      <c r="B73" s="204"/>
-      <c r="C73" s="204"/>
-      <c r="D73" s="204"/>
-      <c r="E73" s="204"/>
+      <c r="B73" s="175"/>
+      <c r="C73" s="175"/>
+      <c r="D73" s="175"/>
+      <c r="E73" s="175"/>
       <c r="F73" s="54"/>
       <c r="G73" s="54"/>
       <c r="H73" s="54"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="34"/>
-      <c r="B74" s="204"/>
-      <c r="C74" s="204"/>
-      <c r="D74" s="204"/>
-      <c r="E74" s="204"/>
+      <c r="B74" s="175"/>
+      <c r="C74" s="175"/>
+      <c r="D74" s="175"/>
+      <c r="E74" s="175"/>
       <c r="F74" s="54"/>
       <c r="G74" s="54"/>
       <c r="H74" s="54"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="34"/>
-      <c r="B75" s="204"/>
-      <c r="C75" s="204"/>
-      <c r="D75" s="204"/>
-      <c r="E75" s="204"/>
+      <c r="B75" s="175"/>
+      <c r="C75" s="175"/>
+      <c r="D75" s="175"/>
+      <c r="E75" s="175"/>
       <c r="F75" s="54"/>
       <c r="G75" s="54"/>
       <c r="H75" s="54"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="34"/>
-      <c r="B76" s="204"/>
-      <c r="C76" s="204"/>
-      <c r="D76" s="204"/>
-      <c r="E76" s="204"/>
+      <c r="B76" s="175"/>
+      <c r="C76" s="175"/>
+      <c r="D76" s="175"/>
+      <c r="E76" s="175"/>
       <c r="F76" s="54"/>
       <c r="G76" s="54"/>
       <c r="H76" s="54"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="34"/>
-      <c r="B77" s="204"/>
-      <c r="C77" s="204"/>
-      <c r="D77" s="204"/>
-      <c r="E77" s="204"/>
+      <c r="B77" s="175"/>
+      <c r="C77" s="175"/>
+      <c r="D77" s="175"/>
+      <c r="E77" s="175"/>
       <c r="F77" s="54"/>
       <c r="G77" s="54"/>
       <c r="H77" s="54"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="34"/>
-      <c r="B78" s="204"/>
-      <c r="C78" s="204"/>
-      <c r="D78" s="204"/>
-      <c r="E78" s="204"/>
+      <c r="B78" s="175"/>
+      <c r="C78" s="175"/>
+      <c r="D78" s="175"/>
+      <c r="E78" s="175"/>
       <c r="F78" s="54"/>
       <c r="G78" s="54"/>
       <c r="H78" s="54"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="39"/>
-      <c r="B79" s="204"/>
-      <c r="C79" s="204"/>
-      <c r="D79" s="204"/>
-      <c r="E79" s="204"/>
+      <c r="B79" s="175"/>
+      <c r="C79" s="175"/>
+      <c r="D79" s="175"/>
+      <c r="E79" s="175"/>
       <c r="F79" s="54"/>
       <c r="G79" s="54"/>
       <c r="H79" s="54"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="39"/>
-      <c r="B80" s="204"/>
-      <c r="C80" s="204"/>
-      <c r="D80" s="204"/>
-      <c r="E80" s="204"/>
+      <c r="B80" s="175"/>
+      <c r="C80" s="175"/>
+      <c r="D80" s="175"/>
+      <c r="E80" s="175"/>
       <c r="F80" s="54"/>
       <c r="G80" s="54"/>
       <c r="H80" s="54"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="39"/>
-      <c r="B81" s="204"/>
-      <c r="C81" s="204"/>
-      <c r="D81" s="204"/>
-      <c r="E81" s="204"/>
+      <c r="B81" s="175"/>
+      <c r="C81" s="175"/>
+      <c r="D81" s="175"/>
+      <c r="E81" s="175"/>
       <c r="F81" s="54"/>
       <c r="G81" s="54"/>
       <c r="H81" s="54"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="39"/>
-      <c r="B82" s="204"/>
-      <c r="C82" s="204"/>
-      <c r="D82" s="204"/>
-      <c r="E82" s="204"/>
+      <c r="B82" s="175"/>
+      <c r="C82" s="175"/>
+      <c r="D82" s="175"/>
+      <c r="E82" s="175"/>
       <c r="F82" s="54"/>
       <c r="G82" s="54"/>
       <c r="H82" s="54"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="39"/>
-      <c r="B83" s="204"/>
-      <c r="C83" s="204"/>
-      <c r="D83" s="204"/>
-      <c r="E83" s="204"/>
+      <c r="B83" s="175"/>
+      <c r="C83" s="175"/>
+      <c r="D83" s="175"/>
+      <c r="E83" s="175"/>
       <c r="F83" s="54"/>
       <c r="G83" s="54"/>
       <c r="H83" s="54"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="39"/>
-      <c r="B84" s="204"/>
-      <c r="C84" s="204"/>
-      <c r="D84" s="204"/>
-      <c r="E84" s="204"/>
+      <c r="B84" s="175"/>
+      <c r="C84" s="175"/>
+      <c r="D84" s="175"/>
+      <c r="E84" s="175"/>
       <c r="F84" s="54"/>
       <c r="G84" s="54"/>
       <c r="H84" s="54"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="39"/>
-      <c r="B85" s="204"/>
-      <c r="C85" s="204"/>
-      <c r="D85" s="204"/>
-      <c r="E85" s="204"/>
+      <c r="B85" s="175"/>
+      <c r="C85" s="175"/>
+      <c r="D85" s="175"/>
+      <c r="E85" s="175"/>
       <c r="F85" s="54"/>
       <c r="G85" s="54"/>
       <c r="H85" s="54"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="39"/>
-      <c r="B86" s="204"/>
-      <c r="C86" s="204"/>
-      <c r="D86" s="204"/>
-      <c r="E86" s="204"/>
+      <c r="B86" s="175"/>
+      <c r="C86" s="175"/>
+      <c r="D86" s="175"/>
+      <c r="E86" s="175"/>
       <c r="F86" s="54"/>
       <c r="G86" s="54"/>
       <c r="H86" s="54"/>
@@ -6688,10 +6147,10 @@
   <sheetPr codeName="Hoja2">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A3:Y59"/>
+  <dimension ref="A3:Y44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6700,7 +6159,7 @@
     <col min="2" max="2" width="11.42578125" style="3"/>
     <col min="3" max="3" width="16.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="37.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" style="3" customWidth="1"/>
     <col min="6" max="7" width="16.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="11.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -6712,69 +6171,69 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:25" ht="18" customHeight="1">
-      <c r="B3" s="211" t="s">
+      <c r="B3" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="211"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="211"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="182"/>
+      <c r="N3" s="182"/>
     </row>
     <row r="4" spans="2:25" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="2:25" ht="15" customHeight="1"/>
     <row r="6" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="206" t="s">
+      <c r="B6" s="177" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="207"/>
-      <c r="D6" s="208" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6" s="209"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="212"/>
-      <c r="H6" s="212"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="179" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="180"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="183"/>
       <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="206" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="207"/>
-      <c r="D7" s="208" t="s">
-        <v>174</v>
-      </c>
-      <c r="E7" s="209"/>
-      <c r="F7" s="210"/>
+      <c r="B7" s="177" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="178"/>
+      <c r="D7" s="179" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="180"/>
+      <c r="F7" s="181"/>
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="206" t="s">
+      <c r="B8" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="207"/>
-      <c r="D8" s="208" t="s">
-        <v>178</v>
-      </c>
-      <c r="E8" s="209"/>
-      <c r="F8" s="210"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="179" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" s="180"/>
+      <c r="F8" s="181"/>
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="2:25" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B9" s="206" t="s">
+      <c r="B9" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="207"/>
+      <c r="C9" s="178"/>
       <c r="D9" s="88">
         <v>41360</v>
       </c>
@@ -6787,13 +6246,13 @@
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="206" t="s">
+      <c r="B10" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="207"/>
-      <c r="D10" s="208"/>
-      <c r="E10" s="209"/>
-      <c r="F10" s="210"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="181"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:25" s="17" customFormat="1" ht="15" customHeight="1">
@@ -6804,43 +6263,43 @@
       <c r="Y11" s="20"/>
     </row>
     <row r="12" spans="2:25" ht="38.25">
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="122" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="121" t="s">
+      <c r="D12" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="122" t="s">
+      <c r="E12" s="124" t="s">
         <v>154</v>
       </c>
-      <c r="F12" s="121" t="s">
+      <c r="F12" s="123" t="s">
         <v>151</v>
       </c>
-      <c r="G12" s="121" t="s">
+      <c r="G12" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="123" t="s">
+      <c r="H12" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="123" t="s">
+      <c r="I12" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="123" t="s">
+      <c r="J12" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="123" t="s">
+      <c r="K12" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="123" t="s">
+      <c r="L12" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="123" t="s">
+      <c r="M12" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="123" t="s">
+      <c r="N12" s="125" t="s">
         <v>144</v>
       </c>
     </row>
@@ -6848,1569 +6307,847 @@
       <c r="B13" s="71">
         <v>1</v>
       </c>
-      <c r="C13" s="136" t="s">
+      <c r="C13" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="D13" s="137" t="s">
-        <v>179</v>
-      </c>
-      <c r="E13" s="138" t="s">
-        <v>156</v>
-      </c>
-      <c r="F13" s="139" t="s">
-        <v>174</v>
-      </c>
-      <c r="G13" s="139" t="s">
-        <v>176</v>
-      </c>
-      <c r="H13" s="140">
+      <c r="D13" s="126" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="131" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="128" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" s="128" t="s">
+        <v>193</v>
+      </c>
+      <c r="H13" s="129">
         <v>41310</v>
       </c>
-      <c r="I13" s="140">
+      <c r="I13" s="129">
         <v>41313</v>
       </c>
-      <c r="J13" s="141">
+      <c r="J13" s="130">
         <v>5</v>
       </c>
-      <c r="K13" s="140">
+      <c r="K13" s="129">
         <v>41310</v>
       </c>
-      <c r="L13" s="142">
+      <c r="L13" s="134">
         <v>41383</v>
       </c>
-      <c r="M13" s="141">
+      <c r="M13" s="130">
         <v>5</v>
       </c>
-      <c r="N13" s="143" t="s">
-        <v>193</v>
+      <c r="N13" s="127" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="24">
       <c r="B14" s="71">
         <v>2</v>
       </c>
-      <c r="C14" s="136" t="s">
+      <c r="C14" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="137" t="s">
-        <v>179</v>
-      </c>
-      <c r="E14" s="144" t="s">
-        <v>189</v>
-      </c>
-      <c r="F14" s="139" t="s">
-        <v>174</v>
-      </c>
-      <c r="G14" s="139" t="s">
-        <v>176</v>
-      </c>
-      <c r="H14" s="140">
+      <c r="D14" s="126" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="132" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="128" t="s">
+        <v>191</v>
+      </c>
+      <c r="G14" s="128" t="s">
+        <v>193</v>
+      </c>
+      <c r="H14" s="129">
         <v>41313</v>
       </c>
-      <c r="I14" s="140">
+      <c r="I14" s="129">
         <v>41314</v>
       </c>
-      <c r="J14" s="141">
+      <c r="J14" s="130">
         <v>6</v>
       </c>
-      <c r="K14" s="140">
+      <c r="K14" s="129">
         <v>41313</v>
       </c>
-      <c r="L14" s="142">
+      <c r="L14" s="134">
         <v>41383</v>
       </c>
-      <c r="M14" s="141">
+      <c r="M14" s="130">
         <v>6</v>
       </c>
-      <c r="N14" s="143" t="s">
-        <v>194</v>
+      <c r="N14" s="127" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="24">
       <c r="B15" s="71">
         <v>3</v>
       </c>
-      <c r="C15" s="136" t="s">
+      <c r="C15" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="137" t="s">
-        <v>179</v>
-      </c>
-      <c r="E15" s="138" t="s">
-        <v>202</v>
-      </c>
-      <c r="F15" s="139" t="s">
-        <v>174</v>
-      </c>
-      <c r="G15" s="139" t="s">
-        <v>176</v>
-      </c>
-      <c r="H15" s="140">
-        <v>41310</v>
-      </c>
-      <c r="I15" s="140">
-        <v>41310</v>
-      </c>
-      <c r="J15" s="141">
+      <c r="D15" s="126" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" s="131" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="128" t="s">
+        <v>191</v>
+      </c>
+      <c r="G15" s="128" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15" s="129">
+        <v>41314</v>
+      </c>
+      <c r="I15" s="129">
+        <v>41314</v>
+      </c>
+      <c r="J15" s="130">
         <v>2</v>
       </c>
-      <c r="K15" s="140">
-        <v>41310</v>
-      </c>
-      <c r="L15" s="140">
-        <v>41310</v>
-      </c>
-      <c r="M15" s="141">
+      <c r="K15" s="129">
+        <v>41314</v>
+      </c>
+      <c r="L15" s="129">
+        <v>41314</v>
+      </c>
+      <c r="M15" s="130">
         <v>2</v>
       </c>
-      <c r="N15" s="143"/>
+      <c r="N15" s="127"/>
     </row>
     <row r="16" spans="2:25" ht="24">
       <c r="B16" s="71">
         <v>4</v>
       </c>
-      <c r="C16" s="136" t="s">
+      <c r="C16" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="137" t="s">
-        <v>179</v>
-      </c>
-      <c r="E16" s="138" t="s">
-        <v>202</v>
-      </c>
-      <c r="F16" s="139" t="s">
+      <c r="D16" s="126" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" s="131" t="s">
         <v>174</v>
       </c>
-      <c r="G16" s="139" t="s">
-        <v>176</v>
-      </c>
-      <c r="H16" s="140">
-        <v>41331</v>
-      </c>
-      <c r="I16" s="140">
-        <v>41331</v>
-      </c>
-      <c r="J16" s="141">
-        <v>2</v>
-      </c>
-      <c r="K16" s="140">
-        <v>41310</v>
-      </c>
-      <c r="L16" s="140">
-        <v>41310</v>
-      </c>
-      <c r="M16" s="141">
-        <v>2</v>
-      </c>
-      <c r="N16" s="143"/>
-    </row>
-    <row r="17" spans="2:14" ht="30.75" customHeight="1">
+      <c r="F16" s="128" t="s">
+        <v>191</v>
+      </c>
+      <c r="G16" s="128" t="s">
+        <v>193</v>
+      </c>
+      <c r="H16" s="129">
+        <v>41316</v>
+      </c>
+      <c r="I16" s="129">
+        <v>41319</v>
+      </c>
+      <c r="J16" s="130">
+        <v>3</v>
+      </c>
+      <c r="K16" s="129">
+        <v>41316</v>
+      </c>
+      <c r="L16" s="129">
+        <v>41321</v>
+      </c>
+      <c r="M16" s="130">
+        <v>3</v>
+      </c>
+      <c r="N16" s="127" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="24">
       <c r="B17" s="71">
         <v>5</v>
       </c>
-      <c r="C17" s="136" t="s">
+      <c r="C17" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="137" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="152" t="s">
-        <v>203</v>
-      </c>
-      <c r="F17" s="139" t="s">
-        <v>174</v>
-      </c>
-      <c r="G17" s="139" t="s">
-        <v>176</v>
-      </c>
-      <c r="H17" s="140">
-        <v>41310</v>
-      </c>
-      <c r="I17" s="140">
-        <v>41310</v>
-      </c>
-      <c r="J17" s="141">
+      <c r="D17" s="126" t="s">
+        <v>198</v>
+      </c>
+      <c r="E17" s="132" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" s="128" t="s">
+        <v>191</v>
+      </c>
+      <c r="G17" s="128" t="s">
+        <v>193</v>
+      </c>
+      <c r="H17" s="129">
+        <v>41338</v>
+      </c>
+      <c r="I17" s="129">
+        <v>41338</v>
+      </c>
+      <c r="J17" s="130">
         <v>2</v>
       </c>
-      <c r="K17" s="140">
-        <v>41310</v>
-      </c>
-      <c r="L17" s="140">
-        <v>41310</v>
-      </c>
-      <c r="M17" s="141">
+      <c r="K17" s="129">
+        <v>41338</v>
+      </c>
+      <c r="L17" s="129">
+        <v>41338</v>
+      </c>
+      <c r="M17" s="130">
         <v>2</v>
       </c>
-      <c r="N17" s="143"/>
-    </row>
-    <row r="18" spans="2:14" ht="24">
+      <c r="N17" s="127"/>
+    </row>
+    <row r="18" spans="1:14" ht="24">
       <c r="B18" s="71">
         <v>6</v>
       </c>
-      <c r="C18" s="136" t="s">
+      <c r="C18" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="137" t="s">
-        <v>201</v>
-      </c>
-      <c r="E18" s="138" t="s">
-        <v>157</v>
-      </c>
-      <c r="F18" s="139" t="s">
-        <v>174</v>
-      </c>
-      <c r="G18" s="139" t="s">
-        <v>176</v>
-      </c>
-      <c r="H18" s="140">
-        <v>41314</v>
-      </c>
-      <c r="I18" s="140">
-        <v>41314</v>
-      </c>
-      <c r="J18" s="141">
+      <c r="D18" s="126" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" s="131" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="128" t="s">
+        <v>191</v>
+      </c>
+      <c r="G18" s="128" t="s">
+        <v>193</v>
+      </c>
+      <c r="H18" s="129">
+        <v>41339</v>
+      </c>
+      <c r="I18" s="129">
+        <v>41342</v>
+      </c>
+      <c r="J18" s="130">
         <v>3</v>
       </c>
-      <c r="K18" s="140">
-        <v>41314</v>
-      </c>
-      <c r="L18" s="140">
-        <v>41314</v>
-      </c>
-      <c r="M18" s="141">
+      <c r="K18" s="129">
+        <v>41339</v>
+      </c>
+      <c r="L18" s="129">
+        <v>41342</v>
+      </c>
+      <c r="M18" s="130">
         <v>3</v>
       </c>
-      <c r="N18" s="143"/>
-    </row>
-    <row r="19" spans="2:14" ht="24">
+      <c r="N18" s="127"/>
+    </row>
+    <row r="19" spans="1:14" ht="24">
       <c r="B19" s="71">
         <v>7</v>
       </c>
-      <c r="C19" s="136" t="s">
+      <c r="C19" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="137" t="s">
-        <v>183</v>
-      </c>
-      <c r="E19" s="144" t="s">
-        <v>158</v>
-      </c>
-      <c r="F19" s="139" t="s">
-        <v>174</v>
-      </c>
-      <c r="G19" s="139" t="s">
-        <v>176</v>
-      </c>
-      <c r="H19" s="140">
-        <v>41338</v>
-      </c>
-      <c r="I19" s="140">
-        <v>41338</v>
-      </c>
-      <c r="J19" s="141">
-        <v>2</v>
-      </c>
-      <c r="K19" s="140">
-        <v>41338</v>
-      </c>
-      <c r="L19" s="140">
-        <v>41338</v>
-      </c>
-      <c r="M19" s="141">
-        <v>2</v>
-      </c>
-      <c r="N19" s="143"/>
-    </row>
-    <row r="20" spans="2:14" ht="24">
+      <c r="D19" s="126" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19" s="133" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" s="128" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" s="128" t="s">
+        <v>193</v>
+      </c>
+      <c r="H19" s="129">
+        <v>41344</v>
+      </c>
+      <c r="I19" s="129">
+        <v>41344</v>
+      </c>
+      <c r="J19" s="130">
+        <v>3</v>
+      </c>
+      <c r="K19" s="129">
+        <v>41344</v>
+      </c>
+      <c r="L19" s="129">
+        <v>41344</v>
+      </c>
+      <c r="M19" s="130">
+        <v>3</v>
+      </c>
+      <c r="N19" s="127"/>
+    </row>
+    <row r="20" spans="1:14" ht="24">
       <c r="B20" s="71">
         <v>8</v>
       </c>
-      <c r="C20" s="136" t="s">
+      <c r="C20" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="D20" s="137" t="s">
-        <v>183</v>
-      </c>
-      <c r="E20" s="144" t="s">
-        <v>204</v>
-      </c>
-      <c r="F20" s="139" t="s">
-        <v>174</v>
-      </c>
-      <c r="G20" s="139" t="s">
-        <v>176</v>
-      </c>
-      <c r="H20" s="140">
-        <v>41338</v>
-      </c>
-      <c r="I20" s="140">
-        <v>41338</v>
-      </c>
-      <c r="J20" s="141">
+      <c r="D20" s="126" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20" s="131" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="128" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" s="128" t="s">
+        <v>193</v>
+      </c>
+      <c r="H20" s="129">
+        <v>41347</v>
+      </c>
+      <c r="I20" s="129">
+        <v>41347</v>
+      </c>
+      <c r="J20" s="130">
         <v>2</v>
       </c>
-      <c r="K20" s="140">
-        <v>41338</v>
-      </c>
-      <c r="L20" s="140">
-        <v>41338</v>
-      </c>
-      <c r="M20" s="141">
+      <c r="K20" s="129">
+        <v>41347</v>
+      </c>
+      <c r="L20" s="129">
+        <v>41347</v>
+      </c>
+      <c r="M20" s="130">
         <v>2</v>
       </c>
-      <c r="N20" s="143"/>
-    </row>
-    <row r="21" spans="2:14" ht="24">
+      <c r="N20" s="127"/>
+    </row>
+    <row r="21" spans="1:14" ht="36">
       <c r="B21" s="71">
         <v>9</v>
       </c>
-      <c r="C21" s="136" t="s">
+      <c r="C21" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="D21" s="137" t="s">
-        <v>180</v>
-      </c>
-      <c r="E21" s="144" t="s">
-        <v>161</v>
-      </c>
-      <c r="F21" s="139" t="s">
-        <v>174</v>
-      </c>
-      <c r="G21" s="139" t="s">
+      <c r="D21" s="126" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" s="131" t="s">
         <v>176</v>
       </c>
-      <c r="H21" s="140">
-        <v>41338</v>
-      </c>
-      <c r="I21" s="140">
-        <v>41338</v>
-      </c>
-      <c r="J21" s="141">
-        <v>2</v>
-      </c>
-      <c r="K21" s="140">
-        <v>41338</v>
-      </c>
-      <c r="L21" s="140">
-        <v>41338</v>
-      </c>
-      <c r="M21" s="141">
-        <v>2</v>
-      </c>
-      <c r="N21" s="143"/>
-    </row>
-    <row r="22" spans="2:14" ht="24">
+      <c r="F21" s="128" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" s="128" t="s">
+        <v>193</v>
+      </c>
+      <c r="H21" s="129">
+        <v>41351</v>
+      </c>
+      <c r="I21" s="129">
+        <v>41356</v>
+      </c>
+      <c r="J21" s="130">
+        <v>6</v>
+      </c>
+      <c r="K21" s="129">
+        <v>41351</v>
+      </c>
+      <c r="L21" s="129">
+        <v>41356</v>
+      </c>
+      <c r="M21" s="130">
+        <v>5</v>
+      </c>
+      <c r="N21" s="127" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="24">
       <c r="B22" s="71">
         <v>10</v>
       </c>
-      <c r="C22" s="145" t="s">
+      <c r="C22" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="146" t="s">
-        <v>181</v>
-      </c>
-      <c r="E22" s="147" t="s">
-        <v>190</v>
-      </c>
-      <c r="F22" s="148" t="s">
-        <v>174</v>
-      </c>
-      <c r="G22" s="148" t="s">
-        <v>176</v>
-      </c>
-      <c r="H22" s="149">
-        <v>41339</v>
-      </c>
-      <c r="I22" s="149">
-        <v>41342</v>
-      </c>
-      <c r="J22" s="150">
-        <v>3</v>
-      </c>
-      <c r="K22" s="149">
-        <v>41339</v>
-      </c>
-      <c r="L22" s="149">
-        <v>41342</v>
-      </c>
-      <c r="M22" s="150">
-        <v>3</v>
-      </c>
-      <c r="N22" s="151"/>
-    </row>
-    <row r="23" spans="2:14" ht="24">
+      <c r="D22" s="126" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" s="131" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" s="128" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" s="128" t="s">
+        <v>193</v>
+      </c>
+      <c r="H22" s="129">
+        <v>41359</v>
+      </c>
+      <c r="I22" s="129">
+        <v>41359</v>
+      </c>
+      <c r="J22" s="130">
+        <v>2</v>
+      </c>
+      <c r="K22" s="129">
+        <v>41359</v>
+      </c>
+      <c r="L22" s="129">
+        <v>41359</v>
+      </c>
+      <c r="M22" s="130">
+        <v>2</v>
+      </c>
+      <c r="N22" s="127"/>
+    </row>
+    <row r="23" spans="1:14" ht="24">
       <c r="B23" s="71">
         <v>11</v>
       </c>
-      <c r="C23" s="145" t="s">
+      <c r="C23" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="D23" s="146" t="s">
-        <v>181</v>
-      </c>
-      <c r="E23" s="153" t="s">
+      <c r="D23" s="126" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23" s="131" t="s">
+        <v>210</v>
+      </c>
+      <c r="F23" s="128" t="s">
         <v>191</v>
       </c>
-      <c r="F23" s="148" t="s">
-        <v>174</v>
-      </c>
-      <c r="G23" s="148" t="s">
-        <v>176</v>
-      </c>
-      <c r="H23" s="149">
-        <v>41344</v>
-      </c>
-      <c r="I23" s="149">
-        <v>41344</v>
-      </c>
-      <c r="J23" s="150">
-        <v>3</v>
-      </c>
-      <c r="K23" s="149">
-        <v>41344</v>
-      </c>
-      <c r="L23" s="149">
-        <v>41344</v>
-      </c>
-      <c r="M23" s="150">
-        <v>3</v>
-      </c>
-      <c r="N23" s="151"/>
-    </row>
-    <row r="24" spans="2:14" ht="24">
+      <c r="G23" s="128" t="s">
+        <v>193</v>
+      </c>
+      <c r="H23" s="129">
+        <v>41366</v>
+      </c>
+      <c r="I23" s="129">
+        <v>41366</v>
+      </c>
+      <c r="J23" s="130">
+        <v>5</v>
+      </c>
+      <c r="K23" s="129">
+        <v>41366</v>
+      </c>
+      <c r="L23" s="129">
+        <v>41366</v>
+      </c>
+      <c r="M23" s="130">
+        <v>5</v>
+      </c>
+      <c r="N23" s="127"/>
+    </row>
+    <row r="24" spans="1:14" ht="24">
       <c r="B24" s="71">
         <v>12</v>
       </c>
-      <c r="C24" s="145" t="s">
+      <c r="C24" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="D24" s="146" t="s">
-        <v>181</v>
-      </c>
-      <c r="E24" s="153" t="s">
+      <c r="D24" s="126" t="s">
+        <v>204</v>
+      </c>
+      <c r="E24" s="131" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" s="128" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" s="128" t="s">
+        <v>193</v>
+      </c>
+      <c r="H24" s="129">
+        <v>41368</v>
+      </c>
+      <c r="I24" s="129">
+        <v>41369</v>
+      </c>
+      <c r="J24" s="130">
+        <v>5</v>
+      </c>
+      <c r="K24" s="129">
+        <v>41368</v>
+      </c>
+      <c r="L24" s="129">
+        <v>41369</v>
+      </c>
+      <c r="M24" s="130">
+        <v>5</v>
+      </c>
+      <c r="N24" s="127"/>
+    </row>
+    <row r="25" spans="1:14" ht="24">
+      <c r="B25" s="71">
+        <v>17</v>
+      </c>
+      <c r="C25" s="121" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="126" t="s">
         <v>205</v>
       </c>
-      <c r="F24" s="148" t="s">
-        <v>174</v>
-      </c>
-      <c r="G24" s="148" t="s">
-        <v>176</v>
-      </c>
-      <c r="H24" s="149">
-        <v>41344</v>
-      </c>
-      <c r="I24" s="149">
-        <v>41344</v>
-      </c>
-      <c r="J24" s="150">
-        <v>3</v>
-      </c>
-      <c r="K24" s="149">
-        <v>41344</v>
-      </c>
-      <c r="L24" s="149">
-        <v>41344</v>
-      </c>
-      <c r="M24" s="150">
-        <v>3</v>
-      </c>
-      <c r="N24" s="151"/>
-    </row>
-    <row r="25" spans="2:14" ht="24">
-      <c r="B25" s="71">
-        <v>13</v>
-      </c>
-      <c r="C25" s="145" t="s">
+      <c r="E25" s="131" t="s">
+        <v>214</v>
+      </c>
+      <c r="F25" s="128" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" s="128" t="s">
+        <v>193</v>
+      </c>
+      <c r="H25" s="129">
+        <v>41369</v>
+      </c>
+      <c r="I25" s="129">
+        <v>41373</v>
+      </c>
+      <c r="J25" s="130">
+        <v>4</v>
+      </c>
+      <c r="K25" s="129">
+        <v>41369</v>
+      </c>
+      <c r="L25" s="129">
+        <v>41373</v>
+      </c>
+      <c r="M25" s="130">
+        <v>4</v>
+      </c>
+      <c r="N25" s="127"/>
+    </row>
+    <row r="26" spans="1:14" ht="24">
+      <c r="B26" s="71">
+        <v>18</v>
+      </c>
+      <c r="C26" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="D25" s="146" t="s">
-        <v>181</v>
-      </c>
-      <c r="E25" s="153" t="s">
+      <c r="D26" s="126" t="s">
         <v>206</v>
       </c>
-      <c r="F25" s="148" t="s">
-        <v>174</v>
-      </c>
-      <c r="G25" s="148" t="s">
-        <v>176</v>
-      </c>
-      <c r="H25" s="149">
-        <v>41344</v>
-      </c>
-      <c r="I25" s="149">
-        <v>41344</v>
-      </c>
-      <c r="J25" s="150">
-        <v>3</v>
-      </c>
-      <c r="K25" s="149">
-        <v>41344</v>
-      </c>
-      <c r="L25" s="149">
-        <v>41344</v>
-      </c>
-      <c r="M25" s="150">
-        <v>3</v>
-      </c>
-      <c r="N25" s="151"/>
-    </row>
-    <row r="26" spans="2:14" ht="24">
-      <c r="B26" s="71">
-        <v>14</v>
-      </c>
-      <c r="C26" s="145" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" s="146" t="s">
-        <v>181</v>
-      </c>
-      <c r="E26" s="153" t="s">
-        <v>207</v>
-      </c>
-      <c r="F26" s="148" t="s">
-        <v>174</v>
-      </c>
-      <c r="G26" s="148" t="s">
-        <v>176</v>
-      </c>
-      <c r="H26" s="149">
-        <v>41344</v>
-      </c>
-      <c r="I26" s="149">
-        <v>41344</v>
-      </c>
-      <c r="J26" s="150">
-        <v>3</v>
-      </c>
-      <c r="K26" s="149">
-        <v>41344</v>
-      </c>
-      <c r="L26" s="149">
-        <v>41344</v>
-      </c>
-      <c r="M26" s="150">
-        <v>3</v>
-      </c>
-      <c r="N26" s="151"/>
-    </row>
-    <row r="27" spans="2:14" ht="24">
-      <c r="B27" s="71">
-        <v>15</v>
-      </c>
-      <c r="C27" s="145" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="146" t="s">
-        <v>181</v>
-      </c>
-      <c r="E27" s="153" t="s">
-        <v>202</v>
-      </c>
-      <c r="F27" s="148" t="s">
-        <v>174</v>
-      </c>
-      <c r="G27" s="148" t="s">
-        <v>176</v>
-      </c>
-      <c r="H27" s="149">
-        <v>41344</v>
-      </c>
-      <c r="I27" s="149">
-        <v>41344</v>
-      </c>
-      <c r="J27" s="150">
-        <v>3</v>
-      </c>
-      <c r="K27" s="149">
-        <v>41344</v>
-      </c>
-      <c r="L27" s="149">
-        <v>41344</v>
-      </c>
-      <c r="M27" s="150">
-        <v>3</v>
-      </c>
-      <c r="N27" s="151"/>
-    </row>
-    <row r="28" spans="2:14" ht="24">
-      <c r="B28" s="71">
+      <c r="E26" s="131" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="128" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" s="128" t="s">
+        <v>193</v>
+      </c>
+      <c r="H26" s="129">
+        <v>41375</v>
+      </c>
+      <c r="I26" s="129">
+        <v>41375</v>
+      </c>
+      <c r="J26" s="130">
+        <v>2</v>
+      </c>
+      <c r="K26" s="129">
+        <v>41375</v>
+      </c>
+      <c r="L26" s="129">
+        <v>41375</v>
+      </c>
+      <c r="M26" s="130">
+        <v>2</v>
+      </c>
+      <c r="N26" s="127"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="B27" s="33">
+        <v>19</v>
+      </c>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="85"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="B28" s="33">
+        <v>20</v>
+      </c>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="B29" s="33">
+        <v>21</v>
+      </c>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="85"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="8"/>
+      <c r="B30" s="33">
+        <v>33</v>
+      </c>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="85"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="8"/>
+      <c r="B31" s="33">
+        <v>34</v>
+      </c>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="85"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="B32" s="33">
+        <v>22</v>
+      </c>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="85"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="B33" s="33">
+        <v>23</v>
+      </c>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="85"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="B34" s="33">
+        <v>24</v>
+      </c>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="85"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="B35" s="33">
+        <v>25</v>
+      </c>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="B36" s="33">
+        <v>26</v>
+      </c>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="84"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="85"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="B37" s="33">
+        <v>27</v>
+      </c>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="84"/>
+      <c r="M37" s="85"/>
+      <c r="N37" s="85"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="B38" s="33">
+        <v>28</v>
+      </c>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="84"/>
+      <c r="L38" s="84"/>
+      <c r="M38" s="85"/>
+      <c r="N38" s="85"/>
+    </row>
+    <row r="39" spans="1:14" ht="12.75" customHeight="1">
+      <c r="B39" s="33">
+        <v>29</v>
+      </c>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="84"/>
+      <c r="L39" s="84"/>
+      <c r="M39" s="85"/>
+      <c r="N39" s="85"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="8"/>
+      <c r="B40" s="33">
+        <v>30</v>
+      </c>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="110"/>
+      <c r="K40" s="84"/>
+      <c r="L40" s="84"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="85"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="8"/>
+      <c r="B41" s="33">
+        <v>31</v>
+      </c>
+      <c r="E41" s="83"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="110"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="84"/>
+      <c r="M41" s="85"/>
+      <c r="N41" s="85"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="8"/>
+      <c r="B42" s="33">
+        <v>32</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="110"/>
+      <c r="K42" s="84"/>
+      <c r="L42" s="84"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="85"/>
+    </row>
+    <row r="43" spans="1:14" ht="12.75" customHeight="1">
+      <c r="B43" s="6"/>
+      <c r="J43" s="86">
+        <f>SUM(J13:J42)</f>
+        <v>50</v>
+      </c>
+      <c r="L43" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="145" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="146" t="s">
-        <v>181</v>
-      </c>
-      <c r="E28" s="153" t="s">
-        <v>202</v>
-      </c>
-      <c r="F28" s="148" t="s">
-        <v>174</v>
-      </c>
-      <c r="G28" s="148" t="s">
-        <v>176</v>
-      </c>
-      <c r="H28" s="149">
-        <v>41344</v>
-      </c>
-      <c r="I28" s="149">
-        <v>41344</v>
-      </c>
-      <c r="J28" s="150">
-        <v>3</v>
-      </c>
-      <c r="K28" s="149">
-        <v>41344</v>
-      </c>
-      <c r="L28" s="149">
-        <v>41344</v>
-      </c>
-      <c r="M28" s="150">
-        <v>3</v>
-      </c>
-      <c r="N28" s="151"/>
-    </row>
-    <row r="29" spans="2:14" ht="24">
-      <c r="B29" s="71">
-        <v>17</v>
-      </c>
-      <c r="C29" s="145" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="146" t="s">
-        <v>182</v>
-      </c>
-      <c r="E29" s="147" t="s">
-        <v>159</v>
-      </c>
-      <c r="F29" s="148" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="148" t="s">
-        <v>176</v>
-      </c>
-      <c r="H29" s="149">
-        <v>41347</v>
-      </c>
-      <c r="I29" s="149">
-        <v>41347</v>
-      </c>
-      <c r="J29" s="150">
-        <v>2</v>
-      </c>
-      <c r="K29" s="149">
-        <v>41347</v>
-      </c>
-      <c r="L29" s="149">
-        <v>41347</v>
-      </c>
-      <c r="M29" s="150">
-        <v>2</v>
-      </c>
-      <c r="N29" s="151"/>
-    </row>
-    <row r="30" spans="2:14" ht="27" customHeight="1">
-      <c r="B30" s="71">
-        <v>18</v>
-      </c>
-      <c r="C30" s="145" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="146" t="s">
-        <v>183</v>
-      </c>
-      <c r="E30" s="147" t="s">
-        <v>160</v>
-      </c>
-      <c r="F30" s="148" t="s">
-        <v>174</v>
-      </c>
-      <c r="G30" s="148" t="s">
-        <v>176</v>
-      </c>
-      <c r="H30" s="149">
-        <v>41351</v>
-      </c>
-      <c r="I30" s="149">
-        <v>41356</v>
-      </c>
-      <c r="J30" s="150">
-        <v>6</v>
-      </c>
-      <c r="K30" s="149">
-        <v>41351</v>
-      </c>
-      <c r="L30" s="149">
-        <v>41356</v>
-      </c>
-      <c r="M30" s="150">
-        <v>5</v>
-      </c>
-      <c r="N30" s="151" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" ht="24">
-      <c r="B31" s="71">
-        <v>19</v>
-      </c>
-      <c r="C31" s="145" t="s">
-        <v>150</v>
-      </c>
-      <c r="D31" s="146" t="s">
-        <v>184</v>
-      </c>
-      <c r="E31" s="147" t="s">
-        <v>161</v>
-      </c>
-      <c r="F31" s="148" t="s">
-        <v>174</v>
-      </c>
-      <c r="G31" s="148" t="s">
-        <v>176</v>
-      </c>
-      <c r="H31" s="149">
-        <v>41359</v>
-      </c>
-      <c r="I31" s="149">
-        <v>41359</v>
-      </c>
-      <c r="J31" s="150">
-        <v>2</v>
-      </c>
-      <c r="K31" s="149">
-        <v>41359</v>
-      </c>
-      <c r="L31" s="149">
-        <v>41359</v>
-      </c>
-      <c r="M31" s="150">
-        <v>2</v>
-      </c>
-      <c r="N31" s="151"/>
-    </row>
-    <row r="32" spans="2:14" ht="24">
-      <c r="B32" s="71">
-        <v>20</v>
-      </c>
-      <c r="C32" s="154" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" s="155" t="s">
-        <v>185</v>
-      </c>
-      <c r="E32" s="156" t="s">
-        <v>224</v>
-      </c>
-      <c r="F32" s="157" t="s">
-        <v>174</v>
-      </c>
-      <c r="G32" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="H32" s="158"/>
-      <c r="I32" s="158"/>
-      <c r="J32" s="159">
-        <v>5</v>
-      </c>
-      <c r="K32" s="158"/>
-      <c r="L32" s="158"/>
-      <c r="M32" s="159">
-        <v>5</v>
-      </c>
-      <c r="N32" s="160"/>
-    </row>
-    <row r="33" spans="1:14" ht="24">
-      <c r="B33" s="71">
-        <v>21</v>
-      </c>
-      <c r="C33" s="154" t="s">
-        <v>150</v>
-      </c>
-      <c r="D33" s="155" t="s">
-        <v>185</v>
-      </c>
-      <c r="E33" s="156" t="s">
-        <v>225</v>
-      </c>
-      <c r="F33" s="157" t="s">
-        <v>174</v>
-      </c>
-      <c r="G33" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="159">
-        <v>5</v>
-      </c>
-      <c r="K33" s="158"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="159">
-        <v>5</v>
-      </c>
-      <c r="N33" s="160"/>
-    </row>
-    <row r="34" spans="1:14" ht="24">
-      <c r="B34" s="71">
-        <v>22</v>
-      </c>
-      <c r="C34" s="154" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" s="155" t="s">
-        <v>185</v>
-      </c>
-      <c r="E34" s="156" t="s">
-        <v>226</v>
-      </c>
-      <c r="F34" s="157" t="s">
-        <v>174</v>
-      </c>
-      <c r="G34" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="H34" s="158"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="159">
-        <v>5</v>
-      </c>
-      <c r="K34" s="158"/>
-      <c r="L34" s="158"/>
-      <c r="M34" s="159">
-        <v>5</v>
-      </c>
-      <c r="N34" s="160"/>
-    </row>
-    <row r="35" spans="1:14" ht="24">
-      <c r="B35" s="71">
-        <v>23</v>
-      </c>
-      <c r="C35" s="154" t="s">
-        <v>150</v>
-      </c>
-      <c r="D35" s="155" t="s">
-        <v>185</v>
-      </c>
-      <c r="E35" s="156" t="s">
-        <v>192</v>
-      </c>
-      <c r="F35" s="157" t="s">
-        <v>174</v>
-      </c>
-      <c r="G35" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="H35" s="158">
-        <v>41366</v>
-      </c>
-      <c r="I35" s="158">
-        <v>41366</v>
-      </c>
-      <c r="J35" s="159">
-        <v>5</v>
-      </c>
-      <c r="K35" s="158">
-        <v>41366</v>
-      </c>
-      <c r="L35" s="158">
-        <v>41366</v>
-      </c>
-      <c r="M35" s="159">
-        <v>5</v>
-      </c>
-      <c r="N35" s="160"/>
-    </row>
-    <row r="36" spans="1:14" ht="24">
-      <c r="B36" s="71">
-        <v>24</v>
-      </c>
-      <c r="C36" s="154" t="s">
-        <v>150</v>
-      </c>
-      <c r="D36" s="155" t="s">
-        <v>185</v>
-      </c>
-      <c r="E36" s="161" t="s">
-        <v>227</v>
-      </c>
-      <c r="F36" s="157" t="s">
-        <v>174</v>
-      </c>
-      <c r="G36" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="H36" s="158"/>
-      <c r="I36" s="158"/>
-      <c r="J36" s="159">
-        <v>5</v>
-      </c>
-      <c r="K36" s="158"/>
-      <c r="L36" s="158"/>
-      <c r="M36" s="159">
-        <v>5</v>
-      </c>
-      <c r="N36" s="160"/>
-    </row>
-    <row r="37" spans="1:14" ht="24">
-      <c r="B37" s="71">
-        <v>25</v>
-      </c>
-      <c r="C37" s="154" t="s">
-        <v>150</v>
-      </c>
-      <c r="D37" s="155" t="s">
-        <v>185</v>
-      </c>
-      <c r="E37" s="156" t="s">
-        <v>202</v>
-      </c>
-      <c r="F37" s="157" t="s">
-        <v>174</v>
-      </c>
-      <c r="G37" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="H37" s="158"/>
-      <c r="I37" s="158"/>
-      <c r="J37" s="159">
-        <v>5</v>
-      </c>
-      <c r="K37" s="158"/>
-      <c r="L37" s="158"/>
-      <c r="M37" s="159">
-        <v>5</v>
-      </c>
-      <c r="N37" s="160"/>
-    </row>
-    <row r="38" spans="1:14" ht="24">
-      <c r="B38" s="71">
-        <v>26</v>
-      </c>
-      <c r="C38" s="154" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" s="155" t="s">
-        <v>185</v>
-      </c>
-      <c r="E38" s="156" t="s">
-        <v>202</v>
-      </c>
-      <c r="F38" s="157" t="s">
-        <v>174</v>
-      </c>
-      <c r="G38" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="H38" s="158"/>
-      <c r="I38" s="158"/>
-      <c r="J38" s="159">
-        <v>5</v>
-      </c>
-      <c r="K38" s="158"/>
-      <c r="L38" s="158"/>
-      <c r="M38" s="159">
-        <v>5</v>
-      </c>
-      <c r="N38" s="160"/>
-    </row>
-    <row r="39" spans="1:14" ht="24">
-      <c r="B39" s="71">
-        <v>27</v>
-      </c>
-      <c r="C39" s="154" t="s">
-        <v>150</v>
-      </c>
-      <c r="D39" s="155" t="s">
-        <v>186</v>
-      </c>
-      <c r="E39" s="156" t="s">
-        <v>159</v>
-      </c>
-      <c r="F39" s="157" t="s">
-        <v>174</v>
-      </c>
-      <c r="G39" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="H39" s="158"/>
-      <c r="I39" s="158"/>
-      <c r="J39" s="159">
-        <v>5</v>
-      </c>
-      <c r="K39" s="158"/>
-      <c r="L39" s="158"/>
-      <c r="M39" s="159">
-        <v>5</v>
-      </c>
-      <c r="N39" s="160"/>
-    </row>
-    <row r="40" spans="1:14" ht="24">
-      <c r="B40" s="71">
-        <v>28</v>
-      </c>
-      <c r="C40" s="154" t="s">
-        <v>150</v>
-      </c>
-      <c r="D40" s="155" t="s">
-        <v>186</v>
-      </c>
-      <c r="E40" s="156" t="s">
-        <v>162</v>
-      </c>
-      <c r="F40" s="157" t="s">
-        <v>174</v>
-      </c>
-      <c r="G40" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="H40" s="158"/>
-      <c r="I40" s="158"/>
-      <c r="J40" s="159">
-        <v>5</v>
-      </c>
-      <c r="K40" s="158"/>
-      <c r="L40" s="158"/>
-      <c r="M40" s="159">
-        <v>5</v>
-      </c>
-      <c r="N40" s="160"/>
-    </row>
-    <row r="41" spans="1:14" ht="24">
-      <c r="B41" s="71">
-        <v>29</v>
-      </c>
-      <c r="C41" s="154" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" s="155" t="s">
-        <v>187</v>
-      </c>
-      <c r="E41" s="156" t="s">
-        <v>228</v>
-      </c>
-      <c r="F41" s="157" t="s">
-        <v>174</v>
-      </c>
-      <c r="G41" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="H41" s="158"/>
-      <c r="I41" s="158"/>
-      <c r="J41" s="159">
-        <v>4</v>
-      </c>
-      <c r="K41" s="158"/>
-      <c r="L41" s="158"/>
-      <c r="M41" s="159">
-        <v>4</v>
-      </c>
-      <c r="N41" s="160"/>
-    </row>
-    <row r="42" spans="1:14" ht="24">
-      <c r="B42" s="71">
-        <v>30</v>
-      </c>
-      <c r="C42" s="154" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" s="155" t="s">
-        <v>187</v>
-      </c>
-      <c r="E42" s="156" t="s">
-        <v>195</v>
-      </c>
-      <c r="F42" s="157" t="s">
-        <v>174</v>
-      </c>
-      <c r="G42" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="H42" s="158"/>
-      <c r="I42" s="158"/>
-      <c r="J42" s="159">
-        <v>4</v>
-      </c>
-      <c r="K42" s="158"/>
-      <c r="L42" s="158"/>
-      <c r="M42" s="159">
-        <v>4</v>
-      </c>
-      <c r="N42" s="160"/>
-    </row>
-    <row r="43" spans="1:14" ht="24">
-      <c r="B43" s="71">
-        <v>31</v>
-      </c>
-      <c r="C43" s="154" t="s">
-        <v>150</v>
-      </c>
-      <c r="D43" s="155" t="s">
-        <v>188</v>
-      </c>
-      <c r="E43" s="156" t="s">
-        <v>161</v>
-      </c>
-      <c r="F43" s="157" t="s">
-        <v>174</v>
-      </c>
-      <c r="G43" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="H43" s="158"/>
-      <c r="I43" s="158"/>
-      <c r="J43" s="159">
-        <v>2</v>
-      </c>
-      <c r="K43" s="158"/>
-      <c r="L43" s="158"/>
-      <c r="M43" s="159">
-        <v>2</v>
-      </c>
-      <c r="N43" s="160"/>
-    </row>
-    <row r="44" spans="1:14" ht="24">
-      <c r="B44" s="71">
-        <v>32</v>
-      </c>
-      <c r="C44" s="154" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" s="155" t="s">
-        <v>188</v>
-      </c>
-      <c r="E44" s="156" t="s">
-        <v>229</v>
-      </c>
-      <c r="F44" s="157" t="s">
-        <v>174</v>
-      </c>
-      <c r="G44" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="H44" s="158"/>
-      <c r="I44" s="158"/>
-      <c r="J44" s="159">
-        <v>2</v>
-      </c>
-      <c r="K44" s="158"/>
-      <c r="L44" s="158"/>
-      <c r="M44" s="159">
-        <v>2</v>
-      </c>
-      <c r="N44" s="160"/>
-    </row>
-    <row r="45" spans="1:14" ht="24">
-      <c r="B45" s="71">
-        <v>32</v>
-      </c>
-      <c r="C45" s="237" t="s">
-        <v>150</v>
-      </c>
-      <c r="D45" s="238" t="s">
-        <v>232</v>
-      </c>
-      <c r="E45" s="239" t="s">
-        <v>235</v>
-      </c>
-      <c r="F45" s="240" t="s">
-        <v>174</v>
-      </c>
-      <c r="G45" s="240" t="s">
-        <v>176</v>
-      </c>
-      <c r="H45" s="241"/>
-      <c r="I45" s="241"/>
-      <c r="J45" s="242">
-        <v>2</v>
-      </c>
-      <c r="K45" s="241"/>
-      <c r="L45" s="241"/>
-      <c r="M45" s="242">
-        <v>2</v>
-      </c>
-      <c r="N45" s="243"/>
-    </row>
-    <row r="46" spans="1:14" ht="24">
-      <c r="B46" s="33">
-        <v>21</v>
-      </c>
-      <c r="C46" s="237" t="s">
-        <v>150</v>
-      </c>
-      <c r="D46" s="238" t="s">
-        <v>232</v>
-      </c>
-      <c r="E46" s="239" t="s">
-        <v>236</v>
-      </c>
-      <c r="F46" s="240" t="s">
-        <v>174</v>
-      </c>
-      <c r="G46" s="240" t="s">
-        <v>176</v>
-      </c>
-      <c r="H46" s="241"/>
-      <c r="I46" s="241"/>
-      <c r="J46" s="242">
-        <v>2</v>
-      </c>
-      <c r="K46" s="241"/>
-      <c r="L46" s="241"/>
-      <c r="M46" s="242">
-        <v>2</v>
-      </c>
-      <c r="N46" s="243"/>
-    </row>
-    <row r="47" spans="1:14" ht="24">
-      <c r="A47" s="8"/>
-      <c r="B47" s="33">
-        <v>33</v>
-      </c>
-      <c r="C47" s="237" t="s">
-        <v>150</v>
-      </c>
-      <c r="D47" s="238" t="s">
-        <v>232</v>
-      </c>
-      <c r="E47" s="239" t="s">
-        <v>202</v>
-      </c>
-      <c r="F47" s="240" t="s">
-        <v>174</v>
-      </c>
-      <c r="G47" s="240" t="s">
-        <v>176</v>
-      </c>
-      <c r="H47" s="241"/>
-      <c r="I47" s="241"/>
-      <c r="J47" s="242">
-        <v>2</v>
-      </c>
-      <c r="K47" s="241"/>
-      <c r="L47" s="241"/>
-      <c r="M47" s="242">
-        <v>2</v>
-      </c>
-      <c r="N47" s="243"/>
-    </row>
-    <row r="48" spans="1:14" ht="24">
-      <c r="A48" s="8"/>
-      <c r="B48" s="33">
-        <v>34</v>
-      </c>
-      <c r="C48" s="237" t="s">
-        <v>150</v>
-      </c>
-      <c r="D48" s="238" t="s">
-        <v>232</v>
-      </c>
-      <c r="E48" s="239" t="s">
-        <v>229</v>
-      </c>
-      <c r="F48" s="240" t="s">
-        <v>174</v>
-      </c>
-      <c r="G48" s="240" t="s">
-        <v>176</v>
-      </c>
-      <c r="H48" s="241"/>
-      <c r="I48" s="241"/>
-      <c r="J48" s="242">
-        <v>2</v>
-      </c>
-      <c r="K48" s="241"/>
-      <c r="L48" s="241"/>
-      <c r="M48" s="242">
-        <v>2</v>
-      </c>
-      <c r="N48" s="243"/>
-    </row>
-    <row r="49" spans="1:14" ht="24">
-      <c r="B49" s="33">
-        <v>22</v>
-      </c>
-      <c r="C49" s="237" t="s">
-        <v>150</v>
-      </c>
-      <c r="D49" s="238" t="s">
-        <v>233</v>
-      </c>
-      <c r="E49" s="239" t="s">
-        <v>157</v>
-      </c>
-      <c r="F49" s="240" t="s">
-        <v>174</v>
-      </c>
-      <c r="G49" s="240" t="s">
-        <v>176</v>
-      </c>
-      <c r="H49" s="241"/>
-      <c r="I49" s="241"/>
-      <c r="J49" s="242">
-        <v>2</v>
-      </c>
-      <c r="K49" s="241"/>
-      <c r="L49" s="241"/>
-      <c r="M49" s="242">
-        <v>2</v>
-      </c>
-      <c r="N49" s="243"/>
-    </row>
-    <row r="50" spans="1:14" ht="24">
-      <c r="B50" s="33">
-        <v>23</v>
-      </c>
-      <c r="C50" s="237" t="s">
-        <v>150</v>
-      </c>
-      <c r="D50" s="238" t="s">
-        <v>234</v>
-      </c>
-      <c r="E50" s="239" t="s">
-        <v>237</v>
-      </c>
-      <c r="F50" s="240" t="s">
-        <v>174</v>
-      </c>
-      <c r="G50" s="240" t="s">
-        <v>176</v>
-      </c>
-      <c r="H50" s="241"/>
-      <c r="I50" s="241"/>
-      <c r="J50" s="242">
-        <v>2</v>
-      </c>
-      <c r="K50" s="241"/>
-      <c r="L50" s="241"/>
-      <c r="M50" s="242">
-        <v>2</v>
-      </c>
-      <c r="N50" s="243"/>
-    </row>
-    <row r="51" spans="1:14" ht="24">
-      <c r="B51" s="33">
-        <v>24</v>
-      </c>
-      <c r="C51" s="237" t="s">
-        <v>150</v>
-      </c>
-      <c r="D51" s="238" t="s">
-        <v>238</v>
-      </c>
-      <c r="E51" s="239" t="s">
-        <v>245</v>
-      </c>
-      <c r="F51" s="240" t="s">
-        <v>174</v>
-      </c>
-      <c r="G51" s="240" t="s">
-        <v>176</v>
-      </c>
-      <c r="H51" s="241"/>
-      <c r="I51" s="241"/>
-      <c r="J51" s="242">
-        <v>2</v>
-      </c>
-      <c r="K51" s="241"/>
-      <c r="L51" s="241"/>
-      <c r="M51" s="242">
-        <v>2</v>
-      </c>
-      <c r="N51" s="243"/>
-    </row>
-    <row r="52" spans="1:14" ht="24">
-      <c r="B52" s="33">
-        <v>25</v>
-      </c>
-      <c r="C52" s="237" t="s">
-        <v>150</v>
-      </c>
-      <c r="D52" s="238" t="s">
-        <v>238</v>
-      </c>
-      <c r="E52" s="239" t="s">
-        <v>244</v>
-      </c>
-      <c r="F52" s="240" t="s">
-        <v>174</v>
-      </c>
-      <c r="G52" s="240" t="s">
-        <v>176</v>
-      </c>
-      <c r="H52" s="241"/>
-      <c r="I52" s="241"/>
-      <c r="J52" s="242">
-        <v>2</v>
-      </c>
-      <c r="K52" s="241"/>
-      <c r="L52" s="241"/>
-      <c r="M52" s="242">
-        <v>2</v>
-      </c>
-      <c r="N52" s="243"/>
-    </row>
-    <row r="53" spans="1:14" ht="24">
-      <c r="B53" s="33">
-        <v>26</v>
-      </c>
-      <c r="C53" s="237" t="s">
-        <v>150</v>
-      </c>
-      <c r="D53" s="238" t="s">
-        <v>238</v>
-      </c>
-      <c r="E53" s="239" t="s">
-        <v>243</v>
-      </c>
-      <c r="F53" s="240" t="s">
-        <v>174</v>
-      </c>
-      <c r="G53" s="240" t="s">
-        <v>176</v>
-      </c>
-      <c r="H53" s="241"/>
-      <c r="I53" s="241"/>
-      <c r="J53" s="242">
-        <v>2</v>
-      </c>
-      <c r="K53" s="241"/>
-      <c r="L53" s="241"/>
-      <c r="M53" s="242">
-        <v>2</v>
-      </c>
-      <c r="N53" s="243"/>
-    </row>
-    <row r="54" spans="1:14" ht="24">
-      <c r="B54" s="33">
-        <v>27</v>
-      </c>
-      <c r="C54" s="237" t="s">
-        <v>150</v>
-      </c>
-      <c r="D54" s="238" t="s">
-        <v>238</v>
-      </c>
-      <c r="E54" s="239" t="s">
-        <v>242</v>
-      </c>
-      <c r="F54" s="240" t="s">
-        <v>174</v>
-      </c>
-      <c r="G54" s="240" t="s">
-        <v>176</v>
-      </c>
-      <c r="H54" s="241"/>
-      <c r="I54" s="241"/>
-      <c r="J54" s="242">
-        <v>2</v>
-      </c>
-      <c r="K54" s="241"/>
-      <c r="L54" s="241"/>
-      <c r="M54" s="242">
-        <v>2</v>
-      </c>
-      <c r="N54" s="243"/>
-    </row>
-    <row r="55" spans="1:14" ht="24">
-      <c r="B55" s="33">
-        <v>28</v>
-      </c>
-      <c r="C55" s="237" t="s">
-        <v>150</v>
-      </c>
-      <c r="D55" s="238" t="s">
-        <v>239</v>
-      </c>
-      <c r="E55" s="239" t="s">
-        <v>240</v>
-      </c>
-      <c r="F55" s="240" t="s">
-        <v>174</v>
-      </c>
-      <c r="G55" s="240" t="s">
-        <v>176</v>
-      </c>
-      <c r="H55" s="241"/>
-      <c r="I55" s="241"/>
-      <c r="J55" s="242">
-        <v>2</v>
-      </c>
-      <c r="K55" s="241"/>
-      <c r="L55" s="241"/>
-      <c r="M55" s="242">
-        <v>2</v>
-      </c>
-      <c r="N55" s="243"/>
-    </row>
-    <row r="56" spans="1:14" ht="12.75" customHeight="1">
-      <c r="B56" s="33">
-        <v>29</v>
-      </c>
-      <c r="C56" s="237" t="s">
-        <v>150</v>
-      </c>
-      <c r="D56" s="238" t="s">
-        <v>239</v>
-      </c>
-      <c r="E56" s="239" t="s">
-        <v>241</v>
-      </c>
-      <c r="F56" s="240" t="s">
-        <v>174</v>
-      </c>
-      <c r="G56" s="240" t="s">
-        <v>176</v>
-      </c>
-      <c r="H56" s="241"/>
-      <c r="I56" s="241"/>
-      <c r="J56" s="242">
-        <v>2</v>
-      </c>
-      <c r="K56" s="241"/>
-      <c r="L56" s="241"/>
-      <c r="M56" s="242">
-        <v>2</v>
-      </c>
-      <c r="N56" s="243"/>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="8"/>
-      <c r="B57" s="33">
-        <v>30</v>
-      </c>
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="83"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="83"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="84"/>
-      <c r="J57" s="110"/>
-      <c r="K57" s="84"/>
-      <c r="L57" s="84"/>
-      <c r="M57" s="85"/>
-      <c r="N57" s="85"/>
-    </row>
-    <row r="58" spans="1:14" ht="12.75" customHeight="1">
-      <c r="B58" s="6"/>
-      <c r="J58" s="86">
-        <f>SUM(J13:J57)</f>
-        <v>138</v>
-      </c>
-      <c r="L58" s="87" t="s">
-        <v>16</v>
-      </c>
-      <c r="M58" s="86">
-        <f>SUM(M13:M57)</f>
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="B59" s="6"/>
-      <c r="E59" s="7"/>
+      <c r="M43" s="86">
+        <f>SUM(M13:M42)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="B44" s="6"/>
+      <c r="E44" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8428,16 +7165,16 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D57">
-      <formula1>IF(C57="Fast Track",f_fast,IF(C57="Configuraciones Tipo o Nuevas",f_tipo,IF(C57="Desarrollos Departamentales",f_depar,IF(C57="Desarrollos Adicionales ATIS",f_atis,IF(C57="Definición de Requerimientos",f_req,f_inci)))))</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29:D40">
+      <formula1>IF(C29="Fast Track",f_fast,IF(C29="Configuraciones Tipo o Nuevas",f_tipo,IF(C29="Desarrollos Departamentales",f_depar,IF(C29="Desarrollos Adicionales ATIS",f_atis,IF(C29="Definición de Requerimientos",f_req,f_inci)))))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E57">
-      <formula1>IF(C57="Fast Track",e_fast,IF(C57="Configuraciones Tipo o Nuevas",e_tipo,IF(C57="Desarrollos Departamentales",e_depar,IF(C57="Desarrollos Adicionales ATIS",e_atis,IF(C57="Definición de Requerimientos",e_req,e_inci)))))</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E27:E42">
+      <formula1>IF(C27="Fast Track",e_fast,IF(C27="Configuraciones Tipo o Nuevas",e_tipo,IF(C27="Desarrollos Departamentales",e_depar,IF(C27="Desarrollos Adicionales ATIS",e_atis,IF(C27="Definición de Requerimientos",e_req,e_inci)))))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C40">
       <formula1>TipoProy</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D28">
       <formula1>f_depar</formula1>
     </dataValidation>
   </dataValidations>
@@ -8454,21 +7191,21 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="13" customWidth="1"/>
     <col min="2" max="2" width="8.140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="15" customWidth="1"/>
     <col min="7" max="7" width="52.7109375" style="15" customWidth="1"/>
@@ -8481,22 +7218,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="214"/>
-      <c r="K1" s="214"/>
-      <c r="L1" s="214"/>
-      <c r="M1" s="214"/>
-      <c r="N1" s="215"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="186"/>
     </row>
     <row r="2" spans="1:15" s="26" customFormat="1" ht="11.45" customHeight="1">
       <c r="A2" s="27"/>
@@ -8566,7 +7303,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="21.75" customHeight="1">
+    <row r="5" spans="1:15" ht="24">
       <c r="A5" s="90">
         <v>1</v>
       </c>
@@ -8574,23 +7311,23 @@
         <v>1</v>
       </c>
       <c r="C5" s="92" t="str">
-        <f>VLOOKUP(B5,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <f>VLOOKUP(B5,Planificación!$B$13:$E$89,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D5" s="93" t="str">
-        <f>VLOOKUP(B5,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D5" s="144" t="str">
+        <f>VLOOKUP(B5,Planificación!$B$13:$E$89,4,FALSE)</f>
         <v>Plan de Proyecto</v>
       </c>
       <c r="E5" s="92" t="str">
-        <f>VLOOKUP(B5,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <f>VLOOKUP(B5,Planificación!$B$13:$G$89,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
       <c r="F5" s="92" t="str">
-        <f>VLOOKUP(B5,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <f>VLOOKUP(B5,Planificación!$B$13:$G$89,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
       <c r="G5" s="119" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="H5" s="94" t="s">
         <v>147</v>
@@ -8599,13 +7336,13 @@
         <v>97</v>
       </c>
       <c r="J5" s="94" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="K5" s="96"/>
-      <c r="L5" s="124">
+      <c r="L5" s="129">
         <v>41313</v>
       </c>
-      <c r="M5" s="124">
+      <c r="M5" s="129">
         <v>41383</v>
       </c>
       <c r="N5" s="98">
@@ -8622,23 +7359,23 @@
         <v>2</v>
       </c>
       <c r="C6" s="92" t="str">
-        <f>VLOOKUP(B6,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <f>VLOOKUP(B6,Planificación!$B$13:$E$89,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D6" s="93" t="str">
-        <f>VLOOKUP(B6,Planificación!$B$13:$E$104,4,FALSE)</f>
+      <c r="D6" s="144" t="str">
+        <f>VLOOKUP(B6,Planificación!$B$13:$E$89,4,FALSE)</f>
         <v xml:space="preserve">Cronograma </v>
       </c>
       <c r="E6" s="92" t="str">
-        <f>VLOOKUP(B6,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <f>VLOOKUP(B6,Planificación!$B$13:$G$89,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
       <c r="F6" s="92" t="str">
-        <f>VLOOKUP(B6,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <f>VLOOKUP(B6,Planificación!$B$13:$G$89,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
       <c r="G6" s="119" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="H6" s="94" t="s">
         <v>147</v>
@@ -8647,13 +7384,13 @@
         <v>97</v>
       </c>
       <c r="J6" s="94" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="K6" s="96"/>
-      <c r="L6" s="124">
+      <c r="L6" s="129">
         <v>41314</v>
       </c>
-      <c r="M6" s="124">
+      <c r="M6" s="129">
         <v>41383</v>
       </c>
       <c r="N6" s="98">
@@ -8670,23 +7407,23 @@
         <v>3</v>
       </c>
       <c r="C7" s="92" t="str">
-        <f>VLOOKUP(B7,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <f>VLOOKUP(B7,Planificación!$B$13:$E$89,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D7" s="93" t="str">
-        <f>VLOOKUP(B7,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Informe Quincenal</v>
+      <c r="D7" s="144" t="str">
+        <f>VLOOKUP(B7,Planificación!$B$13:$E$89,4,FALSE)</f>
+        <v>Registro de Riesgos</v>
       </c>
       <c r="E7" s="92" t="str">
-        <f>VLOOKUP(B7,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <f>VLOOKUP(B7,Planificación!$B$13:$G$89,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
       <c r="F7" s="92" t="str">
-        <f>VLOOKUP(B7,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <f>VLOOKUP(B7,Planificación!$B$13:$G$89,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
       <c r="G7" s="119" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="H7" s="94"/>
       <c r="I7" s="94"/>
@@ -8708,23 +7445,23 @@
         <v>4</v>
       </c>
       <c r="C8" s="92" t="str">
-        <f>VLOOKUP(B8,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <f>VLOOKUP(B8,Planificación!$B$13:$E$89,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D8" s="93" t="str">
-        <f>VLOOKUP(B8,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Informe Quincenal</v>
+      <c r="D8" s="144" t="str">
+        <f>VLOOKUP(B8,Planificación!$B$13:$E$89,4,FALSE)</f>
+        <v>Modelaje Base de Datos</v>
       </c>
       <c r="E8" s="92" t="str">
-        <f>VLOOKUP(B8,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <f>VLOOKUP(B8,Planificación!$B$13:$G$89,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
       <c r="F8" s="92" t="str">
-        <f>VLOOKUP(B8,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <f>VLOOKUP(B8,Planificación!$B$13:$G$89,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
       <c r="G8" s="119" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="H8" s="94" t="s">
         <v>149</v>
@@ -8733,13 +7470,13 @@
         <v>97</v>
       </c>
       <c r="J8" s="94" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="K8" s="96"/>
-      <c r="L8" s="124">
+      <c r="L8" s="129">
         <v>41319</v>
       </c>
-      <c r="M8" s="124">
+      <c r="M8" s="129">
         <v>41321</v>
       </c>
       <c r="N8" s="98">
@@ -8756,23 +7493,23 @@
         <v>5</v>
       </c>
       <c r="C9" s="92" t="str">
-        <f>VLOOKUP(B9,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <f>VLOOKUP(B9,Planificación!$B$13:$E$89,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D9" s="93" t="str">
-        <f>VLOOKUP(B9,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v xml:space="preserve">Metrica de Procentaje de Cumplimiento de Entregables </v>
+      <c r="D9" s="144" t="str">
+        <f>VLOOKUP(B9,Planificación!$B$13:$E$89,4,FALSE)</f>
+        <v>Acta de Aceptacion de Entregables</v>
       </c>
       <c r="E9" s="92" t="str">
-        <f>VLOOKUP(B9,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <f>VLOOKUP(B9,Planificación!$B$13:$G$89,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
       <c r="F9" s="92" t="str">
-        <f>VLOOKUP(B9,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <f>VLOOKUP(B9,Planificación!$B$13:$G$89,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
       <c r="G9" s="119" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="H9" s="94"/>
       <c r="I9" s="94"/>
@@ -8786,7 +7523,7 @@
       </c>
       <c r="O9" s="111"/>
     </row>
-    <row r="10" spans="1:15" ht="12">
+    <row r="10" spans="1:15" ht="24">
       <c r="A10" s="90">
         <v>6</v>
       </c>
@@ -8794,23 +7531,23 @@
         <v>6</v>
       </c>
       <c r="C10" s="92" t="str">
-        <f>VLOOKUP(B10,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <f>VLOOKUP(B10,Planificación!$B$13:$E$89,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D10" s="93" t="str">
-        <f>VLOOKUP(B10,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Registro de Riesgos</v>
+      <c r="D10" s="144" t="str">
+        <f>VLOOKUP(B10,Planificación!$B$13:$E$89,4,FALSE)</f>
+        <v>Lista Maestra de Requerimientos</v>
       </c>
       <c r="E10" s="92" t="str">
-        <f>VLOOKUP(B10,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <f>VLOOKUP(B10,Planificación!$B$13:$G$89,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
       <c r="F10" s="92" t="str">
-        <f>VLOOKUP(B10,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <f>VLOOKUP(B10,Planificación!$B$13:$G$89,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
       <c r="G10" s="119" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="H10" s="94"/>
       <c r="I10" s="94"/>
@@ -8832,23 +7569,23 @@
         <v>7</v>
       </c>
       <c r="C11" s="92" t="str">
-        <f>VLOOKUP(B11,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <f>VLOOKUP(B11,Planificación!$B$13:$E$89,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D11" s="93" t="str">
-        <f>VLOOKUP(B11,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Modelaje Base de Datos</v>
+      <c r="D11" s="144" t="str">
+        <f>VLOOKUP(B11,Planificación!$B$13:$E$89,4,FALSE)</f>
+        <v>Matriz de Trazabilidad</v>
       </c>
       <c r="E11" s="92" t="str">
-        <f>VLOOKUP(B11,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <f>VLOOKUP(B11,Planificación!$B$13:$G$89,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
       <c r="F11" s="92" t="str">
-        <f>VLOOKUP(B11,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <f>VLOOKUP(B11,Planificación!$B$13:$G$89,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
       <c r="G11" s="119" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="H11" s="94"/>
       <c r="I11" s="94"/>
@@ -8862,7 +7599,7 @@
       </c>
       <c r="O11" s="111"/>
     </row>
-    <row r="12" spans="1:15" ht="24">
+    <row r="12" spans="1:15" ht="12">
       <c r="A12" s="90">
         <v>8</v>
       </c>
@@ -8870,23 +7607,23 @@
         <v>8</v>
       </c>
       <c r="C12" s="92" t="str">
-        <f>VLOOKUP(B12,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <f>VLOOKUP(B12,Planificación!$B$13:$E$89,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D12" s="93" t="str">
-        <f>VLOOKUP(B12,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Desarrollo de Prototipos de Interfaces</v>
+      <c r="D12" s="144" t="str">
+        <f>VLOOKUP(B12,Planificación!$B$13:$E$89,4,FALSE)</f>
+        <v>Registros de Riesgos</v>
       </c>
       <c r="E12" s="92" t="str">
-        <f>VLOOKUP(B12,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <f>VLOOKUP(B12,Planificación!$B$13:$G$89,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
       <c r="F12" s="92" t="str">
-        <f>VLOOKUP(B12,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <f>VLOOKUP(B12,Planificación!$B$13:$G$89,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
       <c r="G12" s="119" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="H12" s="94"/>
       <c r="I12" s="94"/>
@@ -8907,23 +7644,23 @@
         <v>9</v>
       </c>
       <c r="C13" s="92" t="str">
-        <f>VLOOKUP(B13,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <f>VLOOKUP(B13,Planificación!$B$13:$E$89,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D13" s="93" t="str">
-        <f>VLOOKUP(B13,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Acta de Aceptacion de Entregables</v>
+      <c r="D13" s="144" t="str">
+        <f>VLOOKUP(B13,Planificación!$B$13:$E$89,4,FALSE)</f>
+        <v>Desarrollo de Logica de Negocio</v>
       </c>
       <c r="E13" s="92" t="str">
-        <f>VLOOKUP(B13,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <f>VLOOKUP(B13,Planificación!$B$13:$G$89,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
       <c r="F13" s="92" t="str">
-        <f>VLOOKUP(B13,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <f>VLOOKUP(B13,Planificación!$B$13:$G$89,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
       <c r="G13" s="95" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="H13" s="94" t="s">
         <v>36</v>
@@ -8932,13 +7669,13 @@
         <v>95</v>
       </c>
       <c r="J13" s="94" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="K13" s="96"/>
-      <c r="L13" s="124">
+      <c r="L13" s="129">
         <v>41356</v>
       </c>
-      <c r="M13" s="124">
+      <c r="M13" s="129">
         <v>41356</v>
       </c>
       <c r="N13" s="98">
@@ -8955,23 +7692,23 @@
         <v>10</v>
       </c>
       <c r="C14" s="92" t="str">
-        <f>VLOOKUP(B14,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <f>VLOOKUP(B14,Planificación!$B$13:$E$89,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D14" s="93" t="str">
-        <f>VLOOKUP(B14,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Lista Maestra de Requerimientos</v>
+      <c r="D14" s="144" t="str">
+        <f>VLOOKUP(B14,Planificación!$B$13:$E$89,4,FALSE)</f>
+        <v>Acta de Aceptacion de Entregables</v>
       </c>
       <c r="E14" s="92" t="str">
-        <f>VLOOKUP(B14,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <f>VLOOKUP(B14,Planificación!$B$13:$G$89,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
       <c r="F14" s="92" t="str">
-        <f>VLOOKUP(B14,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <f>VLOOKUP(B14,Planificación!$B$13:$G$89,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
       <c r="G14" s="119" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="H14" s="94"/>
       <c r="I14" s="94"/>
@@ -8993,23 +7730,23 @@
         <v>11</v>
       </c>
       <c r="C15" s="92" t="str">
-        <f>VLOOKUP(B15,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <f>VLOOKUP(B15,Planificación!$B$13:$E$89,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D15" s="93" t="str">
-        <f>VLOOKUP(B15,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Matriz de Trazabilidad</v>
+      <c r="D15" s="144" t="str">
+        <f>VLOOKUP(B15,Planificación!$B$13:$E$89,4,FALSE)</f>
+        <v>Matriz de Seguimiento</v>
       </c>
       <c r="E15" s="92" t="str">
-        <f>VLOOKUP(B15,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <f>VLOOKUP(B15,Planificación!$B$13:$G$89,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
       <c r="F15" s="92" t="str">
-        <f>VLOOKUP(B15,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <f>VLOOKUP(B15,Planificación!$B$13:$G$89,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
       <c r="G15" s="119" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="H15" s="94"/>
       <c r="I15" s="94"/>
@@ -9031,23 +7768,23 @@
         <v>12</v>
       </c>
       <c r="C16" s="92" t="str">
-        <f>VLOOKUP(B16,Planificación!$B$13:$E$104,2,FALSE)</f>
+        <f>VLOOKUP(B16,Planificación!$B$13:$E$89,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D16" s="93" t="str">
-        <f>VLOOKUP(B16,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Casos de Uso</v>
+      <c r="D16" s="144" t="str">
+        <f>VLOOKUP(B16,Planificación!$B$13:$E$89,4,FALSE)</f>
+        <v>Planes de Prueba</v>
       </c>
       <c r="E16" s="92" t="str">
-        <f>VLOOKUP(B16,Planificación!$B$13:$G$104,5,FALSE)</f>
+        <f>VLOOKUP(B16,Planificación!$B$13:$G$89,5,FALSE)</f>
         <v>Michel Aguilar</v>
       </c>
       <c r="F16" s="92" t="str">
-        <f>VLOOKUP(B16,Planificación!$B$13:$G$104,6,FALSE)</f>
+        <f>VLOOKUP(B16,Planificación!$B$13:$G$89,6,FALSE)</f>
         <v>Amira Lanao</v>
       </c>
       <c r="G16" s="119" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="H16" s="94"/>
       <c r="I16" s="94"/>
@@ -9061,128 +7798,64 @@
       </c>
       <c r="O16" s="111"/>
     </row>
-    <row r="17" spans="1:15" ht="12">
-      <c r="A17" s="90">
-        <v>13</v>
-      </c>
-      <c r="B17" s="91">
-        <v>13</v>
-      </c>
-      <c r="C17" s="92" t="str">
-        <f>VLOOKUP(B17,Planificación!$B$13:$E$104,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D17" s="93" t="str">
-        <f>VLOOKUP(B17,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Diagrama de Casos de Uso</v>
-      </c>
-      <c r="E17" s="92" t="str">
-        <f>VLOOKUP(B17,Planificación!$B$13:$G$104,5,FALSE)</f>
-        <v>Michel Aguilar</v>
-      </c>
-      <c r="F17" s="92" t="str">
-        <f>VLOOKUP(B17,Planificación!$B$13:$G$104,6,FALSE)</f>
-        <v>Amira Lanao</v>
-      </c>
+    <row r="17" spans="1:15" ht="18" customHeight="1">
+      <c r="A17" s="90"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
       <c r="G17" s="119"/>
       <c r="H17" s="94"/>
       <c r="I17" s="94"/>
       <c r="J17" s="94"/>
       <c r="K17" s="96"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="97"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="120"/>
       <c r="N17" s="98"/>
       <c r="O17" s="111"/>
     </row>
-    <row r="18" spans="1:15" ht="24">
-      <c r="A18" s="90">
-        <v>14</v>
-      </c>
-      <c r="B18" s="91">
-        <v>14</v>
-      </c>
-      <c r="C18" s="92" t="str">
-        <f>VLOOKUP(B18,Planificación!$B$13:$E$104,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D18" s="93" t="str">
-        <f>VLOOKUP(B18,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Metrica de Volatibilidad de Requerimientos</v>
-      </c>
-      <c r="E18" s="92" t="str">
-        <f>VLOOKUP(B18,Planificación!$B$13:$G$104,5,FALSE)</f>
-        <v>Michel Aguilar</v>
-      </c>
-      <c r="F18" s="92" t="str">
-        <f>VLOOKUP(B18,Planificación!$B$13:$G$104,6,FALSE)</f>
-        <v>Amira Lanao</v>
-      </c>
+    <row r="18" spans="1:15" ht="29.25" customHeight="1">
+      <c r="A18" s="90"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
       <c r="G18" s="119"/>
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
       <c r="J18" s="94"/>
       <c r="K18" s="96"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="120"/>
       <c r="N18" s="98"/>
       <c r="O18" s="111"/>
     </row>
-    <row r="19" spans="1:15" ht="12">
-      <c r="A19" s="90">
-        <v>15</v>
-      </c>
-      <c r="B19" s="91">
-        <v>15</v>
-      </c>
-      <c r="C19" s="92" t="str">
-        <f>VLOOKUP(B19,Planificación!$B$13:$E$104,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D19" s="93" t="str">
-        <f>VLOOKUP(B19,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Informe Quincenal</v>
-      </c>
-      <c r="E19" s="92" t="str">
-        <f>VLOOKUP(B19,Planificación!$B$13:$G$104,5,FALSE)</f>
-        <v>Michel Aguilar</v>
-      </c>
-      <c r="F19" s="92" t="str">
-        <f>VLOOKUP(B19,Planificación!$B$13:$G$104,6,FALSE)</f>
-        <v>Amira Lanao</v>
-      </c>
+    <row r="19" spans="1:15" ht="25.5" customHeight="1">
+      <c r="A19" s="90"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
       <c r="G19" s="119"/>
       <c r="H19" s="94"/>
       <c r="I19" s="94"/>
       <c r="J19" s="94"/>
       <c r="K19" s="96"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="97"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="120"/>
       <c r="N19" s="98"/>
       <c r="O19" s="111"/>
     </row>
     <row r="20" spans="1:15" ht="12">
-      <c r="A20" s="90">
-        <v>16</v>
-      </c>
-      <c r="B20" s="91">
-        <v>16</v>
-      </c>
-      <c r="C20" s="92" t="str">
-        <f>VLOOKUP(B20,Planificación!$B$13:$E$104,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D20" s="93" t="str">
-        <f>VLOOKUP(B20,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Informe Quincenal</v>
-      </c>
-      <c r="E20" s="92" t="str">
-        <f>VLOOKUP(B20,Planificación!$B$13:$G$104,5,FALSE)</f>
-        <v>Michel Aguilar</v>
-      </c>
-      <c r="F20" s="92" t="str">
-        <f>VLOOKUP(B20,Planificación!$B$13:$G$104,6,FALSE)</f>
-        <v>Amira Lanao</v>
-      </c>
+      <c r="A20" s="90"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
       <c r="G20" s="119"/>
       <c r="H20" s="94"/>
       <c r="I20" s="94"/>
@@ -9193,652 +7866,16 @@
       <c r="N20" s="98"/>
       <c r="O20" s="111"/>
     </row>
-    <row r="21" spans="1:15" ht="12">
-      <c r="A21" s="90">
-        <v>17</v>
-      </c>
-      <c r="B21" s="91">
-        <v>17</v>
-      </c>
-      <c r="C21" s="92" t="str">
-        <f>VLOOKUP(B21,Planificación!$B$13:$E$104,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D21" s="93" t="str">
-        <f>VLOOKUP(B21,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Registros de Riesgos</v>
-      </c>
-      <c r="E21" s="92" t="str">
-        <f>VLOOKUP(B21,Planificación!$B$13:$G$104,5,FALSE)</f>
-        <v>Michel Aguilar</v>
-      </c>
-      <c r="F21" s="92" t="str">
-        <f>VLOOKUP(B21,Planificación!$B$13:$G$104,6,FALSE)</f>
-        <v>Amira Lanao</v>
-      </c>
-      <c r="G21" s="119"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="111"/>
-    </row>
-    <row r="22" spans="1:15" ht="12">
-      <c r="A22" s="90">
-        <v>18</v>
-      </c>
-      <c r="B22" s="91">
-        <v>18</v>
-      </c>
-      <c r="C22" s="92" t="str">
-        <f>VLOOKUP(B22,Planificación!$B$13:$E$104,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D22" s="93" t="str">
-        <f>VLOOKUP(B22,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Desarrollo de Logica de Negocio</v>
-      </c>
-      <c r="E22" s="92" t="str">
-        <f>VLOOKUP(B22,Planificación!$B$13:$G$104,5,FALSE)</f>
-        <v>Michel Aguilar</v>
-      </c>
-      <c r="F22" s="92" t="str">
-        <f>VLOOKUP(B22,Planificación!$B$13:$G$104,6,FALSE)</f>
-        <v>Amira Lanao</v>
-      </c>
-      <c r="G22" s="119"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="98"/>
-      <c r="O22" s="111"/>
-    </row>
-    <row r="23" spans="1:15" ht="24">
-      <c r="A23" s="90">
-        <v>19</v>
-      </c>
-      <c r="B23" s="91">
-        <v>19</v>
-      </c>
-      <c r="C23" s="92" t="str">
-        <f>VLOOKUP(B23,Planificación!$B$13:$E$104,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D23" s="93" t="str">
-        <f>VLOOKUP(B23,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Acta de Aceptacion de Entregables</v>
-      </c>
-      <c r="E23" s="92" t="str">
-        <f>VLOOKUP(B23,Planificación!$B$13:$G$104,5,FALSE)</f>
-        <v>Michel Aguilar</v>
-      </c>
-      <c r="F23" s="92" t="str">
-        <f>VLOOKUP(B23,Planificación!$B$13:$G$104,6,FALSE)</f>
-        <v>Amira Lanao</v>
-      </c>
-      <c r="G23" s="119"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="111"/>
-    </row>
-    <row r="24" spans="1:15" ht="12">
-      <c r="A24" s="90">
-        <v>20</v>
-      </c>
-      <c r="B24" s="91">
-        <v>20</v>
-      </c>
-      <c r="C24" s="92" t="str">
-        <f>VLOOKUP(B24,Planificación!$B$13:$E$104,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D24" s="93" t="str">
-        <f>VLOOKUP(B24,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Herramienta de Gestión</v>
-      </c>
-      <c r="E24" s="92" t="str">
-        <f>VLOOKUP(B24,Planificación!$B$13:$G$104,5,FALSE)</f>
-        <v>Michel Aguilar</v>
-      </c>
-      <c r="F24" s="92" t="str">
-        <f>VLOOKUP(B24,Planificación!$B$13:$G$104,6,FALSE)</f>
-        <v>Amira Lanao</v>
-      </c>
-      <c r="G24" s="119"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="111"/>
-    </row>
-    <row r="25" spans="1:15" ht="24">
-      <c r="A25" s="90">
-        <v>21</v>
-      </c>
-      <c r="B25" s="91">
-        <v>21</v>
-      </c>
-      <c r="C25" s="92" t="str">
-        <f>VLOOKUP(B25,Planificación!$B$13:$E$104,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D25" s="93" t="str">
-        <f>VLOOKUP(B25,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Numero de no Conformidades (Metrica)</v>
-      </c>
-      <c r="E25" s="92" t="str">
-        <f>VLOOKUP(B25,Planificación!$B$13:$G$104,5,FALSE)</f>
-        <v>Michel Aguilar</v>
-      </c>
-      <c r="F25" s="92" t="str">
-        <f>VLOOKUP(B25,Planificación!$B$13:$G$104,6,FALSE)</f>
-        <v>Amira Lanao</v>
-      </c>
-      <c r="G25" s="119"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="111"/>
-    </row>
-    <row r="26" spans="1:15" ht="24">
-      <c r="A26" s="90">
-        <v>22</v>
-      </c>
-      <c r="B26" s="91">
-        <v>22</v>
-      </c>
-      <c r="C26" s="92" t="str">
-        <f>VLOOKUP(B26,Planificación!$B$13:$E$104,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D26" s="93" t="str">
-        <f>VLOOKUP(B26,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v xml:space="preserve">Checklist de Aseguramiento de Calidad </v>
-      </c>
-      <c r="E26" s="92" t="str">
-        <f>VLOOKUP(B26,Planificación!$B$13:$G$104,5,FALSE)</f>
-        <v>Michel Aguilar</v>
-      </c>
-      <c r="F26" s="92" t="str">
-        <f>VLOOKUP(B26,Planificación!$B$13:$G$104,6,FALSE)</f>
-        <v>Amira Lanao</v>
-      </c>
-      <c r="G26" s="119"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="111"/>
-    </row>
-    <row r="27" spans="1:15" ht="12">
-      <c r="A27" s="90">
-        <v>23</v>
-      </c>
-      <c r="B27" s="91">
-        <v>23</v>
-      </c>
-      <c r="C27" s="92" t="str">
-        <f>VLOOKUP(B27,Planificación!$B$13:$E$104,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D27" s="93" t="str">
-        <f>VLOOKUP(B27,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Matriz de Seguimiento</v>
-      </c>
-      <c r="E27" s="92" t="str">
-        <f>VLOOKUP(B27,Planificación!$B$13:$G$104,5,FALSE)</f>
-        <v>Michel Aguilar</v>
-      </c>
-      <c r="F27" s="92" t="str">
-        <f>VLOOKUP(B27,Planificación!$B$13:$G$104,6,FALSE)</f>
-        <v>Amira Lanao</v>
-      </c>
-      <c r="G27" s="119"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="111"/>
-    </row>
-    <row r="28" spans="1:15" ht="24">
-      <c r="A28" s="90">
-        <v>24</v>
-      </c>
-      <c r="B28" s="91">
-        <v>24</v>
-      </c>
-      <c r="C28" s="92" t="str">
-        <f>VLOOKUP(B28,Planificación!$B$13:$E$104,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D28" s="93" t="str">
-        <f>VLOOKUP(B28,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Lista Maestra de Requerimientos Actualizada</v>
-      </c>
-      <c r="E28" s="92" t="str">
-        <f>VLOOKUP(B28,Planificación!$B$13:$G$104,5,FALSE)</f>
-        <v>Michel Aguilar</v>
-      </c>
-      <c r="F28" s="92" t="str">
-        <f>VLOOKUP(B28,Planificación!$B$13:$G$104,6,FALSE)</f>
-        <v>Amira Lanao</v>
-      </c>
-      <c r="G28" s="119"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="97"/>
-      <c r="M28" s="97"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="111"/>
-    </row>
-    <row r="29" spans="1:15" ht="12">
-      <c r="A29" s="90">
-        <v>25</v>
-      </c>
-      <c r="B29" s="91">
-        <v>25</v>
-      </c>
-      <c r="C29" s="92" t="str">
-        <f>VLOOKUP(B29,Planificación!$B$13:$E$104,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D29" s="93" t="str">
-        <f>VLOOKUP(B29,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Informe Quincenal</v>
-      </c>
-      <c r="E29" s="92" t="str">
-        <f>VLOOKUP(B29,Planificación!$B$13:$G$104,5,FALSE)</f>
-        <v>Michel Aguilar</v>
-      </c>
-      <c r="F29" s="92" t="str">
-        <f>VLOOKUP(B29,Planificación!$B$13:$G$104,6,FALSE)</f>
-        <v>Amira Lanao</v>
-      </c>
-      <c r="G29" s="119"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="97"/>
-      <c r="M29" s="97"/>
-      <c r="N29" s="98"/>
-      <c r="O29" s="111"/>
-    </row>
-    <row r="30" spans="1:15" ht="12">
-      <c r="A30" s="90">
-        <v>26</v>
-      </c>
-      <c r="B30" s="91">
-        <v>26</v>
-      </c>
-      <c r="C30" s="92" t="str">
-        <f>VLOOKUP(B30,Planificación!$B$13:$E$104,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D30" s="93" t="str">
-        <f>VLOOKUP(B30,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Informe Quincenal</v>
-      </c>
-      <c r="E30" s="92" t="str">
-        <f>VLOOKUP(B30,Planificación!$B$13:$G$104,5,FALSE)</f>
-        <v>Michel Aguilar</v>
-      </c>
-      <c r="F30" s="92" t="str">
-        <f>VLOOKUP(B30,Planificación!$B$13:$G$104,6,FALSE)</f>
-        <v>Amira Lanao</v>
-      </c>
-      <c r="G30" s="119"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="97"/>
-      <c r="M30" s="97"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="111"/>
-    </row>
-    <row r="31" spans="1:15" ht="12">
-      <c r="A31" s="90">
-        <v>27</v>
-      </c>
-      <c r="B31" s="91">
-        <v>27</v>
-      </c>
-      <c r="C31" s="92" t="str">
-        <f>VLOOKUP(B31,Planificación!$B$13:$E$104,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D31" s="93" t="str">
-        <f>VLOOKUP(B31,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Registros de Riesgos</v>
-      </c>
-      <c r="E31" s="92" t="str">
-        <f>VLOOKUP(B31,Planificación!$B$13:$G$104,5,FALSE)</f>
-        <v>Michel Aguilar</v>
-      </c>
-      <c r="F31" s="92" t="str">
-        <f>VLOOKUP(B31,Planificación!$B$13:$G$104,6,FALSE)</f>
-        <v>Amira Lanao</v>
-      </c>
-      <c r="G31" s="119"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="97"/>
-      <c r="M31" s="97"/>
-      <c r="N31" s="98"/>
-      <c r="O31" s="111"/>
-    </row>
-    <row r="32" spans="1:15" ht="12">
-      <c r="A32" s="90">
-        <v>28</v>
-      </c>
-      <c r="B32" s="91">
-        <v>28</v>
-      </c>
-      <c r="C32" s="92" t="str">
-        <f>VLOOKUP(B32,Planificación!$B$13:$E$104,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D32" s="93" t="str">
-        <f>VLOOKUP(B32,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Planes de Prueba</v>
-      </c>
-      <c r="E32" s="92" t="str">
-        <f>VLOOKUP(B32,Planificación!$B$13:$G$104,5,FALSE)</f>
-        <v>Michel Aguilar</v>
-      </c>
-      <c r="F32" s="92" t="str">
-        <f>VLOOKUP(B32,Planificación!$B$13:$G$104,6,FALSE)</f>
-        <v>Amira Lanao</v>
-      </c>
-      <c r="G32" s="119"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="97"/>
-      <c r="M32" s="97"/>
-      <c r="N32" s="98"/>
-      <c r="O32" s="111"/>
-    </row>
-    <row r="33" spans="1:15" ht="24">
-      <c r="A33" s="90">
-        <v>29</v>
-      </c>
-      <c r="B33" s="91">
-        <v>29</v>
-      </c>
-      <c r="C33" s="92" t="str">
-        <f>VLOOKUP(B33,Planificación!$B$13:$E$104,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D33" s="93" t="str">
-        <f>VLOOKUP(B33,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Desarrollo de logica de negocio Ajustado</v>
-      </c>
-      <c r="E33" s="92" t="str">
-        <f>VLOOKUP(B33,Planificación!$B$13:$G$104,5,FALSE)</f>
-        <v>Michel Aguilar</v>
-      </c>
-      <c r="F33" s="92" t="str">
-        <f>VLOOKUP(B33,Planificación!$B$13:$G$104,6,FALSE)</f>
-        <v>Amira Lanao</v>
-      </c>
-      <c r="G33" s="119"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="97"/>
-      <c r="M33" s="97"/>
-      <c r="N33" s="98"/>
-      <c r="O33" s="111"/>
-    </row>
-    <row r="34" spans="1:15" ht="24">
-      <c r="A34" s="90">
-        <v>30</v>
-      </c>
-      <c r="B34" s="91">
-        <v>30</v>
-      </c>
-      <c r="C34" s="92" t="str">
-        <f>VLOOKUP(B34,Planificación!$B$13:$E$104,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D34" s="93" t="str">
-        <f>VLOOKUP(B34,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Desarrollo de Persistencia de Datos</v>
-      </c>
-      <c r="E34" s="92" t="str">
-        <f>VLOOKUP(B34,Planificación!$B$13:$G$104,5,FALSE)</f>
-        <v>Michel Aguilar</v>
-      </c>
-      <c r="F34" s="92" t="str">
-        <f>VLOOKUP(B34,Planificación!$B$13:$G$104,6,FALSE)</f>
-        <v>Amira Lanao</v>
-      </c>
-      <c r="G34" s="119"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="97"/>
-      <c r="N34" s="98"/>
-      <c r="O34" s="111"/>
-    </row>
-    <row r="35" spans="1:15" ht="24">
-      <c r="A35" s="90">
-        <v>31</v>
-      </c>
-      <c r="B35" s="91">
-        <v>31</v>
-      </c>
-      <c r="C35" s="92" t="str">
-        <f>VLOOKUP(B35,Planificación!$B$13:$E$104,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D35" s="93" t="str">
-        <f>VLOOKUP(B35,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Acta de Aceptacion de Entregables</v>
-      </c>
-      <c r="E35" s="92" t="str">
-        <f>VLOOKUP(B35,Planificación!$B$13:$G$104,5,FALSE)</f>
-        <v>Michel Aguilar</v>
-      </c>
-      <c r="F35" s="92" t="str">
-        <f>VLOOKUP(B35,Planificación!$B$13:$G$104,6,FALSE)</f>
-        <v>Amira Lanao</v>
-      </c>
-      <c r="G35" s="119"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="97"/>
-      <c r="M35" s="97"/>
-      <c r="N35" s="98"/>
-      <c r="O35" s="111"/>
-    </row>
-    <row r="36" spans="1:15" ht="12">
-      <c r="A36" s="90">
-        <v>32</v>
-      </c>
-      <c r="B36" s="91">
-        <v>32</v>
-      </c>
-      <c r="C36" s="92" t="str">
-        <f>VLOOKUP(B36,Planificación!$B$13:$E$104,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D36" s="93" t="str">
-        <f>VLOOKUP(B36,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Pruebas Funcionales</v>
-      </c>
-      <c r="E36" s="92" t="str">
-        <f>VLOOKUP(B36,Planificación!$B$13:$G$104,5,FALSE)</f>
-        <v>Michel Aguilar</v>
-      </c>
-      <c r="F36" s="92" t="str">
-        <f>VLOOKUP(B36,Planificación!$B$13:$G$104,6,FALSE)</f>
-        <v>Amira Lanao</v>
-      </c>
-      <c r="G36" s="119"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="96"/>
-      <c r="L36" s="97"/>
-      <c r="M36" s="97"/>
-      <c r="N36" s="98"/>
-      <c r="O36" s="111"/>
-    </row>
-    <row r="37" spans="1:15" s="172" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A37" s="162">
-        <v>33</v>
-      </c>
-      <c r="B37" s="163">
-        <v>33</v>
-      </c>
-      <c r="C37" s="164" t="str">
-        <f>VLOOKUP(B37,Planificación!$B$13:$E$104,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D37" s="165" t="str">
-        <f>VLOOKUP(B37,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Informe Quincenal</v>
-      </c>
-      <c r="E37" s="164"/>
-      <c r="F37" s="164"/>
-      <c r="G37" s="166"/>
-      <c r="H37" s="167"/>
-      <c r="I37" s="167"/>
-      <c r="J37" s="167"/>
-      <c r="K37" s="168"/>
-      <c r="L37" s="169"/>
-      <c r="M37" s="169"/>
-      <c r="N37" s="170"/>
-      <c r="O37" s="171"/>
-    </row>
-    <row r="38" spans="1:15" s="172" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A38" s="162">
-        <v>34</v>
-      </c>
-      <c r="B38" s="163">
-        <v>34</v>
-      </c>
-      <c r="C38" s="164" t="str">
-        <f>VLOOKUP(B38,Planificación!$B$13:$E$104,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D38" s="165" t="str">
-        <f>VLOOKUP(B38,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>Pruebas Funcionales</v>
-      </c>
-      <c r="E38" s="164"/>
-      <c r="F38" s="164"/>
-      <c r="G38" s="166"/>
-      <c r="H38" s="167"/>
-      <c r="I38" s="167"/>
-      <c r="J38" s="167"/>
-      <c r="K38" s="168"/>
-      <c r="L38" s="169"/>
-      <c r="M38" s="169"/>
-      <c r="N38" s="170"/>
-      <c r="O38" s="171"/>
-    </row>
-    <row r="39" spans="1:15" s="172" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A39" s="162">
-        <v>35</v>
-      </c>
-      <c r="B39" s="163">
-        <v>35</v>
-      </c>
-      <c r="C39" s="164" t="e">
-        <f>VLOOKUP(B39,Planificación!$B$13:$E$104,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D39" s="165" t="e">
-        <f>VLOOKUP(B39,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E39" s="164"/>
-      <c r="F39" s="164"/>
-      <c r="G39" s="166"/>
-      <c r="H39" s="167"/>
-      <c r="I39" s="167"/>
-      <c r="J39" s="167"/>
-      <c r="K39" s="168"/>
-      <c r="L39" s="169"/>
-      <c r="M39" s="169"/>
-      <c r="N39" s="170"/>
-      <c r="O39" s="171"/>
-    </row>
-    <row r="40" spans="1:15" s="172" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A40" s="162">
-        <v>36</v>
-      </c>
-      <c r="B40" s="163">
-        <v>36</v>
-      </c>
-      <c r="C40" s="164" t="e">
-        <f>VLOOKUP(B40,Planificación!$B$13:$E$104,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D40" s="165" t="e">
-        <f>VLOOKUP(B40,Planificación!$B$13:$E$104,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E40" s="164"/>
-      <c r="F40" s="164"/>
-      <c r="G40" s="166"/>
-      <c r="H40" s="167"/>
-      <c r="I40" s="167"/>
-      <c r="J40" s="167"/>
-      <c r="K40" s="168"/>
-      <c r="L40" s="173"/>
-      <c r="M40" s="173"/>
-      <c r="N40" s="170"/>
-      <c r="O40" s="171"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H20">
       <formula1>TiposNC</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I20">
       <formula1>Origen</formula1>
     </dataValidation>
   </dataValidations>
@@ -9858,8 +7895,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A2:K74"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9874,82 +7911,82 @@
   <sheetData>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="C2" s="229" t="s">
+      <c r="C2" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="11"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1">
       <c r="A4" s="11"/>
-      <c r="C4" s="230" t="s">
+      <c r="C4" s="201" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="230"/>
-      <c r="E4" s="219" t="str">
+      <c r="D4" s="201"/>
+      <c r="E4" s="190" t="str">
         <f>IF(Planificación!D6&lt;&gt;"",Planificación!D6,"")</f>
         <v>Amira Lanao</v>
       </c>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="221"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="192"/>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1">
       <c r="A5" s="11"/>
-      <c r="C5" s="231" t="str">
+      <c r="C5" s="202" t="str">
         <f>Planificación!B7</f>
         <v>Analista de Calidad</v>
       </c>
-      <c r="D5" s="232"/>
-      <c r="E5" s="219" t="str">
+      <c r="D5" s="203"/>
+      <c r="E5" s="190" t="str">
         <f>IF(Planificación!D7&lt;&gt;"",Planificación!D7,"")</f>
         <v>Michel Aguilar</v>
       </c>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="221"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="191"/>
+      <c r="I5" s="192"/>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1">
       <c r="A6" s="11"/>
-      <c r="C6" s="217" t="s">
+      <c r="C6" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="218"/>
-      <c r="E6" s="219" t="str">
+      <c r="D6" s="189"/>
+      <c r="E6" s="190" t="str">
         <f>IF(Planificación!D8&lt;&gt;"",Planificación!D8,"")</f>
         <v>Gino Guzman, Amira Lanao</v>
       </c>
-      <c r="F6" s="220"/>
-      <c r="G6" s="220"/>
-      <c r="H6" s="220"/>
-      <c r="I6" s="221"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="192"/>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="C7" s="223" t="s">
+      <c r="C7" s="194" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="224">
+      <c r="D7" s="194"/>
+      <c r="E7" s="195">
         <f>IF(Planificación!D9&lt;&gt;"",Planificación!D9,"")</f>
         <v>41360</v>
       </c>
-      <c r="F7" s="225"/>
-      <c r="G7" s="226" t="s">
+      <c r="F7" s="196"/>
+      <c r="G7" s="197" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="227"/>
+      <c r="H7" s="198"/>
       <c r="I7" s="99">
         <f>IF(Planificación!F9&lt;&gt;"",Planificación!F9,"")</f>
         <v>41383</v>
@@ -9957,24 +7994,24 @@
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1">
       <c r="A8" s="11"/>
-      <c r="C8" s="223" t="s">
+      <c r="C8" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="228"/>
-      <c r="E8" s="219" t="str">
+      <c r="D8" s="199"/>
+      <c r="E8" s="190" t="str">
         <f>IF(Planificación!D10&lt;&gt;"",Planificación!D10,"")</f>
         <v/>
       </c>
-      <c r="F8" s="220"/>
-      <c r="G8" s="220"/>
-      <c r="H8" s="220"/>
-      <c r="I8" s="221"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="192"/>
     </row>
     <row r="13" spans="1:11" ht="15">
-      <c r="C13" s="222" t="s">
+      <c r="C13" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="222"/>
+      <c r="D13" s="193"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -9996,7 +8033,7 @@
       </c>
       <c r="D15" s="100">
         <f>D14-D16</f>
-        <v>-4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -10004,8 +8041,8 @@
         <v>41</v>
       </c>
       <c r="D16" s="100">
-        <f>COUNT(Planificación!L13:L57)</f>
-        <v>20</v>
+        <f>COUNT(Planificación!L13:L42)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="3:5">
@@ -10014,7 +8051,7 @@
       </c>
       <c r="D17" s="101">
         <f>(D16/(IF(D14=0,1,D14)))</f>
-        <v>1.25</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="18" spans="3:5">
@@ -10023,7 +8060,7 @@
       </c>
       <c r="D18" s="101">
         <f>1-D17</f>
-        <v>-0.25</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="19" spans="3:5">
@@ -10077,10 +8114,10 @@
       <c r="E28" s="9"/>
     </row>
     <row r="30" spans="3:5" ht="15" customHeight="1">
-      <c r="C30" s="216" t="s">
+      <c r="C30" s="187" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="216"/>
+      <c r="D30" s="187"/>
     </row>
     <row r="31" spans="3:5">
       <c r="C31" s="31" t="s">
@@ -10095,7 +8132,7 @@
         <v>147</v>
       </c>
       <c r="D32" s="103">
-        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$168,C32)</f>
+        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$148,C32)</f>
         <v>2</v>
       </c>
     </row>
@@ -10104,7 +8141,7 @@
         <v>148</v>
       </c>
       <c r="D33" s="103">
-        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$168,C33)</f>
+        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$148,C33)</f>
         <v>0</v>
       </c>
     </row>
@@ -10113,7 +8150,7 @@
         <v>149</v>
       </c>
       <c r="D34" s="103">
-        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$168,C34)</f>
+        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$148,C34)</f>
         <v>1</v>
       </c>
     </row>
@@ -10122,7 +8159,7 @@
         <v>37</v>
       </c>
       <c r="D35" s="103">
-        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$168,C35)</f>
+        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$148,C35)</f>
         <v>0</v>
       </c>
     </row>
@@ -10131,7 +8168,7 @@
         <v>36</v>
       </c>
       <c r="D36" s="103">
-        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$168,C36)</f>
+        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$148,C36)</f>
         <v>1</v>
       </c>
     </row>
@@ -10145,18 +8182,18 @@
       </c>
     </row>
     <row r="52" spans="3:4" ht="15">
-      <c r="C52" s="216" t="s">
+      <c r="C52" s="187" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="216"/>
+      <c r="D52" s="187"/>
     </row>
     <row r="53" spans="3:4">
       <c r="C53" s="105" t="s">
         <v>109</v>
       </c>
       <c r="D53" s="103">
-        <f>Planificación!J58</f>
-        <v>138</v>
+        <f>Planificación!J43</f>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="3:4">
@@ -10164,8 +8201,8 @@
         <v>110</v>
       </c>
       <c r="D54" s="103">
-        <f>Planificación!M58</f>
-        <v>137</v>
+        <f>Planificación!M43</f>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="3:4">
@@ -10178,10 +8215,10 @@
       </c>
     </row>
     <row r="69" spans="3:4" ht="15">
-      <c r="C69" s="216" t="s">
+      <c r="C69" s="187" t="s">
         <v>146</v>
       </c>
-      <c r="D69" s="216"/>
+      <c r="D69" s="187"/>
     </row>
     <row r="70" spans="3:4">
       <c r="C70" s="31" t="s">
@@ -10196,7 +8233,7 @@
         <v>95</v>
       </c>
       <c r="D71" s="103">
-        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$168,C71)</f>
+        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$148,C71)</f>
         <v>1</v>
       </c>
     </row>
@@ -10205,7 +8242,7 @@
         <v>97</v>
       </c>
       <c r="D72" s="103">
-        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$168,C72)</f>
+        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$148,C72)</f>
         <v>3</v>
       </c>
     </row>
@@ -10214,7 +8251,7 @@
         <v>98</v>
       </c>
       <c r="D73" s="103">
-        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$168,C73)</f>
+        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$148,C73)</f>
         <v>0</v>
       </c>
     </row>
@@ -10265,13 +8302,13 @@
   <dimension ref="A2:K42"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
     <col min="3" max="3" width="4.5703125" customWidth="1"/>
     <col min="4" max="4" width="45.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" customWidth="1"/>
@@ -10318,7 +8355,7 @@
       <c r="H3" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="233" t="s">
+      <c r="J3" s="204" t="s">
         <v>117</v>
       </c>
       <c r="K3" s="117" t="s">
@@ -10326,11 +8363,11 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="205" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="134" t="s">
-        <v>208</v>
+      <c r="B4" s="116" t="s">
+        <v>156</v>
       </c>
       <c r="D4" s="109" t="s">
         <v>97</v>
@@ -10341,15 +8378,15 @@
       <c r="H4" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="233"/>
+      <c r="J4" s="204"/>
       <c r="K4" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="235"/>
+      <c r="A5" s="206"/>
       <c r="B5" s="116" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="D5" s="109" t="s">
         <v>98</v>
@@ -10360,35 +8397,35 @@
       <c r="H5" s="109" t="s">
         <v>150</v>
       </c>
-      <c r="J5" s="233"/>
+      <c r="J5" s="204"/>
       <c r="K5" s="117" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="235"/>
+      <c r="A6" s="206"/>
       <c r="B6" s="116" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="F6" s="109" t="s">
         <v>149</v>
       </c>
       <c r="H6" s="109"/>
-      <c r="J6" s="233"/>
+      <c r="J6" s="204"/>
       <c r="K6" s="117" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="235"/>
+      <c r="A7" s="206"/>
       <c r="B7" s="116" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="F7" s="109" t="s">
         <v>37</v>
       </c>
       <c r="H7" s="109"/>
-      <c r="J7" s="233" t="s">
+      <c r="J7" s="204" t="s">
         <v>124</v>
       </c>
       <c r="K7" s="117" t="s">
@@ -10396,79 +8433,77 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="235"/>
+      <c r="A8" s="206"/>
       <c r="B8" s="116" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="F8" s="109" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="109"/>
-      <c r="J8" s="233"/>
+      <c r="J8" s="204"/>
       <c r="K8" s="117" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="235"/>
+      <c r="A9" s="206"/>
       <c r="B9" s="116" t="s">
-        <v>213</v>
-      </c>
-      <c r="J9" s="233"/>
+        <v>161</v>
+      </c>
+      <c r="J9" s="204"/>
       <c r="K9" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="235"/>
+      <c r="A10" s="206"/>
       <c r="B10" s="116" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="F10" s="112"/>
-      <c r="J10" s="233"/>
+      <c r="J10" s="204"/>
       <c r="K10" s="117" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="235"/>
+      <c r="A11" s="206"/>
       <c r="B11" s="116" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="F11" s="112"/>
-      <c r="J11" s="233"/>
+      <c r="J11" s="204"/>
       <c r="K11" s="117" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="235"/>
+    <row r="12" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A12" s="207"/>
       <c r="B12" s="116" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="F12" s="112"/>
-      <c r="J12" s="233"/>
+      <c r="J12" s="204"/>
       <c r="K12" s="117" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="235"/>
       <c r="B13" s="116" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="D13" s="118"/>
-      <c r="J13" s="233"/>
+      <c r="J13" s="204"/>
       <c r="K13" s="117" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="235"/>
       <c r="B14" s="116" t="s">
-        <v>218</v>
-      </c>
-      <c r="J14" s="233" t="s">
+        <v>166</v>
+      </c>
+      <c r="J14" s="204" t="s">
         <v>119</v>
       </c>
       <c r="K14" s="117" t="s">
@@ -10476,157 +8511,152 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="235"/>
       <c r="B15" s="116" t="s">
-        <v>219</v>
-      </c>
-      <c r="J15" s="233"/>
+        <v>169</v>
+      </c>
+      <c r="J15" s="204"/>
       <c r="K15" s="117" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="235"/>
       <c r="B16" s="116" t="s">
-        <v>220</v>
-      </c>
-      <c r="J16" s="233"/>
+        <v>157</v>
+      </c>
+      <c r="J16" s="204"/>
       <c r="K16" s="117" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A17" s="235"/>
+    <row r="17" spans="2:11">
       <c r="B17" s="116" t="s">
-        <v>221</v>
-      </c>
-      <c r="J17" s="233"/>
+        <v>163</v>
+      </c>
+      <c r="J17" s="204"/>
       <c r="K17" s="117" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="235"/>
+    <row r="18" spans="2:11">
       <c r="B18" s="116" t="s">
-        <v>222</v>
-      </c>
-      <c r="J18" s="233"/>
+        <v>167</v>
+      </c>
+      <c r="J18" s="204"/>
       <c r="K18" s="117" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A19" s="236"/>
-      <c r="B19" s="135" t="s">
-        <v>223</v>
-      </c>
-      <c r="J19" s="233"/>
+    <row r="19" spans="2:11">
+      <c r="B19" s="116" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" s="204"/>
       <c r="K19" s="117" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="J20" s="233"/>
+    <row r="20" spans="2:11">
+      <c r="J20" s="204"/>
       <c r="K20" s="117" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="J21" s="233"/>
+    <row r="21" spans="2:11">
+      <c r="J21" s="204"/>
       <c r="K21" s="117" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="J22" s="233"/>
+    <row r="22" spans="2:11">
+      <c r="J22" s="204"/>
       <c r="K22" s="117" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="J23" s="233"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="J23" s="204"/>
       <c r="K23" s="117" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="J24" s="233" t="s">
-        <v>169</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="J24" s="204" t="s">
+        <v>185</v>
       </c>
       <c r="K24" s="117" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="J25" s="233"/>
+    <row r="25" spans="2:11">
+      <c r="J25" s="204"/>
       <c r="K25" s="117" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="J26" s="233"/>
+    <row r="26" spans="2:11">
+      <c r="J26" s="204"/>
       <c r="K26" s="117" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="J27" s="233"/>
+    <row r="27" spans="2:11">
+      <c r="J27" s="204"/>
       <c r="K27" s="117" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="J28" s="233"/>
+    <row r="28" spans="2:11">
+      <c r="J28" s="204"/>
       <c r="K28" s="117" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="J29" s="233"/>
+    <row r="29" spans="2:11">
+      <c r="J29" s="204"/>
       <c r="K29" s="117" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="J30" s="233"/>
+    <row r="30" spans="2:11">
+      <c r="J30" s="204"/>
       <c r="K30" s="117" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="J31" s="233" t="s">
-        <v>170</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="J31" s="204" t="s">
+        <v>186</v>
       </c>
       <c r="K31" s="117" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="J32" s="233"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="J32" s="204"/>
       <c r="K32" s="117" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="10:11">
-      <c r="J33" s="233"/>
+      <c r="J33" s="204"/>
       <c r="K33" s="117" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="34" spans="10:11">
-      <c r="J34" s="233"/>
+      <c r="J34" s="204"/>
       <c r="K34" s="117" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="35" spans="10:11">
-      <c r="J35" s="233"/>
+      <c r="J35" s="204"/>
       <c r="K35" s="117" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="36" spans="10:11">
-      <c r="J36" s="233" t="s">
+      <c r="J36" s="204" t="s">
         <v>120</v>
       </c>
       <c r="K36" s="117" t="s">
@@ -10634,46 +8664,46 @@
       </c>
     </row>
     <row r="37" spans="10:11">
-      <c r="J37" s="233"/>
+      <c r="J37" s="204"/>
       <c r="K37" s="117" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="38" spans="10:11">
-      <c r="J38" s="233"/>
+      <c r="J38" s="204"/>
       <c r="K38" s="117" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="39" spans="10:11">
-      <c r="J39" s="233"/>
+      <c r="J39" s="204"/>
       <c r="K39" s="117" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="40" spans="10:11">
-      <c r="J40" s="233"/>
+      <c r="J40" s="204"/>
       <c r="K40" s="117" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="41" spans="10:11">
-      <c r="J41" s="233"/>
+      <c r="J41" s="204"/>
       <c r="K41" s="117" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="42" spans="10:11">
-      <c r="J42" s="233"/>
+      <c r="J42" s="204"/>
       <c r="K42" s="117" t="s">
         <v>129</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A4:A19"/>
     <mergeCell ref="J31:J35"/>
     <mergeCell ref="J36:J42"/>
+    <mergeCell ref="A4:A12"/>
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="J7:J13"/>
     <mergeCell ref="J14:J23"/>
